--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="35">
   <si>
     <t>System</t>
   </si>
@@ -26,15 +26,6 @@
   </si>
   <si>
     <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Document Tracking</t>
-  </si>
-  <si>
-    <t>Module ► Finance ► Advance ► Transaction</t>
-  </si>
-  <si>
-    <t>Data Validation</t>
   </si>
   <si>
     <t>Create</t>
@@ -49,70 +40,85 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Module ► Finance ► Advance ► Report ► Data Form</t>
-  </si>
-  <si>
-    <t>Module ► Finance ► Advance ► Report ► Data List</t>
-  </si>
-  <si>
-    <t>All Documents</t>
-  </si>
-  <si>
-    <t>Module ► Finance ► Advance ► Report ► Data Resume</t>
-  </si>
-  <si>
-    <t>Module ► Finance ► Advance Settlement ► Transaction</t>
-  </si>
-  <si>
-    <t>Module ► Finance ► Advance Settlement ► Report ► Data Form</t>
-  </si>
-  <si>
-    <t>Module ► Finance ► Advance Settlement ► Report ► Data List</t>
-  </si>
-  <si>
-    <t>Module ► Finance ► Advance Settlement ► Report ► Data Resume</t>
-  </si>
-  <si>
-    <t>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</t>
-  </si>
-  <si>
-    <t>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Form</t>
-  </si>
-  <si>
-    <t>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</t>
-  </si>
-  <si>
-    <t>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</t>
-  </si>
-  <si>
-    <t>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</t>
-  </si>
-  <si>
-    <t>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Form</t>
-  </si>
-  <si>
-    <t>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</t>
-  </si>
-  <si>
-    <t>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</t>
-  </si>
-  <si>
-    <t>Module ► Finance ► Master Data ► Transaction</t>
-  </si>
-  <si>
-    <t>Module ► Master Data ► Transaction</t>
-  </si>
-  <si>
-    <t>Module ► Master Data ► Report ► Data List</t>
-  </si>
-  <si>
-    <t>Module ► Supply Chain ► Procurement ► Master Data ► Transaction</t>
-  </si>
-  <si>
     <t>SYS_PID</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Module.MasterData.Transaction</t>
+  </si>
+  <si>
+    <t>Module.Finance.Advance.Transaction</t>
+  </si>
+  <si>
+    <t>DataValidation</t>
+  </si>
+  <si>
+    <t>AllDocuments</t>
+  </si>
+  <si>
+    <t>DocumentTracking</t>
+  </si>
+  <si>
+    <t>Module.MasterData.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.Finance.MasterData.Transaction</t>
+  </si>
+  <si>
+    <t>Module.Finance.Advance.Report.DataForm</t>
+  </si>
+  <si>
+    <t>Module.Finance.Advance.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.Finance.Advance.Report.DataResume</t>
+  </si>
+  <si>
+    <t>Module.Finance.AdvanceSettlement.Transaction</t>
+  </si>
+  <si>
+    <t>Module.Finance.AdvanceSettlement.Report.DataForm</t>
+  </si>
+  <si>
+    <t>Module.Finance.AdvanceSettlement.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.Finance.AdvanceSettlement.Report.DataResume</t>
+  </si>
+  <si>
+    <t>Module.SupplyChain.Procurement.MasterData.Transaction</t>
+  </si>
+  <si>
+    <t>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</t>
+  </si>
+  <si>
+    <t>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</t>
+  </si>
+  <si>
+    <t>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</t>
+  </si>
+  <si>
+    <t>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</t>
+  </si>
+  <si>
+    <t>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</t>
+  </si>
+  <si>
+    <t>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Caption</t>
   </si>
 </sst>
 </file>
@@ -529,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -549,8 +555,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I1" s="9" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
@@ -565,22 +577,22 @@
         <v>System</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>CONCATENATE(D2, IF(EXACT(C2, ""), IF(EXACT(B2, ""), " ► ......", C2), CONCATENATE(" ► ", C2)))</f>
-        <v>System ► Login</v>
+        <f>CONCATENATE(D2, IF(EXACT(C2, ""), IF(EXACT(B2, ""), "", C2), CONCATENATE(".", C2)))</f>
+        <v>System.Login</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT(C2, ""), "null", CONCATENATE("'", C2, "'")), ", '", E2, "');")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Login', 'System ► Login');</v>
+        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E2, "', ", IF(EXACT(C2, ""), "null", CONCATENATE("'", C2, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System.Login', 'Login');</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I2" s="10">
         <v>97000000000001</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>E2</f>
-        <v>System ► Login</v>
+        <v>System.Login</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -593,22 +605,22 @@
         <v>System</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E37" si="1">CONCATENATE(D3, IF(EXACT(C3, ""), IF(EXACT(B3, ""), " ► ......", C3), CONCATENATE(" ► ", C3)))</f>
-        <v>System ► Logout</v>
+        <f t="shared" ref="E3:E66" si="1">CONCATENATE(D3, IF(EXACT(C3, ""), IF(EXACT(B3, ""), "", C3), CONCATENATE(".", C3)))</f>
+        <v>System.Logout</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G37" si="2">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT(C3, ""), "null", CONCATENATE("'", C3, "'")), ", '", E3, "');")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Logout', 'System ► Logout');</v>
+        <f t="shared" ref="G3:G66" si="2">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E3, "', ", IF(EXACT(C3, ""), "null", CONCATENATE("'", C3, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System.Logout', 'Logout');</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I3" s="10">
         <v>97000000000002</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" ref="J3:J66" si="3">E3</f>
-        <v>System ► Logout</v>
+        <v>System.Logout</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -620,21 +632,21 @@
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'System ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System', null);</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I4" s="10">
         <v>97000000000003</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -646,21 +658,21 @@
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'System ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System', null);</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I5" s="10">
         <v>97000000000004</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -672,21 +684,21 @@
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'System ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System', null);</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I6" s="10">
         <v>97000000000005</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -698,21 +710,21 @@
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'System ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System', null);</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I7" s="10">
         <v>97000000000006</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -724,21 +736,21 @@
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'System ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System', null);</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I8" s="10">
         <v>97000000000007</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -750,21 +762,21 @@
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'System ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System', null);</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I9" s="10">
         <v>97000000000008</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -776,21 +788,21 @@
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'System ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System', null);</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I10" s="10">
         <v>97000000000009</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -802,21 +814,21 @@
       </c>
       <c r="E11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'System ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System', null);</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I11" s="10">
         <v>97000000000010</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>System ► ......</v>
+        <v>System</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -824,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -832,21 +844,21 @@
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► Document Tracking</v>
+        <v>Dashboard.DocumentTracking</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Document Tracking', 'Dashboard ► Document Tracking');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard.DocumentTracking', 'DocumentTracking');</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I12" s="10">
         <v>97000000000011</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► Document Tracking</v>
+        <v>Dashboard.DocumentTracking</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -858,21 +870,21 @@
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I13" s="10">
         <v>97000000000012</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
@@ -884,21 +896,21 @@
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I14" s="10">
         <v>97000000000013</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -910,21 +922,21 @@
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I15" s="10">
         <v>97000000000014</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -936,21 +948,21 @@
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I16" s="10">
         <v>97000000000015</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -962,21 +974,21 @@
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I17" s="10">
         <v>97000000000016</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -988,21 +1000,21 @@
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I18" s="10">
         <v>97000000000017</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -1014,21 +1026,21 @@
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I19" s="10">
         <v>97000000000018</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -1040,21 +1052,21 @@
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I20" s="10">
         <v>97000000000019</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -1066,21 +1078,21 @@
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I21" s="10">
         <v>97000000000020</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -1092,21 +1104,21 @@
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I22" s="10">
         <v>97000000000021</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
@@ -1118,21 +1130,21 @@
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I23" s="10">
         <v>97000000000022</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -1144,21 +1156,21 @@
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I24" s="10">
         <v>97000000000023</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
@@ -1170,21 +1182,21 @@
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I25" s="10">
         <v>97000000000024</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
@@ -1196,21 +1208,21 @@
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I26" s="10">
         <v>97000000000025</v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
@@ -1222,21 +1234,21 @@
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I27" s="10">
         <v>97000000000026</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
@@ -1248,21 +1260,21 @@
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I28" s="10">
         <v>97000000000027</v>
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
@@ -1274,21 +1286,21 @@
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I29" s="10">
         <v>97000000000028</v>
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
@@ -1300,21 +1312,21 @@
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I30" s="10">
         <v>97000000000029</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
@@ -1326,475 +1338,475 @@
       </c>
       <c r="E31" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
       <c r="G31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Dashboard ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I31" s="10">
         <v>97000000000030</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard ► ......</v>
+        <v>Dashboard</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Module ► Master Data ► Transaction</v>
+        <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Module ► Master Data ► Transaction ► Data Validation</v>
+        <v>Module.MasterData.Transaction.DataValidation</v>
       </c>
       <c r="G32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Data Validation', 'Module ► Master Data ► Transaction ► Data Validation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I32" s="10">
         <v>97000000000031</v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Master Data ► Transaction ► Data Validation</v>
+        <v>Module.MasterData.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Module ► Master Data ► Transaction</v>
+        <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Module ► Master Data ► Transaction ► Create</v>
+        <v>Module.MasterData.Transaction.Create</v>
       </c>
       <c r="G33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Create', 'Module ► Master Data ► Transaction ► Create');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Transaction.Create', 'Create');</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I33" s="10">
         <v>97000000000032</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Master Data ► Transaction ► Create</v>
+        <v>Module.MasterData.Transaction.Create</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Module ► Master Data ► Transaction</v>
+        <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Module ► Master Data ► Transaction ► Recreate</v>
+        <v>Module.MasterData.Transaction.Recreate</v>
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Recreate', 'Module ► Master Data ► Transaction ► Recreate');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I34" s="10">
         <v>97000000000033</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Master Data ► Transaction ► Recreate</v>
+        <v>Module.MasterData.Transaction.Recreate</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Module ► Master Data ► Transaction</v>
+        <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Module ► Master Data ► Transaction ► Edit</v>
+        <v>Module.MasterData.Transaction.Edit</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Edit', 'Module ► Master Data ► Transaction ► Edit');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I35" s="10">
         <v>97000000000034</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Master Data ► Transaction ► Edit</v>
+        <v>Module.MasterData.Transaction.Edit</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Module ► Master Data ► Transaction</v>
+        <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Module ► Master Data ► Transaction ► Delete</v>
+        <v>Module.MasterData.Transaction.Delete</v>
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Delete', 'Module ► Master Data ► Transaction ► Delete');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I36" s="10">
         <v>97000000000035</v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Master Data ► Transaction ► Delete</v>
+        <v>Module.MasterData.Transaction.Delete</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Module ► Master Data ► Report ► Data List</v>
+        <v>Module.MasterData.Report.DataList</v>
       </c>
       <c r="E37" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Module ► Master Data ► Report ► Data List</v>
+        <v>Module.MasterData.Report.DataList</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Master Data ► Report ► Data List');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Report.DataList', null);</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I37" s="10">
         <v>97000000000036</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Master Data ► Report ► Data List</v>
+        <v>Module.MasterData.Report.DataList</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" ref="D38:D61" si="4">IF(EXACT(B38, ""), D37, B38)</f>
-        <v>Module ► Finance ► Master Data ► Transaction</v>
+        <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" ref="E38:E61" si="5">CONCATENATE(D38, IF(EXACT(C38, ""), IF(EXACT(B38, ""), " ► ......", C38), CONCATENATE(" ► ", C38)))</f>
-        <v>Module ► Finance ► Master Data ► Transaction ► Data Validation</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.MasterData.Transaction.DataValidation</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" ref="G38:G61" si="6">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT(C38, ""), "null", CONCATENATE("'", C38, "'")), ", '", E38, "');")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Data Validation', 'Module ► Finance ► Master Data ► Transaction ► Data Validation');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.MasterData.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I38" s="10">
         <v>97000000000037</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Master Data ► Transaction ► Data Validation</v>
+        <v>Module.Finance.MasterData.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Master Data ► Transaction</v>
+        <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Master Data ► Transaction ► Create</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.MasterData.Transaction.Create</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Create', 'Module ► Finance ► Master Data ► Transaction ► Create');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.MasterData.Transaction.Create', 'Create');</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I39" s="10">
         <v>97000000000038</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Master Data ► Transaction ► Create</v>
+        <v>Module.Finance.MasterData.Transaction.Create</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Master Data ► Transaction</v>
+        <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Master Data ► Transaction ► Recreate</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.MasterData.Transaction.Recreate</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Recreate', 'Module ► Finance ► Master Data ► Transaction ► Recreate');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.MasterData.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I40" s="10">
         <v>97000000000039</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Master Data ► Transaction ► Recreate</v>
+        <v>Module.Finance.MasterData.Transaction.Recreate</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Master Data ► Transaction</v>
+        <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Master Data ► Transaction ► Edit</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.MasterData.Transaction.Edit</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Edit', 'Module ► Finance ► Master Data ► Transaction ► Edit');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.MasterData.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I41" s="10">
         <v>97000000000040</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Master Data ► Transaction ► Edit</v>
+        <v>Module.Finance.MasterData.Transaction.Edit</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D42" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Master Data ► Transaction</v>
+        <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E42" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Master Data ► Transaction ► Delete</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.MasterData.Transaction.Delete</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Delete', 'Module ► Finance ► Master Data ► Transaction ► Delete');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.MasterData.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I42" s="10">
         <v>97000000000041</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Master Data ► Transaction ► Delete</v>
+        <v>Module.Finance.MasterData.Transaction.Delete</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Data Validation</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction.DataValidation</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Data Validation', 'Module ► Finance ► Advance ► Transaction ► Data Validation');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I43" s="10">
         <v>97000000000042</v>
       </c>
       <c r="J43" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Data Validation</v>
+        <v>Module.Finance.Advance.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Create</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction.Create</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Create', 'Module ► Finance ► Advance ► Transaction ► Create');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction.Create', 'Create');</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I44" s="10">
         <v>97000000000043</v>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Create</v>
+        <v>Module.Finance.Advance.Transaction.Create</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Recreate</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction.Recreate</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Recreate', 'Module ► Finance ► Advance ► Transaction ► Recreate');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I45" s="10">
         <v>97000000000044</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Recreate</v>
+        <v>Module.Finance.Advance.Transaction.Recreate</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Edit</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction.Edit</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Edit', 'Module ► Finance ► Advance ► Transaction ► Edit');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I46" s="10">
         <v>97000000000045</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Edit</v>
+        <v>Module.Finance.Advance.Transaction.Edit</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Delete</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction.Delete</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Delete', 'Module ► Finance ► Advance ► Transaction ► Delete');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I47" s="10">
         <v>97000000000046</v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► Delete</v>
+        <v>Module.Finance.Advance.Transaction.Delete</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
@@ -1802,25 +1814,25 @@
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Transaction ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction', null);</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I48" s="10">
         <v>97000000000047</v>
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
@@ -1828,25 +1840,25 @@
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Transaction ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction', null);</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I49" s="10">
         <v>97000000000048</v>
       </c>
       <c r="J49" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
@@ -1854,25 +1866,25 @@
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Transaction ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction', null);</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I50" s="10">
         <v>97000000000049</v>
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
@@ -1880,25 +1892,25 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Transaction ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction', null);</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I51" s="10">
         <v>97000000000050</v>
       </c>
       <c r="J51" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
@@ -1906,83 +1918,83 @@
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Transaction</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Transaction ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction', null);</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I52" s="10">
         <v>97000000000051</v>
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Transaction ► ......</v>
+        <v>Module.Finance.Advance.Transaction</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Form</v>
+        <v>Module.Finance.Advance.Report.DataForm</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Form</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataForm</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Form');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataForm', null);</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I53" s="10">
         <v>97000000000052</v>
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Form</v>
+        <v>Module.Finance.Advance.Report.DataForm</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► All Documents</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList.AllDocuments</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'All Documents', 'Module ► Finance ► Advance ► Report ► Data List ► All Documents');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I54" s="10">
         <v>97000000000053</v>
       </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► All Documents</v>
+        <v>Module.Finance.Advance.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
@@ -1990,25 +2002,25 @@
       <c r="C55" s="2"/>
       <c r="D55" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data List ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', null);</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I55" s="10">
         <v>97000000000054</v>
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
@@ -2016,25 +2028,25 @@
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data List ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', null);</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I56" s="10">
         <v>97000000000055</v>
       </c>
       <c r="J56" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
@@ -2042,25 +2054,25 @@
       <c r="C57" s="2"/>
       <c r="D57" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data List ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', null);</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I57" s="10">
         <v>97000000000056</v>
       </c>
       <c r="J57" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
@@ -2068,25 +2080,25 @@
       <c r="C58" s="2"/>
       <c r="D58" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data List ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', null);</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I58" s="10">
         <v>97000000000057</v>
       </c>
       <c r="J58" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
@@ -2094,25 +2106,25 @@
       <c r="C59" s="2"/>
       <c r="D59" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data List ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', null);</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I59" s="10">
         <v>97000000000058</v>
       </c>
       <c r="J59" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
@@ -2120,25 +2132,25 @@
       <c r="C60" s="2"/>
       <c r="D60" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data List ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', null);</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I60" s="10">
         <v>97000000000059</v>
       </c>
       <c r="J60" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
@@ -2146,2959 +2158,2959 @@
       <c r="C61" s="2"/>
       <c r="D61" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data List ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', null);</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I61" s="10">
         <v>97000000000060</v>
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3" t="str">
-        <f t="shared" ref="D62:D103" si="7">IF(EXACT(B62, ""), D61, B62)</f>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <f t="shared" ref="D62:D103" si="5">IF(EXACT(B62, ""), D61, B62)</f>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f t="shared" ref="E62:E103" si="8">CONCATENATE(D62, IF(EXACT(C62, ""), IF(EXACT(B62, ""), " ► ......", C62), CONCATENATE(" ► ", C62)))</f>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f t="shared" ref="G62:G103" si="9">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT(C62, ""), "null", CONCATENATE("'", C62, "'")), ", '", E62, "');")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data List ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', null);</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I62" s="10">
         <v>97000000000061</v>
       </c>
       <c r="J62" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data List ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', null);</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I63" s="10">
         <v>97000000000062</v>
       </c>
       <c r="J63" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data List ► ......</v>
+        <v>Module.Finance.Advance.Report.DataList</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I64" s="10">
         <v>97000000000063</v>
       </c>
       <c r="J64" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I65" s="10">
         <v>97000000000064</v>
       </c>
       <c r="J65" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="1"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I66" s="10">
         <v>97000000000065</v>
       </c>
       <c r="J66" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" ref="E67:E130" si="6">CONCATENATE(D67, IF(EXACT(C67, ""), IF(EXACT(B67, ""), "", C67), CONCATENATE(".", C67)))</f>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume ► ......');</v>
+        <f t="shared" ref="G67:G130" si="7">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E67, "', ", IF(EXACT(C67, ""), "null", CONCATENATE("'", C67, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I67" s="10">
         <v>97000000000066</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" ref="J67:J130" si="10">E67</f>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" ref="J67:J130" si="8">E67</f>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I68" s="10">
         <v>97000000000067</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I69" s="10">
         <v>97000000000068</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I70" s="10">
         <v>97000000000069</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I71" s="10">
         <v>97000000000070</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I72" s="10">
         <v>97000000000071</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E73" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I73" s="10">
         <v>97000000000072</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Data Validation</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.DataValidation</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Data Validation', 'Module ► Finance ► Advance Settlement ► Transaction ► Data Validation');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I74" s="10">
         <v>97000000000073</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Data Validation</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Create</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.Create</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Create', 'Module ► Finance ► Advance Settlement ► Transaction ► Create');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.Create', 'Create');</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I75" s="10">
         <v>97000000000074</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Create</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.Create</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Recreate</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.Recreate</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Recreate', 'Module ► Finance ► Advance Settlement ► Transaction ► Recreate');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I76" s="10">
         <v>97000000000075</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Recreate</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.Recreate</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E77" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Edit</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.Edit</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Edit', 'Module ► Finance ► Advance Settlement ► Transaction ► Edit');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I77" s="10">
         <v>97000000000076</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Edit</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.Edit</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E78" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Delete</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.Delete</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Delete', 'Module ► Finance ► Advance Settlement ► Transaction ► Delete');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I78" s="10">
         <v>97000000000077</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► Delete</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction.Delete</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E79" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I79" s="10">
         <v>97000000000078</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I80" s="10">
         <v>97000000000079</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I81" s="10">
         <v>97000000000080</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E82" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I82" s="10">
         <v>97000000000081</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E83" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I83" s="10">
         <v>97000000000082</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Form</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataForm</v>
       </c>
       <c r="E84" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Form</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataForm</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Form');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataForm', null);</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I84" s="10">
         <v>97000000000083</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Form</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataForm</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E85" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► All Documents</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList.AllDocuments</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'All Documents', 'Module ► Finance ► Advance Settlement ► Report ► Data List ► All Documents');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I85" s="10">
         <v>97000000000084</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► All Documents</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E86" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I86" s="10">
         <v>97000000000085</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E87" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I87" s="10">
         <v>97000000000086</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E88" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I88" s="10">
         <v>97000000000087</v>
       </c>
       <c r="J88" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E89" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I89" s="10">
         <v>97000000000088</v>
       </c>
       <c r="J89" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E90" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I90" s="10">
         <v>97000000000089</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E91" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I91" s="10">
         <v>97000000000090</v>
       </c>
       <c r="J91" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E92" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I92" s="10">
         <v>97000000000091</v>
       </c>
       <c r="J92" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E93" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I93" s="10">
         <v>97000000000092</v>
       </c>
       <c r="J93" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I94" s="10">
         <v>97000000000093</v>
       </c>
       <c r="J94" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I95" s="10">
         <v>97000000000094</v>
       </c>
       <c r="J95" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I96" s="10">
         <v>97000000000095</v>
       </c>
       <c r="J96" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I97" s="10">
         <v>97000000000096</v>
       </c>
       <c r="J97" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I98" s="10">
         <v>97000000000097</v>
       </c>
       <c r="J98" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I99" s="10">
         <v>97000000000098</v>
       </c>
       <c r="J99" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I100" s="10">
         <v>97000000000099</v>
       </c>
       <c r="J100" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I101" s="10">
         <v>97000000000100</v>
       </c>
       <c r="J101" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E102" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I102" s="10">
         <v>97000000000101</v>
       </c>
       <c r="J102" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I103" s="10">
         <v>97000000000102</v>
       </c>
       <c r="J103" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="str">
-        <f t="shared" ref="D104:D167" si="11">IF(EXACT(B104, ""), D103, B104)</f>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume</v>
+        <f t="shared" ref="D104:D167" si="9">IF(EXACT(B104, ""), D103, B104)</f>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E104" s="7" t="str">
-        <f t="shared" ref="E104:E167" si="12">CONCATENATE(D104, IF(EXACT(C104, ""), IF(EXACT(B104, ""), " ► ......", C104), CONCATENATE(" ► ", C104)))</f>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f t="shared" ref="G104:G167" si="13">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT(C104, ""), "null", CONCATENATE("'", C104, "'")), ", '", E104, "');")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I104" s="10">
         <v>97000000000103</v>
       </c>
       <c r="J104" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Finance ► Advance Settlement ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Data Validation</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Data Validation', 'Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Data Validation');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I105" s="10">
         <v>97000000000104</v>
       </c>
       <c r="J105" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Data Validation</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Create</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Create', 'Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Create');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Create', 'Create');</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I106" s="10">
         <v>97000000000105</v>
       </c>
       <c r="J106" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Create</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
       </c>
       <c r="E107" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Recreate</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Recreate', 'Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Recreate');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I107" s="10">
         <v>97000000000106</v>
       </c>
       <c r="J107" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Recreate</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
       </c>
       <c r="E108" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Edit</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Edit', 'Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Edit');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I108" s="10">
         <v>97000000000107</v>
       </c>
       <c r="J108" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Edit</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" s="5"/>
       <c r="C109" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D109" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
       </c>
       <c r="E109" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Delete</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Delete', 'Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Delete');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I109" s="10">
         <v>97000000000108</v>
       </c>
       <c r="J109" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Master Data ► Transaction ► Delete</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Data Validation</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Data Validation', 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Data Validation');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I110" s="10">
         <v>97000000000109</v>
       </c>
       <c r="J110" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Data Validation</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Create</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Create', 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Create');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create', 'Create');</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I111" s="10">
         <v>97000000000110</v>
       </c>
       <c r="J111" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Create</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Recreate</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Recreate', 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Recreate');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I112" s="10">
         <v>97000000000111</v>
       </c>
       <c r="J112" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Recreate</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Edit</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Edit', 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Edit');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I113" s="10">
         <v>97000000000112</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Edit</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Delete</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Delete', 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Delete');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I114" s="10">
         <v>97000000000113</v>
       </c>
       <c r="J114" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► Delete</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I115" s="10">
         <v>97000000000114</v>
       </c>
       <c r="J115" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I116" s="10">
         <v>97000000000115</v>
       </c>
       <c r="J116" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I117" s="10">
         <v>97000000000116</v>
       </c>
       <c r="J117" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I118" s="10">
         <v>97000000000117</v>
       </c>
       <c r="J118" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
       <c r="G119" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I119" s="10">
         <v>97000000000118</v>
       </c>
       <c r="J119" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Transaction ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Form</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Form</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
       </c>
       <c r="G120" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Form');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm', null);</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I120" s="10">
         <v>97000000000119</v>
       </c>
       <c r="J120" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Form</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► All Documents</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
       </c>
       <c r="G121" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'All Documents', 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► All Documents');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I121" s="10">
         <v>97000000000120</v>
       </c>
       <c r="J121" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► All Documents</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G122" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I122" s="10">
         <v>97000000000121</v>
       </c>
       <c r="J122" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G123" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I123" s="10">
         <v>97000000000122</v>
       </c>
       <c r="J123" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G124" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I124" s="10">
         <v>97000000000123</v>
       </c>
       <c r="J124" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G125" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I125" s="10">
         <v>97000000000124</v>
       </c>
       <c r="J125" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G126" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I126" s="10">
         <v>97000000000125</v>
       </c>
       <c r="J126" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G127" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I127" s="10">
         <v>97000000000126</v>
       </c>
       <c r="J127" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G128" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I128" s="10">
         <v>97000000000127</v>
       </c>
       <c r="J128" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G129" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I129" s="10">
         <v>97000000000128</v>
       </c>
       <c r="J129" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="6"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G130" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......');</v>
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I130" s="10">
         <v>97000000000129</v>
       </c>
       <c r="J130" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data List ► ......</v>
+        <f t="shared" si="8"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
+        <f t="shared" ref="E131:E171" si="10">CONCATENATE(D131, IF(EXACT(C131, ""), IF(EXACT(B131, ""), "", C131), CONCATENATE(".", C131)))</f>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
       <c r="G131" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume');</v>
+        <f t="shared" ref="G131:G171" si="11">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E131, "', ", IF(EXACT(C131, ""), "null", CONCATENATE("'", C131, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I131" s="10">
         <v>97000000000130</v>
       </c>
       <c r="J131" s="1" t="str">
-        <f t="shared" ref="J131:J171" si="14">E131</f>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
+        <f t="shared" ref="J131:J171" si="12">E131</f>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E132" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G132" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
-      </c>
-      <c r="E132" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G132" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I132" s="10">
         <v>97000000000131</v>
       </c>
       <c r="J132" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E133" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G133" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
-      </c>
-      <c r="E133" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G133" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I133" s="10">
         <v>97000000000132</v>
       </c>
       <c r="J133" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E134" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G134" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
-      </c>
-      <c r="E134" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G134" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I134" s="10">
         <v>97000000000133</v>
       </c>
       <c r="J134" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E135" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G135" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
-      </c>
-      <c r="E135" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G135" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I135" s="10">
         <v>97000000000134</v>
       </c>
       <c r="J135" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E136" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G136" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
-      </c>
-      <c r="E136" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G136" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I136" s="10">
         <v>97000000000135</v>
       </c>
       <c r="J136" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E137" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G137" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
-      </c>
-      <c r="E137" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G137" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I137" s="10">
         <v>97000000000136</v>
       </c>
       <c r="J137" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E138" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G138" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
-      </c>
-      <c r="E138" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G138" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I138" s="10">
         <v>97000000000137</v>
       </c>
       <c r="J138" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E139" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G139" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
-      </c>
-      <c r="E139" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G139" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I139" s="10">
         <v>97000000000138</v>
       </c>
       <c r="J139" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E140" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G140" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume</v>
-      </c>
-      <c r="E140" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G140" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I140" s="10">
         <v>97000000000139</v>
       </c>
       <c r="J140" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Requisition ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D141" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E141" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
+      </c>
+      <c r="G141" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E141" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Data Validation</v>
-      </c>
-      <c r="G141" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Data Validation', 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Data Validation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I141" s="10">
         <v>97000000000140</v>
       </c>
       <c r="J141" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Data Validation</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D142" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E142" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
+      </c>
+      <c r="G142" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E142" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Create</v>
-      </c>
-      <c r="G142" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Create', 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Create');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create', 'Create');</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I142" s="10">
         <v>97000000000141</v>
       </c>
       <c r="J142" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Create</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D143" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E143" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
+      </c>
+      <c r="G143" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E143" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Recreate</v>
-      </c>
-      <c r="G143" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Recreate', 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Recreate');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I143" s="10">
         <v>97000000000142</v>
       </c>
       <c r="J143" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Recreate</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D144" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E144" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
+      </c>
+      <c r="G144" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E144" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Edit</v>
-      </c>
-      <c r="G144" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Edit', 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Edit');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I144" s="10">
         <v>97000000000143</v>
       </c>
       <c r="J144" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Edit</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D145" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E145" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
+      </c>
+      <c r="G145" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E145" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Delete</v>
-      </c>
-      <c r="G145" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Delete', 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Delete');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I145" s="10">
         <v>97000000000144</v>
       </c>
       <c r="J145" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► Delete</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G146" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E146" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
-      </c>
-      <c r="G146" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I146" s="10">
         <v>97000000000145</v>
       </c>
       <c r="J146" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E147" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G147" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E147" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
-      </c>
-      <c r="G147" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I147" s="10">
         <v>97000000000146</v>
       </c>
       <c r="J147" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E148" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G148" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E148" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
-      </c>
-      <c r="G148" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I148" s="10">
         <v>97000000000147</v>
       </c>
       <c r="J148" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E149" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G149" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E149" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
-      </c>
-      <c r="G149" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I149" s="10">
         <v>97000000000148</v>
       </c>
       <c r="J149" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E150" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G150" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction</v>
-      </c>
-      <c r="E150" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
-      </c>
-      <c r="G150" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I150" s="10">
         <v>97000000000149</v>
       </c>
       <c r="J150" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Transaction ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+      </c>
+      <c r="E151" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+      </c>
+      <c r="G151" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Form</v>
-      </c>
-      <c r="E151" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Form</v>
-      </c>
-      <c r="G151" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Form');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm', null);</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I151" s="10">
         <v>97000000000150</v>
       </c>
       <c r="J151" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Form</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E152" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
+      </c>
+      <c r="G152" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E152" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► All Documents</v>
-      </c>
-      <c r="G152" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'All Documents', 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► All Documents');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I152" s="10">
         <v>97000000000151</v>
       </c>
       <c r="J152" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► All Documents</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E153" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G153" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E153" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
-      </c>
-      <c r="G153" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I153" s="10">
         <v>97000000000152</v>
       </c>
       <c r="J153" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E154" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G154" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E154" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
-      </c>
-      <c r="G154" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I154" s="10">
         <v>97000000000153</v>
       </c>
       <c r="J154" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E155" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G155" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E155" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
-      </c>
-      <c r="G155" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I155" s="10">
         <v>97000000000154</v>
       </c>
       <c r="J155" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E156" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G156" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E156" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
-      </c>
-      <c r="G156" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I156" s="10">
         <v>97000000000155</v>
       </c>
       <c r="J156" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E157" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G157" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E157" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
-      </c>
-      <c r="G157" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I157" s="10">
         <v>97000000000156</v>
       </c>
       <c r="J157" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E158" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G158" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E158" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
-      </c>
-      <c r="G158" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I158" s="10">
         <v>97000000000157</v>
       </c>
       <c r="J158" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E159" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G159" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E159" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
-      </c>
-      <c r="G159" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I159" s="10">
         <v>97000000000158</v>
       </c>
       <c r="J159" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E160" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G160" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E160" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
-      </c>
-      <c r="G160" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I160" s="10">
         <v>97000000000159</v>
       </c>
       <c r="J160" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E161" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G161" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List</v>
-      </c>
-      <c r="E161" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
-      </c>
-      <c r="G161" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I161" s="10">
         <v>97000000000160</v>
       </c>
       <c r="J161" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data List ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E162" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G162" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
-      </c>
-      <c r="E162" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
-      </c>
-      <c r="G162" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I162" s="10">
         <v>97000000000161</v>
       </c>
       <c r="J162" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E163" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G163" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
-      </c>
-      <c r="E163" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G163" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I163" s="10">
         <v>97000000000162</v>
       </c>
       <c r="J163" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G164" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
-      </c>
-      <c r="E164" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G164" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I164" s="10">
         <v>97000000000163</v>
       </c>
       <c r="J164" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G165" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
-      </c>
-      <c r="E165" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G165" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I165" s="10">
         <v>97000000000164</v>
       </c>
       <c r="J165" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G166" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
-      </c>
-      <c r="E166" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G166" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I166" s="10">
         <v>97000000000165</v>
       </c>
       <c r="J166" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E167" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G167" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
-      </c>
-      <c r="E167" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
-      </c>
-      <c r="G167" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I167" s="10">
         <v>97000000000166</v>
       </c>
       <c r="J167" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3" t="str">
-        <f t="shared" ref="D168:D171" si="15">IF(EXACT(B168, ""), D167, B168)</f>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
+        <f t="shared" ref="D168:D171" si="13">IF(EXACT(B168, ""), D167, B168)</f>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
       <c r="E168" s="4" t="str">
-        <f t="shared" ref="E168:E171" si="16">CONCATENATE(D168, IF(EXACT(C168, ""), IF(EXACT(B168, ""), " ► ......", C168), CONCATENATE(" ► ", C168)))</f>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
       <c r="G168" s="1" t="str">
-        <f t="shared" ref="G168:G171" si="17">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT(C168, ""), "null", CONCATENATE("'", C168, "'")), ", '", E168, "');")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I168" s="10">
         <v>97000000000167</v>
       </c>
       <c r="J168" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
+        <f t="shared" si="13"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
       <c r="E169" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
       <c r="G169" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I169" s="10">
         <v>97000000000168</v>
       </c>
       <c r="J169" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
+        <f t="shared" si="13"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
       <c r="E170" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
       <c r="G170" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I170" s="10">
         <v>97000000000169</v>
       </c>
       <c r="J170" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume</v>
+        <f t="shared" si="13"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
       <c r="E171" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="10"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
       <c r="G171" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, null, 'Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I171" s="10">
         <v>97000000000170</v>
       </c>
       <c r="J171" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Module ► Supply Chain ► Procurement ► Purchase Order ► Report ► Data Resume ► ......</v>
+        <f t="shared" si="12"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="45">
   <si>
     <t>System</t>
   </si>
@@ -120,6 +120,36 @@
   <si>
     <t>Caption</t>
   </si>
+  <si>
+    <t>Module.HumanResource.MasterData.Transaction</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.Timesheet.Transaction</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.PersonBusinessTrip.Transaction</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.PersonBusinessTripSettlement.Transaction</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.PersonBusinessTrip.Report.DataForm</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.PersonBusinessTrip.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.PersonBusinessTrip.Report.DataResume</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -229,6 +259,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J171"/>
+  <dimension ref="B1:J243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -601,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D37" si="0">IF(EXACT(B3, ""), D2, B3)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(EXACT(B3, ""), D2, B3)</f>
         <v>System</v>
       </c>
       <c r="E3" s="4" t="str">
@@ -1533,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" ref="D38:D61" si="4">IF(EXACT(B38, ""), D37, B38)</f>
+        <f t="shared" si="0"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E38" s="4" t="str">
@@ -1561,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E39" s="4" t="str">
@@ -1589,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E40" s="4" t="str">
@@ -1617,7 +1649,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E41" s="4" t="str">
@@ -1645,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E42" s="7" t="str">
@@ -1675,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E43" s="4" t="str">
@@ -1703,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E44" s="4" t="str">
@@ -1731,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E45" s="4" t="str">
@@ -1759,7 +1791,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E46" s="4" t="str">
@@ -1787,7 +1819,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E47" s="4" t="str">
@@ -1813,7 +1845,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E48" s="4" t="str">
@@ -1839,7 +1871,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E49" s="4" t="str">
@@ -1865,7 +1897,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E50" s="4" t="str">
@@ -1891,7 +1923,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E51" s="4" t="str">
@@ -1917,7 +1949,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E52" s="4" t="str">
@@ -1945,7 +1977,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataForm</v>
       </c>
       <c r="E53" s="4" t="str">
@@ -1975,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E54" s="4" t="str">
@@ -2001,7 +2033,7 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E55" s="4" t="str">
@@ -2027,7 +2059,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E56" s="4" t="str">
@@ -2053,7 +2085,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E57" s="4" t="str">
@@ -2079,7 +2111,7 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E58" s="4" t="str">
@@ -2105,7 +2137,7 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E59" s="4" t="str">
@@ -2131,7 +2163,7 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E60" s="4" t="str">
@@ -2157,7 +2189,7 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E61" s="4" t="str">
@@ -2183,7 +2215,7 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3" t="str">
-        <f t="shared" ref="D62:D103" si="5">IF(EXACT(B62, ""), D61, B62)</f>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E62" s="4" t="str">
@@ -2209,7 +2241,7 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E63" s="4" t="str">
@@ -2237,7 +2269,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E64" s="4" t="str">
@@ -2263,7 +2295,7 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E65" s="4" t="str">
@@ -2289,7 +2321,7 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E66" s="4" t="str">
@@ -2315,15 +2347,15 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D67:D130" si="4">IF(EXACT(B67, ""), D66, B67)</f>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" ref="E67:E130" si="6">CONCATENATE(D67, IF(EXACT(C67, ""), IF(EXACT(B67, ""), "", C67), CONCATENATE(".", C67)))</f>
+        <f t="shared" ref="E67:E130" si="5">CONCATENATE(D67, IF(EXACT(C67, ""), IF(EXACT(B67, ""), "", C67), CONCATENATE(".", C67)))</f>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" ref="G67:G130" si="7">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E67, "', ", IF(EXACT(C67, ""), "null", CONCATENATE("'", C67, "'")), ");")</f>
+        <f t="shared" ref="G67:G202" si="6">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E67, "', ", IF(EXACT(C67, ""), "null", CONCATENATE("'", C67, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -2333,7 +2365,7 @@
         <v>97000000000066</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" ref="J67:J130" si="8">E67</f>
+        <f t="shared" ref="J67:J202" si="7">E67</f>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
@@ -2341,15 +2373,15 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
+      </c>
+      <c r="E68" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
-      <c r="E68" s="4" t="str">
+      <c r="G68" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.Advance.Report.DataResume</v>
-      </c>
-      <c r="G68" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -2359,7 +2391,7 @@
         <v>97000000000067</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
@@ -2367,15 +2399,15 @@
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
+      </c>
+      <c r="E69" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
-      <c r="E69" s="4" t="str">
+      <c r="G69" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.Advance.Report.DataResume</v>
-      </c>
-      <c r="G69" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -2385,7 +2417,7 @@
         <v>97000000000068</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
@@ -2393,15 +2425,15 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
+      </c>
+      <c r="E70" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
-      <c r="E70" s="4" t="str">
+      <c r="G70" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.Advance.Report.DataResume</v>
-      </c>
-      <c r="G70" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -2411,7 +2443,7 @@
         <v>97000000000069</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
@@ -2419,15 +2451,15 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
+      </c>
+      <c r="E71" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
-      <c r="E71" s="4" t="str">
+      <c r="G71" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.Advance.Report.DataResume</v>
-      </c>
-      <c r="G71" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -2437,7 +2469,7 @@
         <v>97000000000070</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
@@ -2445,15 +2477,15 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
+      </c>
+      <c r="E72" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
-      <c r="E72" s="4" t="str">
+      <c r="G72" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.Advance.Report.DataResume</v>
-      </c>
-      <c r="G72" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -2463,7 +2495,7 @@
         <v>97000000000071</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
@@ -2471,15 +2503,15 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.Advance.Report.DataResume</v>
+      </c>
+      <c r="E73" s="7" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
-      <c r="E73" s="7" t="str">
+      <c r="G73" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.Advance.Report.DataResume</v>
-      </c>
-      <c r="G73" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -2489,7 +2521,7 @@
         <v>97000000000072</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
@@ -2501,15 +2533,15 @@
         <v>12</v>
       </c>
       <c r="D74" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E74" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="E74" s="4" t="str">
+        <v>Module.Finance.AdvanceSettlement.Transaction.DataValidation</v>
+      </c>
+      <c r="G74" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction.DataValidation</v>
-      </c>
-      <c r="G74" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -2519,7 +2551,7 @@
         <v>97000000000073</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.DataValidation</v>
       </c>
     </row>
@@ -2529,15 +2561,15 @@
         <v>4</v>
       </c>
       <c r="D75" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E75" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="E75" s="4" t="str">
+        <v>Module.Finance.AdvanceSettlement.Transaction.Create</v>
+      </c>
+      <c r="G75" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction.Create</v>
-      </c>
-      <c r="G75" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.Create', 'Create');</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -2547,7 +2579,7 @@
         <v>97000000000074</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.Create</v>
       </c>
     </row>
@@ -2557,15 +2589,15 @@
         <v>5</v>
       </c>
       <c r="D76" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E76" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="E76" s="4" t="str">
+        <v>Module.Finance.AdvanceSettlement.Transaction.Recreate</v>
+      </c>
+      <c r="G76" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction.Recreate</v>
-      </c>
-      <c r="G76" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -2575,7 +2607,7 @@
         <v>97000000000075</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.Recreate</v>
       </c>
     </row>
@@ -2585,15 +2617,15 @@
         <v>6</v>
       </c>
       <c r="D77" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E77" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="E77" s="4" t="str">
+        <v>Module.Finance.AdvanceSettlement.Transaction.Edit</v>
+      </c>
+      <c r="G77" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction.Edit</v>
-      </c>
-      <c r="G77" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -2603,7 +2635,7 @@
         <v>97000000000076</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.Edit</v>
       </c>
     </row>
@@ -2613,15 +2645,15 @@
         <v>7</v>
       </c>
       <c r="D78" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E78" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="E78" s="4" t="str">
+        <v>Module.Finance.AdvanceSettlement.Transaction.Delete</v>
+      </c>
+      <c r="G78" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction.Delete</v>
-      </c>
-      <c r="G78" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -2631,7 +2663,7 @@
         <v>97000000000077</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.Delete</v>
       </c>
     </row>
@@ -2639,15 +2671,15 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E79" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
-      <c r="E79" s="4" t="str">
+      <c r="G79" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="G79" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -2657,7 +2689,7 @@
         <v>97000000000078</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
@@ -2665,15 +2697,15 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E80" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
-      <c r="E80" s="4" t="str">
+      <c r="G80" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="G80" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -2683,7 +2715,7 @@
         <v>97000000000079</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
@@ -2691,15 +2723,15 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E81" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
-      <c r="E81" s="4" t="str">
+      <c r="G81" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="G81" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -2709,7 +2741,7 @@
         <v>97000000000080</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
@@ -2717,15 +2749,15 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E82" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
-      <c r="E82" s="4" t="str">
+      <c r="G82" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="G82" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -2735,7 +2767,7 @@
         <v>97000000000081</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
@@ -2743,15 +2775,15 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="E83" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
-      <c r="E83" s="4" t="str">
+      <c r="G83" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Transaction</v>
-      </c>
-      <c r="G83" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', null);</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -2761,7 +2793,7 @@
         <v>97000000000082</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
     </row>
@@ -2771,15 +2803,15 @@
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataForm</v>
+      </c>
+      <c r="E84" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataForm</v>
       </c>
-      <c r="E84" s="4" t="str">
+      <c r="G84" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataForm</v>
-      </c>
-      <c r="G84" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataForm', null);</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -2789,7 +2821,7 @@
         <v>97000000000083</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataForm</v>
       </c>
     </row>
@@ -2801,15 +2833,15 @@
         <v>13</v>
       </c>
       <c r="D85" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E85" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="E85" s="4" t="str">
+        <v>Module.Finance.AdvanceSettlement.Report.DataList.AllDocuments</v>
+      </c>
+      <c r="G85" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList.AllDocuments</v>
-      </c>
-      <c r="G85" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -2819,7 +2851,7 @@
         <v>97000000000084</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList.AllDocuments</v>
       </c>
     </row>
@@ -2827,15 +2859,15 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E86" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
-      <c r="E86" s="4" t="str">
+      <c r="G86" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="G86" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -2845,7 +2877,7 @@
         <v>97000000000085</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
@@ -2853,15 +2885,15 @@
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E87" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
-      <c r="E87" s="4" t="str">
+      <c r="G87" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="G87" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -2871,7 +2903,7 @@
         <v>97000000000086</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
@@ -2879,15 +2911,15 @@
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E88" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
-      <c r="E88" s="4" t="str">
+      <c r="G88" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="G88" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -2897,7 +2929,7 @@
         <v>97000000000087</v>
       </c>
       <c r="J88" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
@@ -2905,15 +2937,15 @@
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E89" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
-      <c r="E89" s="4" t="str">
+      <c r="G89" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="G89" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -2923,7 +2955,7 @@
         <v>97000000000088</v>
       </c>
       <c r="J89" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
@@ -2931,15 +2963,15 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E90" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
-      <c r="E90" s="4" t="str">
+      <c r="G90" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="G90" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -2949,7 +2981,7 @@
         <v>97000000000089</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
@@ -2957,15 +2989,15 @@
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E91" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
-      <c r="E91" s="4" t="str">
+      <c r="G91" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="G91" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -2975,7 +3007,7 @@
         <v>97000000000090</v>
       </c>
       <c r="J91" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
@@ -2983,15 +3015,15 @@
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E92" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
-      <c r="E92" s="4" t="str">
+      <c r="G92" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="G92" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -3001,7 +3033,7 @@
         <v>97000000000091</v>
       </c>
       <c r="J92" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
@@ -3009,15 +3041,15 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E93" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
-      <c r="E93" s="4" t="str">
+      <c r="G93" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="G93" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -3027,7 +3059,7 @@
         <v>97000000000092</v>
       </c>
       <c r="J93" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
@@ -3035,15 +3067,15 @@
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="E94" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
-      <c r="E94" s="4" t="str">
+      <c r="G94" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
-      </c>
-      <c r="G94" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', null);</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -3053,7 +3085,7 @@
         <v>97000000000093</v>
       </c>
       <c r="J94" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
     </row>
@@ -3063,15 +3095,15 @@
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="E95" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
-      <c r="E95" s="4" t="str">
+      <c r="G95" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G95" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -3081,7 +3113,7 @@
         <v>97000000000094</v>
       </c>
       <c r="J95" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
@@ -3089,15 +3121,15 @@
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="E96" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
-      <c r="E96" s="4" t="str">
+      <c r="G96" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G96" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -3107,7 +3139,7 @@
         <v>97000000000095</v>
       </c>
       <c r="J96" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
@@ -3115,15 +3147,15 @@
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="E97" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
-      <c r="E97" s="4" t="str">
+      <c r="G97" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G97" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -3133,7 +3165,7 @@
         <v>97000000000096</v>
       </c>
       <c r="J97" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
@@ -3141,15 +3173,15 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="E98" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
-      <c r="E98" s="4" t="str">
+      <c r="G98" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G98" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -3159,7 +3191,7 @@
         <v>97000000000097</v>
       </c>
       <c r="J98" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
@@ -3167,15 +3199,15 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="E99" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
-      <c r="E99" s="4" t="str">
+      <c r="G99" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G99" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -3185,7 +3217,7 @@
         <v>97000000000098</v>
       </c>
       <c r="J99" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
@@ -3193,15 +3225,15 @@
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="E100" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
-      <c r="E100" s="4" t="str">
+      <c r="G100" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G100" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -3211,7 +3243,7 @@
         <v>97000000000099</v>
       </c>
       <c r="J100" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
@@ -3219,15 +3251,15 @@
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="E101" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
-      <c r="E101" s="4" t="str">
+      <c r="G101" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G101" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -3237,7 +3269,7 @@
         <v>97000000000100</v>
       </c>
       <c r="J101" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
@@ -3245,15 +3277,15 @@
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="E102" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
-      <c r="E102" s="4" t="str">
+      <c r="G102" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G102" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -3263,7 +3295,7 @@
         <v>97000000000101</v>
       </c>
       <c r="J102" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
@@ -3271,15 +3303,15 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="E103" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
-      <c r="E103" s="4" t="str">
+      <c r="G103" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G103" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -3289,7 +3321,7 @@
         <v>97000000000102</v>
       </c>
       <c r="J103" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
@@ -3297,15 +3329,15 @@
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="str">
-        <f t="shared" ref="D104:D167" si="9">IF(EXACT(B104, ""), D103, B104)</f>
+        <f t="shared" si="4"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E104" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
+      </c>
+      <c r="G104" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
-      </c>
-      <c r="G104" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -3315,28 +3347,28 @@
         <v>97000000000103</v>
       </c>
       <c r="J104" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.MasterData.Transaction.DataValidation</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation', 'DataValidation');</v>
+        <f t="shared" ref="G105:G109" si="8">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E105, "', ", IF(EXACT(C105, ""), "null", CONCATENATE("'", C105, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>9</v>
@@ -3345,8 +3377,8 @@
         <v>97000000000104</v>
       </c>
       <c r="J105" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
+        <f t="shared" ref="J105:J109" si="9">E105</f>
+        <v>Module.HumanResource.MasterData.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
@@ -3355,16 +3387,16 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.MasterData.Transaction.Create</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Create', 'Create');</v>
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Create', 'Create');</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>9</v>
@@ -3373,8 +3405,8 @@
         <v>97000000000105</v>
       </c>
       <c r="J106" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
+        <f t="shared" si="9"/>
+        <v>Module.HumanResource.MasterData.Transaction.Create</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
@@ -3383,16 +3415,16 @@
         <v>5</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
       </c>
       <c r="E107" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.MasterData.Transaction.Recreate</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Recreate', 'Recreate');</v>
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>9</v>
@@ -3401,8 +3433,8 @@
         <v>97000000000106</v>
       </c>
       <c r="J107" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
+        <f t="shared" si="9"/>
+        <v>Module.HumanResource.MasterData.Transaction.Recreate</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
@@ -3411,16 +3443,16 @@
         <v>6</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
       </c>
       <c r="E108" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.MasterData.Transaction.Edit</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Edit', 'Edit');</v>
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>9</v>
@@ -3429,8 +3461,8 @@
         <v>97000000000107</v>
       </c>
       <c r="J108" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
+        <f t="shared" si="9"/>
+        <v>Module.HumanResource.MasterData.Transaction.Edit</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
@@ -3439,16 +3471,16 @@
         <v>7</v>
       </c>
       <c r="D109" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
       </c>
       <c r="E109" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.MasterData.Transaction.Delete</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Delete', 'Delete');</v>
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>9</v>
@@ -3457,38 +3489,38 @@
         <v>97000000000108</v>
       </c>
       <c r="J109" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
+        <f t="shared" si="9"/>
+        <v>Module.HumanResource.MasterData.Transaction.Delete</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.Timesheet.Transaction.DataValidation</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation', 'DataValidation');</v>
+        <f t="shared" ref="G110:G114" si="10">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E110, "', ", IF(EXACT(C110, ""), "null", CONCATENATE("'", C110, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I110" s="10">
-        <v>97000000000109</v>
+        <v>97000000000104</v>
       </c>
       <c r="J110" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
+        <f t="shared" ref="J110:J114" si="11">E110</f>
+        <v>Module.HumanResource.Timesheet.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
@@ -3497,26 +3529,26 @@
         <v>4</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Create</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create', 'Create');</v>
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Create', 'Create');</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I111" s="10">
-        <v>97000000000110</v>
+        <v>97000000000105</v>
       </c>
       <c r="J111" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
+        <f t="shared" si="11"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Create</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
@@ -3525,26 +3557,26 @@
         <v>5</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Recreate</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate', 'Recreate');</v>
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I112" s="10">
-        <v>97000000000111</v>
+        <v>97000000000106</v>
       </c>
       <c r="J112" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
+        <f t="shared" si="11"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Recreate</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
@@ -3553,1563 +3585,3499 @@
         <v>6</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Edit</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit', 'Edit');</v>
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I113" s="10">
-        <v>97000000000112</v>
+        <v>97000000000107</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
+        <f t="shared" si="11"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Edit</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B114" s="2"/>
-      <c r="C114" s="2" t="s">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
-      </c>
-      <c r="E114" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
+      <c r="D114" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
+      </c>
+      <c r="E114" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Delete</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete', 'Delete');</v>
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I114" s="10">
-        <v>97000000000113</v>
+        <v>97000000000108</v>
       </c>
       <c r="J114" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
+        <f t="shared" si="11"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Delete</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D115" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.DataValidation</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+        <f t="shared" ref="G115:G145" si="12">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E115, "', ", IF(EXACT(C115, ""), "null", CONCATENATE("'", C115, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I115" s="10">
-        <v>97000000000114</v>
+        <v>97000000000104</v>
       </c>
       <c r="J115" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" ref="J115:J145" si="13">E115</f>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D116" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Create</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Create', 'Create');</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I116" s="10">
-        <v>97000000000115</v>
+        <v>97000000000105</v>
       </c>
       <c r="J116" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Create</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D117" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Recreate</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I117" s="10">
-        <v>97000000000116</v>
+        <v>97000000000106</v>
       </c>
       <c r="J117" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Recreate</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D118" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Edit</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I118" s="10">
-        <v>97000000000117</v>
+        <v>97000000000107</v>
       </c>
       <c r="J118" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D119" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
-      </c>
-      <c r="G119" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I119" s="10">
-        <v>97000000000118</v>
-      </c>
-      <c r="J119" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Delete</v>
+      </c>
+      <c r="G119" s="11" t="str">
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I119" s="12">
+        <v>97000000000108</v>
+      </c>
+      <c r="J119" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Delete</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B120" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G120" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I120" s="10">
-        <v>97000000000119</v>
+        <v>97000000000078</v>
       </c>
       <c r="J120" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
       <c r="D121" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G121" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments', 'AllDocuments');</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I121" s="10">
-        <v>97000000000120</v>
+        <v>97000000000079</v>
       </c>
       <c r="J121" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G122" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I122" s="10">
-        <v>97000000000121</v>
+        <v>97000000000080</v>
       </c>
       <c r="J122" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G123" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I123" s="10">
-        <v>97000000000122</v>
+        <v>97000000000081</v>
       </c>
       <c r="J123" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G124" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I124" s="10">
-        <v>97000000000123</v>
+        <v>97000000000082</v>
       </c>
       <c r="J124" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataForm</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataForm</v>
       </c>
       <c r="G125" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataForm', null);</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I125" s="10">
-        <v>97000000000124</v>
+        <v>97000000000083</v>
       </c>
       <c r="J125" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataForm</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D126" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList.AllDocuments</v>
       </c>
       <c r="G126" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I126" s="10">
-        <v>97000000000125</v>
+        <v>97000000000084</v>
       </c>
       <c r="J126" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G127" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I127" s="10">
-        <v>97000000000126</v>
+        <v>97000000000085</v>
       </c>
       <c r="J127" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G128" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I128" s="10">
-        <v>97000000000127</v>
+        <v>97000000000086</v>
       </c>
       <c r="J128" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G129" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I129" s="10">
-        <v>97000000000128</v>
+        <v>97000000000087</v>
       </c>
       <c r="J129" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="4"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="5"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G130" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I130" s="10">
-        <v>97000000000129</v>
+        <v>97000000000088</v>
       </c>
       <c r="J130" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B131" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" ref="D131:D194" si="14">IF(EXACT(B131, ""), D130, B131)</f>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E171" si="10">CONCATENATE(D131, IF(EXACT(C131, ""), IF(EXACT(B131, ""), "", C131), CONCATENATE(".", C131)))</f>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" ref="E131:E194" si="15">CONCATENATE(D131, IF(EXACT(C131, ""), IF(EXACT(B131, ""), "", C131), CONCATENATE(".", C131)))</f>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G131" s="1" t="str">
-        <f t="shared" ref="G131:G171" si="11">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E131, "', ", IF(EXACT(C131, ""), "null", CONCATENATE("'", C131, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I131" s="10">
-        <v>97000000000130</v>
+        <v>97000000000089</v>
       </c>
       <c r="J131" s="1" t="str">
-        <f t="shared" ref="J131:J171" si="12">E131</f>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G132" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I132" s="10">
-        <v>97000000000131</v>
+        <v>97000000000090</v>
       </c>
       <c r="J132" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G133" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I133" s="10">
-        <v>97000000000132</v>
+        <v>97000000000091</v>
       </c>
       <c r="J133" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G134" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I134" s="10">
-        <v>97000000000133</v>
+        <v>97000000000092</v>
       </c>
       <c r="J134" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E135" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G135" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I135" s="10">
-        <v>97000000000134</v>
+        <v>97000000000093</v>
       </c>
       <c r="J135" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="G136" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I136" s="10">
-        <v>97000000000135</v>
+        <v>97000000000094</v>
       </c>
       <c r="J136" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="G137" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I137" s="10">
-        <v>97000000000136</v>
+        <v>97000000000095</v>
       </c>
       <c r="J137" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="G138" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I138" s="10">
-        <v>97000000000137</v>
+        <v>97000000000096</v>
       </c>
       <c r="J138" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="G139" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I139" s="10">
-        <v>97000000000138</v>
+        <v>97000000000097</v>
       </c>
       <c r="J139" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E140" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G140" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E140" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G140" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I140" s="10">
-        <v>97000000000139</v>
+        <v>97000000000098</v>
       </c>
       <c r="J140" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E141" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G141" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B141" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E141" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
-      </c>
-      <c r="G141" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I141" s="10">
-        <v>97000000000140</v>
+        <v>97000000000099</v>
       </c>
       <c r="J141" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
-      <c r="C142" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C142" s="2"/>
       <c r="D142" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="G142" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create', 'Create');</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I142" s="10">
-        <v>97000000000141</v>
+        <v>97000000000100</v>
       </c>
       <c r="J142" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
-      <c r="C143" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C143" s="2"/>
       <c r="D143" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="E143" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="G143" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate', 'Recreate');</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I143" s="10">
-        <v>97000000000142</v>
+        <v>97000000000101</v>
       </c>
       <c r="J143" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
-      <c r="C144" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C144" s="2"/>
       <c r="D144" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
       <c r="G144" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit', 'Edit');</v>
+        <f t="shared" si="12"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I144" s="10">
-        <v>97000000000143</v>
+        <v>97000000000102</v>
       </c>
       <c r="J144" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E145" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G145" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B145" s="2"/>
-      <c r="C145" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E145" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
-      </c>
-      <c r="G145" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete', 'Delete');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I145" s="10">
-        <v>97000000000144</v>
+        <v>97000000000103</v>
       </c>
       <c r="J145" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D146" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.DataValidation</v>
       </c>
       <c r="G146" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+        <f t="shared" ref="G146:G176" si="16">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E146, "', ", IF(EXACT(C146, ""), "null", CONCATENATE("'", C146, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I146" s="10">
-        <v>97000000000145</v>
+        <v>97000000000104</v>
       </c>
       <c r="J146" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" ref="J146:J176" si="17">E146</f>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D147" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Create</v>
       </c>
       <c r="G147" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Create', 'Create');</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I147" s="10">
-        <v>97000000000146</v>
+        <v>97000000000105</v>
       </c>
       <c r="J147" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Create</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D148" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Recreate</v>
       </c>
       <c r="G148" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I148" s="10">
-        <v>97000000000147</v>
+        <v>97000000000106</v>
       </c>
       <c r="J148" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Recreate</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D149" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Edit</v>
       </c>
       <c r="G149" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I149" s="10">
-        <v>97000000000148</v>
+        <v>97000000000107</v>
       </c>
       <c r="J149" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D150" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="G150" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I150" s="10">
-        <v>97000000000149</v>
-      </c>
-      <c r="J150" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Delete</v>
+      </c>
+      <c r="G150" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I150" s="12">
+        <v>97000000000108</v>
+      </c>
+      <c r="J150" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Delete</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B151" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="G151" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I151" s="10">
-        <v>97000000000150</v>
+        <v>97000000000078</v>
       </c>
       <c r="J151" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
       <c r="D152" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="G152" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments', 'AllDocuments');</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I152" s="10">
-        <v>97000000000151</v>
+        <v>97000000000079</v>
       </c>
       <c r="J152" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="G153" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I153" s="10">
-        <v>97000000000152</v>
+        <v>97000000000080</v>
       </c>
       <c r="J153" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="G154" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I154" s="10">
-        <v>97000000000153</v>
+        <v>97000000000081</v>
       </c>
       <c r="J154" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="G155" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I155" s="10">
-        <v>97000000000154</v>
+        <v>97000000000082</v>
       </c>
       <c r="J155" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C156" s="2"/>
       <c r="D156" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</v>
       </c>
       <c r="G156" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm', null);</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I156" s="10">
-        <v>97000000000155</v>
+        <v>97000000000083</v>
       </c>
       <c r="J156" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D157" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList.AllDocuments</v>
       </c>
       <c r="G157" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I157" s="10">
-        <v>97000000000156</v>
+        <v>97000000000084</v>
       </c>
       <c r="J157" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G158" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I158" s="10">
-        <v>97000000000157</v>
+        <v>97000000000085</v>
       </c>
       <c r="J158" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G159" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I159" s="10">
-        <v>97000000000158</v>
+        <v>97000000000086</v>
       </c>
       <c r="J159" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G160" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I160" s="10">
-        <v>97000000000159</v>
+        <v>97000000000087</v>
       </c>
       <c r="J160" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E161" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G161" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I161" s="10">
-        <v>97000000000160</v>
+        <v>97000000000088</v>
       </c>
       <c r="J161" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B162" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E162" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G162" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I162" s="10">
-        <v>97000000000161</v>
+        <v>97000000000089</v>
       </c>
       <c r="J162" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E163" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G163" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I163" s="10">
-        <v>97000000000162</v>
+        <v>97000000000090</v>
       </c>
       <c r="J163" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E164" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G164" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I164" s="10">
-        <v>97000000000163</v>
+        <v>97000000000091</v>
       </c>
       <c r="J164" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E165" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G165" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I165" s="10">
-        <v>97000000000164</v>
+        <v>97000000000092</v>
       </c>
       <c r="J165" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="E166" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G166" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I166" s="10">
-        <v>97000000000165</v>
+        <v>97000000000093</v>
       </c>
       <c r="J166" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B167" s="2"/>
+      <c r="B167" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C167" s="2"/>
       <c r="D167" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
       <c r="E167" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
       <c r="G167" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I167" s="10">
-        <v>97000000000166</v>
+        <v>97000000000094</v>
       </c>
       <c r="J167" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3" t="str">
-        <f t="shared" ref="D168:D171" si="13">IF(EXACT(B168, ""), D167, B168)</f>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
       <c r="E168" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
       <c r="G168" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I168" s="10">
-        <v>97000000000167</v>
+        <v>97000000000095</v>
       </c>
       <c r="J168" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
       <c r="E169" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
       <c r="G169" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I169" s="10">
-        <v>97000000000168</v>
+        <v>97000000000096</v>
       </c>
       <c r="J169" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
       <c r="E170" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
       <c r="G170" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I170" s="10">
-        <v>97000000000169</v>
+        <v>97000000000097</v>
       </c>
       <c r="J170" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E171" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G171" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I171" s="10">
+        <v>97000000000098</v>
+      </c>
+      <c r="J171" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E172" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G172" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I172" s="10">
+        <v>97000000000099</v>
+      </c>
+      <c r="J172" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E173" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G173" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I173" s="10">
+        <v>97000000000100</v>
+      </c>
+      <c r="J173" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E174" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G174" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I174" s="10">
+        <v>97000000000101</v>
+      </c>
+      <c r="J174" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E175" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G175" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I175" s="10">
+        <v>97000000000102</v>
+      </c>
+      <c r="J175" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E176" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G176" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I176" s="10">
+        <v>97000000000103</v>
+      </c>
+      <c r="J176" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B177" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E177" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
+      </c>
+      <c r="G177" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation', 'DataValidation');</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I177" s="10">
+        <v>97000000000104</v>
+      </c>
+      <c r="J177" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E178" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
+      </c>
+      <c r="G178" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Create', 'Create');</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I178" s="10">
+        <v>97000000000105</v>
+      </c>
+      <c r="J178" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E179" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
+      </c>
+      <c r="G179" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Recreate', 'Recreate');</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I179" s="10">
+        <v>97000000000106</v>
+      </c>
+      <c r="J179" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E180" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
+      </c>
+      <c r="G180" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Edit', 'Edit');</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I180" s="10">
+        <v>97000000000107</v>
+      </c>
+      <c r="J180" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E181" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
+      </c>
+      <c r="G181" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I181" s="10">
+        <v>97000000000108</v>
+      </c>
+      <c r="J181" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E182" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
+      </c>
+      <c r="G182" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation', 'DataValidation');</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I182" s="10">
+        <v>97000000000109</v>
+      </c>
+      <c r="J182" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E183" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
+      </c>
+      <c r="G183" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create', 'Create');</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I183" s="10">
+        <v>97000000000110</v>
+      </c>
+      <c r="J183" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E184" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
+      </c>
+      <c r="G184" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate', 'Recreate');</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I184" s="10">
+        <v>97000000000111</v>
+      </c>
+      <c r="J184" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E185" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
+      </c>
+      <c r="G185" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit', 'Edit');</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I185" s="10">
+        <v>97000000000112</v>
+      </c>
+      <c r="J185" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B186" s="2"/>
+      <c r="C186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E186" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
+      </c>
+      <c r="G186" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I186" s="10">
+        <v>97000000000113</v>
+      </c>
+      <c r="J186" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E187" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G187" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I187" s="10">
+        <v>97000000000114</v>
+      </c>
+      <c r="J187" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E188" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G188" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I188" s="10">
+        <v>97000000000115</v>
+      </c>
+      <c r="J188" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E189" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G189" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I189" s="10">
+        <v>97000000000116</v>
+      </c>
+      <c r="J189" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E190" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G190" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I190" s="10">
+        <v>97000000000117</v>
+      </c>
+      <c r="J190" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E191" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G191" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I191" s="10">
+        <v>97000000000118</v>
+      </c>
+      <c r="J191" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B192" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+      </c>
+      <c r="E192" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+      </c>
+      <c r="G192" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm', null);</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I192" s="10">
+        <v>97000000000119</v>
+      </c>
+      <c r="J192" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B193" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E193" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
+      </c>
+      <c r="G193" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments', 'AllDocuments');</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I193" s="10">
+        <v>97000000000120</v>
+      </c>
+      <c r="J193" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E194" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G194" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I194" s="10">
+        <v>97000000000121</v>
+      </c>
+      <c r="J194" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="3" t="str">
+        <f t="shared" ref="D195:D243" si="18">IF(EXACT(B195, ""), D194, B195)</f>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E195" s="4" t="str">
+        <f t="shared" ref="E195:E243" si="19">CONCATENATE(D195, IF(EXACT(C195, ""), IF(EXACT(B195, ""), "", C195), CONCATENATE(".", C195)))</f>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G195" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I195" s="10">
+        <v>97000000000122</v>
+      </c>
+      <c r="J195" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E196" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G196" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I196" s="10">
+        <v>97000000000123</v>
+      </c>
+      <c r="J196" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E197" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G197" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I197" s="10">
+        <v>97000000000124</v>
+      </c>
+      <c r="J197" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E198" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G198" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I198" s="10">
+        <v>97000000000125</v>
+      </c>
+      <c r="J198" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E199" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G199" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I199" s="10">
+        <v>97000000000126</v>
+      </c>
+      <c r="J199" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E200" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G200" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I200" s="10">
+        <v>97000000000127</v>
+      </c>
+      <c r="J200" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E201" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G201" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I201" s="10">
+        <v>97000000000128</v>
+      </c>
+      <c r="J201" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E202" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G202" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I202" s="10">
+        <v>97000000000129</v>
+      </c>
+      <c r="J202" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B203" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E203" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G203" s="1" t="str">
+        <f t="shared" ref="G203:G243" si="20">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E203, "', ", IF(EXACT(C203, ""), "null", CONCATENATE("'", C203, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I203" s="10">
+        <v>97000000000130</v>
+      </c>
+      <c r="J203" s="1" t="str">
+        <f t="shared" ref="J203:J243" si="21">E203</f>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E204" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G204" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I204" s="10">
+        <v>97000000000131</v>
+      </c>
+      <c r="J204" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E205" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G205" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I205" s="10">
+        <v>97000000000132</v>
+      </c>
+      <c r="J205" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E206" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G206" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I206" s="10">
+        <v>97000000000133</v>
+      </c>
+      <c r="J206" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E207" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G207" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I207" s="10">
+        <v>97000000000134</v>
+      </c>
+      <c r="J207" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E208" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G208" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I208" s="10">
+        <v>97000000000135</v>
+      </c>
+      <c r="J208" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E209" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G209" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I209" s="10">
+        <v>97000000000136</v>
+      </c>
+      <c r="J209" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E210" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G210" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I210" s="10">
+        <v>97000000000137</v>
+      </c>
+      <c r="J210" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E211" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G211" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I211" s="10">
+        <v>97000000000138</v>
+      </c>
+      <c r="J211" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E212" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G212" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I212" s="10">
+        <v>97000000000139</v>
+      </c>
+      <c r="J212" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B213" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E213" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
+      </c>
+      <c r="G213" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation', 'DataValidation');</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I213" s="10">
+        <v>97000000000140</v>
+      </c>
+      <c r="J213" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E214" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
+      </c>
+      <c r="G214" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create', 'Create');</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I214" s="10">
+        <v>97000000000141</v>
+      </c>
+      <c r="J214" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E215" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
+      </c>
+      <c r="G215" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate', 'Recreate');</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I215" s="10">
+        <v>97000000000142</v>
+      </c>
+      <c r="J215" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B216" s="2"/>
+      <c r="C216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E216" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
+      </c>
+      <c r="G216" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit', 'Edit');</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I216" s="10">
+        <v>97000000000143</v>
+      </c>
+      <c r="J216" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E217" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
+      </c>
+      <c r="G217" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I217" s="10">
+        <v>97000000000144</v>
+      </c>
+      <c r="J217" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E218" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G218" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I218" s="10">
+        <v>97000000000145</v>
+      </c>
+      <c r="J218" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E219" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G219" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I219" s="10">
+        <v>97000000000146</v>
+      </c>
+      <c r="J219" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E220" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G220" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I220" s="10">
+        <v>97000000000147</v>
+      </c>
+      <c r="J220" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E221" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G221" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I221" s="10">
+        <v>97000000000148</v>
+      </c>
+      <c r="J221" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E222" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G222" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I222" s="10">
+        <v>97000000000149</v>
+      </c>
+      <c r="J222" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+      </c>
+      <c r="E223" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+      </c>
+      <c r="G223" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm', null);</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I223" s="10">
+        <v>97000000000150</v>
+      </c>
+      <c r="J223" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B224" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E224" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
+      </c>
+      <c r="G224" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments', 'AllDocuments');</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I224" s="10">
+        <v>97000000000151</v>
+      </c>
+      <c r="J224" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E225" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G225" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I225" s="10">
+        <v>97000000000152</v>
+      </c>
+      <c r="J225" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E226" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G226" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I226" s="10">
+        <v>97000000000153</v>
+      </c>
+      <c r="J226" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E227" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G227" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I227" s="10">
+        <v>97000000000154</v>
+      </c>
+      <c r="J227" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E228" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G228" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I228" s="10">
+        <v>97000000000155</v>
+      </c>
+      <c r="J228" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E229" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G229" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I229" s="10">
+        <v>97000000000156</v>
+      </c>
+      <c r="J229" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E230" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G230" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I230" s="10">
+        <v>97000000000157</v>
+      </c>
+      <c r="J230" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E231" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G231" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I231" s="10">
+        <v>97000000000158</v>
+      </c>
+      <c r="J231" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E232" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G232" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I232" s="10">
+        <v>97000000000159</v>
+      </c>
+      <c r="J232" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E233" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G233" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I233" s="10">
+        <v>97000000000160</v>
+      </c>
+      <c r="J233" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B234" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" s="3" t="str">
+        <f t="shared" si="18"/>
         <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
-      <c r="E171" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="E234" s="4" t="str">
+        <f t="shared" si="19"/>
         <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
-      <c r="G171" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="G234" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I171" s="10">
+      <c r="H234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I234" s="10">
+        <v>97000000000161</v>
+      </c>
+      <c r="J234" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E235" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G235" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I235" s="10">
+        <v>97000000000162</v>
+      </c>
+      <c r="J235" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E236" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G236" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I236" s="10">
+        <v>97000000000163</v>
+      </c>
+      <c r="J236" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E237" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G237" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I237" s="10">
+        <v>97000000000164</v>
+      </c>
+      <c r="J237" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E238" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G238" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I238" s="10">
+        <v>97000000000165</v>
+      </c>
+      <c r="J238" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E239" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G239" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I239" s="10">
+        <v>97000000000166</v>
+      </c>
+      <c r="J239" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E240" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G240" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I240" s="10">
+        <v>97000000000167</v>
+      </c>
+      <c r="J240" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E241" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G241" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I241" s="10">
+        <v>97000000000168</v>
+      </c>
+      <c r="J241" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E242" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G242" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I242" s="10">
+        <v>97000000000169</v>
+      </c>
+      <c r="J242" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E243" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G243" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I243" s="10">
         <v>97000000000170</v>
       </c>
-      <c r="J171" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="J243" s="1" t="str">
+        <f t="shared" si="21"/>
         <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="54">
   <si>
     <t>System</t>
   </si>
@@ -150,6 +150,33 @@
   <si>
     <t>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</t>
   </si>
+  <si>
+    <t>DocumentValidation</t>
+  </si>
+  <si>
+    <t>Module.Finance.PaymentInstruction.Transaction</t>
+  </si>
+  <si>
+    <t>Module.Finance.PaymentInstruction.Report.DataForm</t>
+  </si>
+  <si>
+    <t>Module.Finance.PaymentInstruction.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.Finance.PaymentInstruction.Report.DataResume</t>
+  </si>
+  <si>
+    <t>Module.Finance.Payment.Transaction</t>
+  </si>
+  <si>
+    <t>Module.Finance.Payment.Report.DataForm</t>
+  </si>
+  <si>
+    <t>Module.Finance.Payment.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.Finance.Payment.Report.DataResume</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -260,7 +287,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J243"/>
+  <dimension ref="B1:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -685,11 +711,11 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D68" si="4">IF(EXACT(B5, ""), D4, B5)</f>
         <v>System</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E5:E68" si="5">CONCATENATE(D5, IF(EXACT(C5, ""), IF(EXACT(B5, ""), "", C5), CONCATENATE(".", C5)))</f>
         <v>System</v>
       </c>
       <c r="G5" s="1" t="str">
@@ -711,11 +737,11 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>System</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>System</v>
       </c>
       <c r="G6" s="1" t="str">
@@ -737,11 +763,11 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>System</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>System</v>
       </c>
       <c r="G7" s="1" t="str">
@@ -763,11 +789,11 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>System</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>System</v>
       </c>
       <c r="G8" s="1" t="str">
@@ -789,11 +815,11 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>System</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>System</v>
       </c>
       <c r="G9" s="1" t="str">
@@ -815,11 +841,11 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>System</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>System</v>
       </c>
       <c r="G10" s="1" t="str">
@@ -841,11 +867,11 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>System</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>System</v>
       </c>
       <c r="G11" s="1" t="str">
@@ -871,11 +897,11 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard.DocumentTracking</v>
       </c>
       <c r="G12" s="1" t="str">
@@ -895,18 +921,20 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Dashboard</v>
+        <f t="shared" si="5"/>
+        <v>Dashboard.DocumentValidation</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard.DocumentValidation', 'DocumentValidation');</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>9</v>
@@ -916,18 +944,18 @@
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Dashboard</v>
+        <v>Dashboard.DocumentValidation</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G14" s="1" t="str">
@@ -949,11 +977,11 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G15" s="1" t="str">
@@ -975,11 +1003,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G16" s="1" t="str">
@@ -1001,11 +1029,11 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G17" s="1" t="str">
@@ -1027,11 +1055,11 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G18" s="1" t="str">
@@ -1053,11 +1081,11 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G19" s="1" t="str">
@@ -1079,11 +1107,11 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G20" s="1" t="str">
@@ -1105,11 +1133,11 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G21" s="1" t="str">
@@ -1131,11 +1159,11 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G22" s="1" t="str">
@@ -1157,11 +1185,11 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G23" s="1" t="str">
@@ -1183,11 +1211,11 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G24" s="1" t="str">
@@ -1209,11 +1237,11 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G25" s="1" t="str">
@@ -1235,11 +1263,11 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G26" s="1" t="str">
@@ -1261,11 +1289,11 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G27" s="1" t="str">
@@ -1287,11 +1315,11 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G28" s="1" t="str">
@@ -1313,11 +1341,11 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G29" s="1" t="str">
@@ -1339,11 +1367,11 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G30" s="1" t="str">
@@ -1365,11 +1393,11 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Dashboard</v>
       </c>
       <c r="E31" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Dashboard</v>
       </c>
       <c r="G31" s="1" t="str">
@@ -1395,11 +1423,11 @@
         <v>12</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.MasterData.Transaction.DataValidation</v>
       </c>
       <c r="G32" s="1" t="str">
@@ -1423,11 +1451,11 @@
         <v>4</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.MasterData.Transaction.Create</v>
       </c>
       <c r="G33" s="1" t="str">
@@ -1451,11 +1479,11 @@
         <v>5</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.MasterData.Transaction.Recreate</v>
       </c>
       <c r="G34" s="1" t="str">
@@ -1479,11 +1507,11 @@
         <v>6</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.MasterData.Transaction.Edit</v>
       </c>
       <c r="G35" s="1" t="str">
@@ -1507,11 +1535,11 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.MasterData.Transaction</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.MasterData.Transaction.Delete</v>
       </c>
       <c r="G36" s="1" t="str">
@@ -1535,11 +1563,11 @@
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.MasterData.Report.DataList</v>
       </c>
       <c r="E37" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.MasterData.Report.DataList</v>
       </c>
       <c r="G37" s="1" t="str">
@@ -1565,11 +1593,11 @@
         <v>12</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.MasterData.Transaction.DataValidation</v>
       </c>
       <c r="G38" s="1" t="str">
@@ -1593,11 +1621,11 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.MasterData.Transaction.Create</v>
       </c>
       <c r="G39" s="1" t="str">
@@ -1621,11 +1649,11 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.MasterData.Transaction.Recreate</v>
       </c>
       <c r="G40" s="1" t="str">
@@ -1649,11 +1677,11 @@
         <v>6</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.MasterData.Transaction.Edit</v>
       </c>
       <c r="G41" s="1" t="str">
@@ -1677,11 +1705,11 @@
         <v>7</v>
       </c>
       <c r="D42" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.MasterData.Transaction</v>
       </c>
       <c r="E42" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.MasterData.Transaction.Delete</v>
       </c>
       <c r="G42" s="1" t="str">
@@ -1707,11 +1735,11 @@
         <v>12</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction.DataValidation</v>
       </c>
       <c r="G43" s="1" t="str">
@@ -1735,11 +1763,11 @@
         <v>4</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction.Create</v>
       </c>
       <c r="G44" s="1" t="str">
@@ -1763,11 +1791,11 @@
         <v>5</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction.Recreate</v>
       </c>
       <c r="G45" s="1" t="str">
@@ -1791,11 +1819,11 @@
         <v>6</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction.Edit</v>
       </c>
       <c r="G46" s="1" t="str">
@@ -1819,11 +1847,11 @@
         <v>7</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction.Delete</v>
       </c>
       <c r="G47" s="1" t="str">
@@ -1845,11 +1873,11 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G48" s="1" t="str">
@@ -1871,11 +1899,11 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G49" s="1" t="str">
@@ -1897,11 +1925,11 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G50" s="1" t="str">
@@ -1923,11 +1951,11 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G51" s="1" t="str">
@@ -1949,11 +1977,11 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Transaction</v>
       </c>
       <c r="G52" s="1" t="str">
@@ -1977,11 +2005,11 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataForm</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataForm</v>
       </c>
       <c r="G53" s="1" t="str">
@@ -2007,11 +2035,11 @@
         <v>13</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList.AllDocuments</v>
       </c>
       <c r="G54" s="1" t="str">
@@ -2033,11 +2061,11 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G55" s="1" t="str">
@@ -2059,11 +2087,11 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G56" s="1" t="str">
@@ -2085,11 +2113,11 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G57" s="1" t="str">
@@ -2111,11 +2139,11 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G58" s="1" t="str">
@@ -2137,11 +2165,11 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G59" s="1" t="str">
@@ -2163,11 +2191,11 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G60" s="1" t="str">
@@ -2189,11 +2217,11 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G61" s="1" t="str">
@@ -2215,11 +2243,11 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G62" s="1" t="str">
@@ -2241,11 +2269,11 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataList</v>
       </c>
       <c r="G63" s="1" t="str">
@@ -2269,11 +2297,11 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G64" s="1" t="str">
@@ -2295,11 +2323,11 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G65" s="1" t="str">
@@ -2321,11 +2349,11 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G66" s="1" t="str">
@@ -2347,15 +2375,15 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3" t="str">
-        <f t="shared" ref="D67:D130" si="4">IF(EXACT(B67, ""), D66, B67)</f>
+        <f t="shared" si="4"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" ref="E67:E130" si="5">CONCATENATE(D67, IF(EXACT(C67, ""), IF(EXACT(B67, ""), "", C67), CONCATENATE(".", C67)))</f>
+        <f t="shared" si="5"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" ref="G67:G202" si="6">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E67, "', ", IF(EXACT(C67, ""), "null", CONCATENATE("'", C67, "'")), ");")</f>
+        <f t="shared" ref="G67:G130" si="6">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E67, "', ", IF(EXACT(C67, ""), "null", CONCATENATE("'", C67, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataResume', null);</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -2365,7 +2393,7 @@
         <v>97000000000066</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" ref="J67:J202" si="7">E67</f>
+        <f t="shared" ref="J67:J264" si="7">E67</f>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
     </row>
@@ -2399,11 +2427,11 @@
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D69:D132" si="8">IF(EXACT(B69, ""), D68, B69)</f>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E69:E132" si="9">CONCATENATE(D69, IF(EXACT(C69, ""), IF(EXACT(B69, ""), "", C69), CONCATENATE(".", C69)))</f>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G69" s="1" t="str">
@@ -2425,11 +2453,11 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G70" s="1" t="str">
@@ -2451,11 +2479,11 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G71" s="1" t="str">
@@ -2477,11 +2505,11 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G72" s="1" t="str">
@@ -2503,11 +2531,11 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="E73" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.Advance.Report.DataResume</v>
       </c>
       <c r="G73" s="1" t="str">
@@ -2533,11 +2561,11 @@
         <v>12</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.DataValidation</v>
       </c>
       <c r="G74" s="1" t="str">
@@ -2561,11 +2589,11 @@
         <v>4</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.Create</v>
       </c>
       <c r="G75" s="1" t="str">
@@ -2589,11 +2617,11 @@
         <v>5</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.Recreate</v>
       </c>
       <c r="G76" s="1" t="str">
@@ -2617,11 +2645,11 @@
         <v>6</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E77" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.Edit</v>
       </c>
       <c r="G77" s="1" t="str">
@@ -2645,11 +2673,11 @@
         <v>7</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E78" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction.Delete</v>
       </c>
       <c r="G78" s="1" t="str">
@@ -2671,11 +2699,11 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E79" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G79" s="1" t="str">
@@ -2697,11 +2725,11 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G80" s="1" t="str">
@@ -2723,11 +2751,11 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G81" s="1" t="str">
@@ -2749,11 +2777,11 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E82" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G82" s="1" t="str">
@@ -2775,11 +2803,11 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="E83" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G83" s="1" t="str">
@@ -2803,11 +2831,11 @@
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataForm</v>
       </c>
       <c r="E84" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataForm</v>
       </c>
       <c r="G84" s="1" t="str">
@@ -2833,11 +2861,11 @@
         <v>13</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E85" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList.AllDocuments</v>
       </c>
       <c r="G85" s="1" t="str">
@@ -2859,11 +2887,11 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E86" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G86" s="1" t="str">
@@ -2885,11 +2913,11 @@
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E87" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G87" s="1" t="str">
@@ -2911,11 +2939,11 @@
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E88" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G88" s="1" t="str">
@@ -2937,11 +2965,11 @@
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E89" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G89" s="1" t="str">
@@ -2963,11 +2991,11 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E90" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G90" s="1" t="str">
@@ -2989,11 +3017,11 @@
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E91" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G91" s="1" t="str">
@@ -3015,11 +3043,11 @@
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E92" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G92" s="1" t="str">
@@ -3041,11 +3069,11 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E93" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G93" s="1" t="str">
@@ -3067,11 +3095,11 @@
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G94" s="1" t="str">
@@ -3095,11 +3123,11 @@
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G95" s="1" t="str">
@@ -3121,11 +3149,11 @@
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G96" s="1" t="str">
@@ -3147,11 +3175,11 @@
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G97" s="1" t="str">
@@ -3173,11 +3201,11 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G98" s="1" t="str">
@@ -3199,11 +3227,11 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G99" s="1" t="str">
@@ -3225,11 +3253,11 @@
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G100" s="1" t="str">
@@ -3251,11 +3279,11 @@
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G101" s="1" t="str">
@@ -3277,11 +3305,11 @@
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E102" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G102" s="1" t="str">
@@ -3303,11 +3331,11 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G103" s="1" t="str">
@@ -3329,11 +3357,11 @@
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="E104" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Module.Finance.AdvanceSettlement.Report.DataResume</v>
       </c>
       <c r="G104" s="1" t="str">
@@ -3353,22 +3381,22 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.MasterData.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.MasterData.Transaction.DataValidation</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Transaction.DataValidation</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f t="shared" ref="G105:G109" si="8">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E105, "', ", IF(EXACT(C105, ""), "null", CONCATENATE("'", C105, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.DataValidation', 'DataValidation');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>9</v>
@@ -3377,8 +3405,8 @@
         <v>97000000000104</v>
       </c>
       <c r="J105" s="1" t="str">
-        <f t="shared" ref="J105:J109" si="9">E105</f>
-        <v>Module.HumanResource.MasterData.Transaction.DataValidation</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
@@ -3387,16 +3415,16 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.MasterData.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.MasterData.Transaction.Create</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Transaction.Create</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Create', 'Create');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction.Create', 'Create');</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>9</v>
@@ -3405,8 +3433,8 @@
         <v>97000000000105</v>
       </c>
       <c r="J106" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.HumanResource.MasterData.Transaction.Create</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction.Create</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
@@ -3415,16 +3443,16 @@
         <v>5</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.MasterData.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="E107" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.MasterData.Transaction.Recreate</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Transaction.Recreate</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Recreate', 'Recreate');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>9</v>
@@ -3433,8 +3461,8 @@
         <v>97000000000106</v>
       </c>
       <c r="J107" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Module.HumanResource.MasterData.Transaction.Recreate</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction.Recreate</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
@@ -3443,16 +3471,16 @@
         <v>6</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.MasterData.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="E108" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.MasterData.Transaction.Edit</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Transaction.Edit</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Edit', 'Edit');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>9</v>
@@ -3461,26 +3489,26 @@
         <v>97000000000107</v>
       </c>
       <c r="J108" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
+      </c>
+      <c r="E109" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Module.HumanResource.MasterData.Transaction.Edit</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.MasterData.Transaction</v>
-      </c>
-      <c r="E109" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.MasterData.Transaction.Delete</v>
+        <v>Module.Finance.PaymentInstruction.Transaction.Delete</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Delete', 'Delete');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>9</v>
@@ -3489,1832 +3517,1832 @@
         <v>97000000000108</v>
       </c>
       <c r="J109" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction.Delete</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
+      </c>
+      <c r="E110" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Module.HumanResource.MasterData.Transaction.Delete</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.Timesheet.Transaction</v>
-      </c>
-      <c r="E110" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.Timesheet.Transaction.DataValidation</v>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f t="shared" ref="G110:G114" si="10">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E110, "', ", IF(EXACT(C110, ""), "null", CONCATENATE("'", C110, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.DataValidation', 'DataValidation');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction', null);</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I110" s="10">
-        <v>97000000000104</v>
+        <v>97000000000109</v>
       </c>
       <c r="J110" s="1" t="str">
-        <f t="shared" ref="J110:J114" si="11">E110</f>
-        <v>Module.HumanResource.Timesheet.Transaction.DataValidation</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
-      <c r="C111" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C111" s="2"/>
       <c r="D111" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.Timesheet.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.Timesheet.Transaction.Create</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Create', 'Create');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction', null);</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I111" s="10">
-        <v>97000000000105</v>
+        <v>97000000000110</v>
       </c>
       <c r="J111" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Module.HumanResource.Timesheet.Transaction.Create</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
-      <c r="C112" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C112" s="2"/>
       <c r="D112" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.Timesheet.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.Timesheet.Transaction.Recreate</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Recreate', 'Recreate');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction', null);</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I112" s="10">
-        <v>97000000000106</v>
+        <v>97000000000111</v>
       </c>
       <c r="J112" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Module.HumanResource.Timesheet.Transaction.Recreate</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
-      <c r="C113" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C113" s="2"/>
       <c r="D113" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.Timesheet.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.Timesheet.Transaction.Edit</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Edit', 'Edit');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction', null);</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I113" s="10">
-        <v>97000000000107</v>
+        <v>97000000000112</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Module.HumanResource.Timesheet.Transaction.Edit</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.Timesheet.Transaction</v>
-      </c>
-      <c r="E114" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.Timesheet.Transaction.Delete</v>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Delete', 'Delete');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction', null);</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I114" s="10">
-        <v>97000000000108</v>
+        <v>97000000000113</v>
       </c>
       <c r="J114" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Module.HumanResource.Timesheet.Transaction.Delete</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C115" s="2"/>
       <c r="D115" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataForm</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.DataValidation</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataForm</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f t="shared" ref="G115:G145" si="12">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E115, "', ", IF(EXACT(C115, ""), "null", CONCATENATE("'", C115, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.DataValidation', 'DataValidation');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataForm', null);</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I115" s="10">
-        <v>97000000000104</v>
+        <v>97000000000114</v>
       </c>
       <c r="J115" s="1" t="str">
-        <f t="shared" ref="J115:J145" si="13">E115</f>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.DataValidation</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataForm</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C116" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Create</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList.AllDocuments</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Create', 'Create');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I116" s="10">
-        <v>97000000000105</v>
+        <v>97000000000115</v>
       </c>
       <c r="J116" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Create</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
-      <c r="C117" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C117" s="2"/>
       <c r="D117" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Recreate</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Recreate', 'Recreate');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', null);</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I117" s="10">
-        <v>97000000000106</v>
+        <v>97000000000116</v>
       </c>
       <c r="J117" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Recreate</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
-      <c r="C118" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C118" s="2"/>
       <c r="D118" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Edit</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Edit', 'Edit');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', null);</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I118" s="10">
-        <v>97000000000107</v>
+        <v>97000000000117</v>
       </c>
       <c r="J118" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Edit</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
-      <c r="C119" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C119" s="2"/>
       <c r="D119" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Delete</v>
-      </c>
-      <c r="G119" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Delete', 'Delete');</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I119" s="12">
-        <v>97000000000108</v>
-      </c>
-      <c r="J119" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Delete</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
+      </c>
+      <c r="G119" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', null);</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I119" s="10">
+        <v>97000000000118</v>
+      </c>
+      <c r="J119" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="G120" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', null);</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I120" s="10">
-        <v>97000000000078</v>
+        <v>97000000000119</v>
       </c>
       <c r="J120" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="G121" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', null);</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I121" s="10">
-        <v>97000000000079</v>
+        <v>97000000000120</v>
       </c>
       <c r="J121" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="G122" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', null);</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I122" s="10">
-        <v>97000000000080</v>
+        <v>97000000000121</v>
       </c>
       <c r="J122" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="G123" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', null);</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I123" s="10">
-        <v>97000000000081</v>
+        <v>97000000000122</v>
       </c>
       <c r="J123" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="G124" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', null);</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I124" s="10">
-        <v>97000000000082</v>
+        <v>97000000000123</v>
       </c>
       <c r="J124" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B125" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataForm</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataForm</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="G125" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataForm', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', null);</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I125" s="10">
-        <v>97000000000083</v>
+        <v>97000000000124</v>
       </c>
       <c r="J125" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataForm</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C126" s="2"/>
       <c r="D126" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList.AllDocuments</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G126" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList.AllDocuments', 'AllDocuments');</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I126" s="10">
-        <v>97000000000084</v>
+        <v>97000000000125</v>
       </c>
       <c r="J126" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList.AllDocuments</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G127" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I127" s="10">
-        <v>97000000000085</v>
+        <v>97000000000126</v>
       </c>
       <c r="J127" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G128" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I128" s="10">
-        <v>97000000000086</v>
+        <v>97000000000127</v>
       </c>
       <c r="J128" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="7"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="E129" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G129" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I129" s="10">
-        <v>97000000000087</v>
+        <v>97000000000128</v>
       </c>
       <c r="J129" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" ref="J129:J159" si="10">E129</f>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G130" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
+        <f t="shared" si="6"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I130" s="10">
-        <v>97000000000088</v>
+        <v>97000000000129</v>
       </c>
       <c r="J130" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3" t="str">
-        <f t="shared" ref="D131:D194" si="14">IF(EXACT(B131, ""), D130, B131)</f>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E194" si="15">CONCATENATE(D131, IF(EXACT(C131, ""), IF(EXACT(B131, ""), "", C131), CONCATENATE(".", C131)))</f>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G131" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
+        <f t="shared" ref="G131:G194" si="11">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E131, "', ", IF(EXACT(C131, ""), "null", CONCATENATE("'", C131, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I131" s="10">
-        <v>97000000000089</v>
+        <v>97000000000130</v>
       </c>
       <c r="J131" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="8"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="9"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G132" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I132" s="10">
-        <v>97000000000090</v>
+        <v>97000000000131</v>
       </c>
       <c r="J132" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" ref="D133:D196" si="12">IF(EXACT(B133, ""), D132, B133)</f>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" ref="E133:E196" si="13">CONCATENATE(D133, IF(EXACT(C133, ""), IF(EXACT(B133, ""), "", C133), CONCATENATE(".", C133)))</f>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G133" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I133" s="10">
-        <v>97000000000091</v>
+        <v>97000000000132</v>
       </c>
       <c r="J133" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G134" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="10">
+        <v>97000000000133</v>
+      </c>
+      <c r="J134" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I134" s="10">
-        <v>97000000000092</v>
-      </c>
-      <c r="J134" s="1" t="str">
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
+      </c>
+      <c r="E135" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
-      </c>
-      <c r="E135" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
       <c r="G135" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataResume', null);</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I135" s="10">
-        <v>97000000000093</v>
+        <v>97000000000134</v>
       </c>
       <c r="J135" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataResume</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C136" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D136" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Transaction.DataValidation</v>
       </c>
       <c r="G136" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I136" s="10">
-        <v>97000000000094</v>
+        <v>97000000000135</v>
       </c>
       <c r="J136" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D137" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Transaction.Create</v>
       </c>
       <c r="G137" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction.Create', 'Create');</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I137" s="10">
-        <v>97000000000095</v>
+        <v>97000000000136</v>
       </c>
       <c r="J137" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction.Create</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D138" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Transaction.Recreate</v>
       </c>
       <c r="G138" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I138" s="10">
-        <v>97000000000096</v>
+        <v>97000000000137</v>
       </c>
       <c r="J138" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction.Recreate</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D139" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Transaction.Edit</v>
       </c>
       <c r="G139" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I139" s="10">
-        <v>97000000000097</v>
+        <v>97000000000138</v>
       </c>
       <c r="J139" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction.Edit</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D140" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="E140" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Transaction.Delete</v>
       </c>
       <c r="G140" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction.Delete', 'Delete');</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I140" s="10">
-        <v>97000000000098</v>
+        <v>97000000000139</v>
       </c>
       <c r="J140" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction.Delete</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="E141" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="G141" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction', null);</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I141" s="10">
-        <v>97000000000099</v>
+        <v>97000000000140</v>
       </c>
       <c r="J141" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="G142" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction', null);</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I142" s="10">
-        <v>97000000000100</v>
+        <v>97000000000141</v>
       </c>
       <c r="J142" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="E143" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="G143" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction', null);</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I143" s="10">
-        <v>97000000000101</v>
+        <v>97000000000142</v>
       </c>
       <c r="J143" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="G144" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction', null);</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I144" s="10">
+        <v>97000000000143</v>
+      </c>
+      <c r="J144" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I144" s="10">
-        <v>97000000000102</v>
-      </c>
-      <c r="J144" s="1" t="str">
+        <v>Module.Finance.Payment.Transaction</v>
+      </c>
+      <c r="E145" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
-      </c>
-      <c r="E145" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
       <c r="G145" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction', null);</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I145" s="10">
-        <v>97000000000103</v>
+        <v>97000000000144</v>
       </c>
       <c r="J145" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Transaction</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C146" s="2"/>
       <c r="D146" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataForm</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.DataValidation</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataForm</v>
       </c>
       <c r="G146" s="1" t="str">
-        <f t="shared" ref="G146:G176" si="16">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E146, "', ", IF(EXACT(C146, ""), "null", CONCATENATE("'", C146, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.DataValidation', 'DataValidation');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataForm', null);</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I146" s="10">
-        <v>97000000000104</v>
+        <v>97000000000145</v>
       </c>
       <c r="J146" s="1" t="str">
-        <f t="shared" ref="J146:J176" si="17">E146</f>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.DataValidation</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataForm</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B147" s="2"/>
+      <c r="B147" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C147" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Create</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList.AllDocuments</v>
       </c>
       <c r="G147" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Create', 'Create');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I147" s="10">
-        <v>97000000000105</v>
+        <v>97000000000146</v>
       </c>
       <c r="J147" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Create</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
-      <c r="C148" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C148" s="2"/>
       <c r="D148" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Recreate</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="G148" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Recreate', 'Recreate');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', null);</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I148" s="10">
-        <v>97000000000106</v>
+        <v>97000000000147</v>
       </c>
       <c r="J148" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Recreate</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
-      <c r="C149" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C149" s="2"/>
       <c r="D149" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Edit</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="G149" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Edit', 'Edit');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', null);</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I149" s="10">
-        <v>97000000000107</v>
+        <v>97000000000148</v>
       </c>
       <c r="J149" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Edit</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
-      <c r="C150" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C150" s="2"/>
       <c r="D150" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Delete</v>
-      </c>
-      <c r="G150" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Delete', 'Delete');</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I150" s="12">
-        <v>97000000000108</v>
-      </c>
-      <c r="J150" s="11" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Delete</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
+      </c>
+      <c r="G150" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', null);</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I150" s="10">
+        <v>97000000000149</v>
+      </c>
+      <c r="J150" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="G151" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', null);</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I151" s="10">
-        <v>97000000000078</v>
+        <v>97000000000150</v>
       </c>
       <c r="J151" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="G152" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', null);</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I152" s="10">
-        <v>97000000000079</v>
+        <v>97000000000151</v>
       </c>
       <c r="J152" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="G153" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', null);</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I153" s="10">
-        <v>97000000000080</v>
+        <v>97000000000152</v>
       </c>
       <c r="J153" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="G154" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', null);</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I154" s="10">
-        <v>97000000000081</v>
+        <v>97000000000153</v>
       </c>
       <c r="J154" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="G155" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', null);</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I155" s="10">
-        <v>97000000000082</v>
+        <v>97000000000154</v>
       </c>
       <c r="J155" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
       <c r="G156" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', null);</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I156" s="10">
-        <v>97000000000083</v>
+        <v>97000000000155</v>
       </c>
       <c r="J156" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C157" s="2"/>
       <c r="D157" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList.AllDocuments</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
       <c r="G157" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList.AllDocuments', 'AllDocuments');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I157" s="10">
-        <v>97000000000084</v>
+        <v>97000000000156</v>
       </c>
       <c r="J157" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList.AllDocuments</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
       <c r="G158" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I158" s="10">
-        <v>97000000000085</v>
+        <v>97000000000157</v>
       </c>
       <c r="J158" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
       <c r="G159" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I159" s="10">
-        <v>97000000000086</v>
+        <v>97000000000158</v>
       </c>
       <c r="J159" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" si="10"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
       <c r="G160" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I160" s="10">
-        <v>97000000000087</v>
+        <v>97000000000159</v>
       </c>
       <c r="J160" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <f t="shared" ref="J160:J166" si="14">E160</f>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="E161" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="G161" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I161" s="10">
+        <v>97000000000160</v>
+      </c>
+      <c r="J161" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="E161" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="G161" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I161" s="10">
-        <v>97000000000088</v>
-      </c>
-      <c r="J161" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="E162" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="G162" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I162" s="10">
+        <v>97000000000161</v>
+      </c>
+      <c r="J162" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="E162" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="G162" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I162" s="10">
-        <v>97000000000089</v>
-      </c>
-      <c r="J162" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="E163" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="G163" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I163" s="10">
+        <v>97000000000162</v>
+      </c>
+      <c r="J163" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="E163" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="G163" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I163" s="10">
-        <v>97000000000090</v>
-      </c>
-      <c r="J163" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="G164" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I164" s="10">
+        <v>97000000000163</v>
+      </c>
+      <c r="J164" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="E164" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="G164" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I164" s="10">
-        <v>97000000000091</v>
-      </c>
-      <c r="J164" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="G165" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I165" s="10">
+        <v>97000000000164</v>
+      </c>
+      <c r="J165" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="E165" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="G165" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I165" s="10">
-        <v>97000000000092</v>
-      </c>
-      <c r="J165" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="3" t="str">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="E166" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.Finance.Payment.Report.DataResume</v>
+      </c>
+      <c r="G166" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataResume', null);</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I166" s="10">
+        <v>97000000000165</v>
+      </c>
+      <c r="J166" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="E166" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
-      </c>
-      <c r="G166" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I166" s="10">
-        <v>97000000000093</v>
-      </c>
-      <c r="J166" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+        <v>Module.Finance.Payment.Report.DataResume</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C167" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D167" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
       </c>
       <c r="E167" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.MasterData.Transaction.DataValidation</v>
       </c>
       <c r="G167" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I167" s="10">
-        <v>97000000000094</v>
+        <v>97000000000166</v>
       </c>
       <c r="J167" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" ref="J167:J171" si="15">E167</f>
+        <v>Module.HumanResource.MasterData.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D168" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
       </c>
       <c r="E168" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.MasterData.Transaction.Create</v>
+      </c>
+      <c r="G168" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Create', 'Create');</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I168" s="10">
+        <v>97000000000167</v>
+      </c>
+      <c r="J168" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
-      </c>
-      <c r="G168" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I168" s="10">
-        <v>97000000000095</v>
-      </c>
-      <c r="J168" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <v>Module.HumanResource.MasterData.Transaction.Create</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D169" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
       </c>
       <c r="E169" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.MasterData.Transaction.Recreate</v>
+      </c>
+      <c r="G169" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Recreate', 'Recreate');</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I169" s="10">
+        <v>97000000000168</v>
+      </c>
+      <c r="J169" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
-      </c>
-      <c r="G169" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I169" s="10">
-        <v>97000000000096</v>
-      </c>
-      <c r="J169" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <v>Module.HumanResource.MasterData.Transaction.Recreate</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="C170" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D170" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
       </c>
       <c r="E170" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.MasterData.Transaction.Edit</v>
+      </c>
+      <c r="G170" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Edit', 'Edit');</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I170" s="10">
+        <v>97000000000169</v>
+      </c>
+      <c r="J170" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
-      </c>
-      <c r="G170" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I170" s="10">
-        <v>97000000000097</v>
-      </c>
-      <c r="J170" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <v>Module.HumanResource.MasterData.Transaction.Edit</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
-      </c>
-      <c r="E171" s="4" t="str">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.MasterData.Transaction</v>
+      </c>
+      <c r="E171" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.MasterData.Transaction.Delete</v>
+      </c>
+      <c r="G171" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I171" s="10">
+        <v>97000000000170</v>
+      </c>
+      <c r="J171" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
-      </c>
-      <c r="G171" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I171" s="10">
-        <v>97000000000098</v>
-      </c>
-      <c r="J171" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <v>Module.HumanResource.MasterData.Transaction.Delete</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="B172" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D172" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
       </c>
       <c r="E172" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.Timesheet.Transaction.DataValidation</v>
       </c>
       <c r="G172" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I172" s="10">
-        <v>97000000000099</v>
+        <v>97000000000171</v>
       </c>
       <c r="J172" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" ref="J172:J176" si="16">E172</f>
+        <v>Module.HumanResource.Timesheet.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D173" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
       </c>
       <c r="E173" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Create</v>
       </c>
       <c r="G173" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Create', 'Create');</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I173" s="10">
+        <v>97000000000172</v>
+      </c>
+      <c r="J173" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I173" s="10">
-        <v>97000000000100</v>
-      </c>
-      <c r="J173" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <v>Module.HumanResource.Timesheet.Transaction.Create</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D174" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
       </c>
       <c r="E174" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Recreate</v>
       </c>
       <c r="G174" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Recreate', 'Recreate');</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I174" s="10">
+        <v>97000000000173</v>
+      </c>
+      <c r="J174" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I174" s="10">
-        <v>97000000000101</v>
-      </c>
-      <c r="J174" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <v>Module.HumanResource.Timesheet.Transaction.Recreate</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="C175" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D175" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
       </c>
       <c r="E175" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Edit</v>
       </c>
       <c r="G175" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Edit', 'Edit');</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I175" s="10">
+        <v>97000000000174</v>
+      </c>
+      <c r="J175" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I175" s="10">
-        <v>97000000000102</v>
-      </c>
-      <c r="J175" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <v>Module.HumanResource.Timesheet.Transaction.Edit</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
+      <c r="C176" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D176" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.Timesheet.Transaction</v>
       </c>
       <c r="E176" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.Timesheet.Transaction.Delete</v>
       </c>
       <c r="G176" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Timesheet.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I176" s="10">
+        <v>97000000000175</v>
+      </c>
+      <c r="J176" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I176" s="10">
-        <v>97000000000103</v>
-      </c>
-      <c r="J176" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+        <v>Module.HumanResource.Timesheet.Transaction.Delete</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E177" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.DataValidation</v>
       </c>
       <c r="G177" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation', 'DataValidation');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I177" s="10">
-        <v>97000000000104</v>
+        <v>97000000000176</v>
       </c>
       <c r="J177" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
+        <f t="shared" ref="J177:J207" si="17">E177</f>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.2">
@@ -5323,26 +5351,26 @@
         <v>4</v>
       </c>
       <c r="D178" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E178" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Create</v>
       </c>
       <c r="G178" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Create', 'Create');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Create', 'Create');</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I178" s="10">
-        <v>97000000000105</v>
+        <v>97000000000177</v>
       </c>
       <c r="J178" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Create</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.2">
@@ -5351,26 +5379,26 @@
         <v>5</v>
       </c>
       <c r="D179" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E179" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Recreate</v>
       </c>
       <c r="G179" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Recreate', 'Recreate');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I179" s="10">
-        <v>97000000000106</v>
+        <v>97000000000178</v>
       </c>
       <c r="J179" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Recreate</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.2">
@@ -5379,1705 +5407,3357 @@
         <v>6</v>
       </c>
       <c r="D180" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E180" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Edit</v>
       </c>
       <c r="G180" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Edit', 'Edit');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I180" s="10">
-        <v>97000000000107</v>
+        <v>97000000000179</v>
       </c>
       <c r="J180" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B181" s="5"/>
-      <c r="C181" s="5" t="s">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="2"/>
+      <c r="C181" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D181" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
-      </c>
-      <c r="E181" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
+      <c r="D181" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
+      </c>
+      <c r="E181" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Delete</v>
       </c>
       <c r="G181" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Delete', 'Delete');</v>
-      </c>
-      <c r="H181" s="1" t="s">
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H181" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I181" s="10">
-        <v>97000000000108</v>
-      </c>
-      <c r="J181" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
+        <v>97000000000180</v>
+      </c>
+      <c r="J181" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction.Delete</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
       <c r="D182" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E182" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G182" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation', 'DataValidation');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I182" s="10">
-        <v>97000000000109</v>
+        <v>97000000000181</v>
       </c>
       <c r="J182" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B183" s="2"/>
-      <c r="C183" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C183" s="2"/>
       <c r="D183" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E183" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G183" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create', 'Create');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I183" s="10">
-        <v>97000000000110</v>
+        <v>97000000000182</v>
       </c>
       <c r="J183" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B184" s="2"/>
-      <c r="C184" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C184" s="2"/>
       <c r="D184" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E184" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G184" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate', 'Recreate');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I184" s="10">
-        <v>97000000000111</v>
+        <v>97000000000183</v>
       </c>
       <c r="J184" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B185" s="2"/>
-      <c r="C185" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C185" s="2"/>
       <c r="D185" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E185" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G185" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit', 'Edit');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I185" s="10">
-        <v>97000000000112</v>
+        <v>97000000000184</v>
       </c>
       <c r="J185" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B186" s="2"/>
-      <c r="C186" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C186" s="2"/>
       <c r="D186" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="E186" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G186" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete', 'Delete');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Transaction', null);</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I186" s="10">
-        <v>97000000000113</v>
+        <v>97000000000185</v>
       </c>
       <c r="J186" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Transaction</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B187" s="2"/>
+      <c r="B187" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataForm</v>
       </c>
       <c r="E187" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataForm</v>
       </c>
       <c r="G187" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataForm', null);</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I187" s="10">
-        <v>97000000000114</v>
+        <v>97000000000186</v>
       </c>
       <c r="J187" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataForm</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="B188" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D188" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E188" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList.AllDocuments</v>
       </c>
       <c r="G188" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I188" s="10">
-        <v>97000000000115</v>
+        <v>97000000000187</v>
       </c>
       <c r="J188" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E189" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G189" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I189" s="10">
-        <v>97000000000116</v>
+        <v>97000000000188</v>
       </c>
       <c r="J189" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E190" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G190" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I190" s="10">
-        <v>97000000000117</v>
+        <v>97000000000189</v>
       </c>
       <c r="J190" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E191" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G191" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I191" s="10">
-        <v>97000000000118</v>
+        <v>97000000000190</v>
       </c>
       <c r="J191" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B192" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E192" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G192" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I192" s="10">
-        <v>97000000000119</v>
+        <v>97000000000191</v>
       </c>
       <c r="J192" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B193" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
       <c r="D193" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E193" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G193" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments', 'AllDocuments');</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I193" s="10">
-        <v>97000000000120</v>
+        <v>97000000000192</v>
       </c>
       <c r="J193" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E194" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G194" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" si="11"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I194" s="10">
-        <v>97000000000121</v>
+        <v>97000000000193</v>
       </c>
       <c r="J194" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3" t="str">
-        <f t="shared" ref="D195:D243" si="18">IF(EXACT(B195, ""), D194, B195)</f>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="E195" s="4" t="str">
-        <f t="shared" ref="E195:E243" si="19">CONCATENATE(D195, IF(EXACT(C195, ""), IF(EXACT(B195, ""), "", C195), CONCATENATE(".", C195)))</f>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G195" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <f t="shared" ref="G195:G258" si="18">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E195, "', ", IF(EXACT(C195, ""), "null", CONCATENATE("'", C195, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I195" s="10">
-        <v>97000000000122</v>
+        <v>97000000000194</v>
       </c>
       <c r="J195" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+      </c>
+      <c r="E196" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+      </c>
+      <c r="G196" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="E196" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="G196" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I196" s="10">
-        <v>97000000000123</v>
+        <v>97000000000195</v>
       </c>
       <c r="J196" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3" t="str">
+        <f t="shared" ref="D197:D260" si="19">IF(EXACT(B197, ""), D196, B197)</f>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+      </c>
+      <c r="E197" s="4" t="str">
+        <f t="shared" ref="E197:E260" si="20">CONCATENATE(D197, IF(EXACT(C197, ""), IF(EXACT(B197, ""), "", C197), CONCATENATE(".", C197)))</f>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
+      </c>
+      <c r="G197" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="E197" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="G197" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataList', null);</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I197" s="10">
-        <v>97000000000124</v>
+        <v>97000000000196</v>
       </c>
       <c r="J197" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataList</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B198" s="2"/>
+      <c r="B198" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E198" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G198" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="E198" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="G198" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I198" s="10">
-        <v>97000000000125</v>
+        <v>97000000000197</v>
       </c>
       <c r="J198" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E199" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G199" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="E199" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="G199" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I199" s="10">
-        <v>97000000000126</v>
+        <v>97000000000198</v>
       </c>
       <c r="J199" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E200" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G200" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="E200" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="G200" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I200" s="10">
-        <v>97000000000127</v>
+        <v>97000000000199</v>
       </c>
       <c r="J200" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E201" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G201" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="E201" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="G201" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I201" s="10">
-        <v>97000000000128</v>
+        <v>97000000000200</v>
       </c>
       <c r="J201" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E202" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G202" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="E202" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
-      </c>
-      <c r="G202" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I202" s="10">
-        <v>97000000000129</v>
+        <v>97000000000201</v>
       </c>
       <c r="J202" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B203" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E203" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G203" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E203" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G203" s="1" t="str">
-        <f t="shared" ref="G203:G243" si="20">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E203, "', ", IF(EXACT(C203, ""), "null", CONCATENATE("'", C203, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I203" s="10">
-        <v>97000000000130</v>
+        <v>97000000000202</v>
       </c>
       <c r="J203" s="1" t="str">
-        <f t="shared" ref="J203:J243" si="21">E203</f>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E204" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G204" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E204" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G204" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I204" s="10">
-        <v>97000000000131</v>
+        <v>97000000000203</v>
       </c>
       <c r="J204" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E205" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G205" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E205" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G205" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I205" s="10">
-        <v>97000000000132</v>
+        <v>97000000000204</v>
       </c>
       <c r="J205" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E206" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G206" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E206" s="4" t="str">
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I206" s="10">
+        <v>97000000000205</v>
+      </c>
+      <c r="J206" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G206" s="1" t="str">
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="E207" s="7" t="str">
         <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I206" s="10">
-        <v>97000000000133</v>
-      </c>
-      <c r="J206" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="3" t="str">
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+      <c r="G207" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E207" s="4" t="str">
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTrip.Report.DataResume', null);</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I207" s="10">
+        <v>97000000000206</v>
+      </c>
+      <c r="J207" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.HumanResource.PersonBusinessTrip.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B208" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G207" s="1" t="str">
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E208" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I207" s="10">
-        <v>97000000000134</v>
-      </c>
-      <c r="J207" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="3" t="str">
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.DataValidation</v>
+      </c>
+      <c r="G208" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E208" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G208" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I208" s="10">
-        <v>97000000000135</v>
+        <v>97000000000207</v>
       </c>
       <c r="J208" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <f t="shared" ref="J208:J238" si="21">E208</f>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
+      <c r="C209" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D209" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E209" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Create</v>
+      </c>
+      <c r="G209" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E209" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G209" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Create', 'Create');</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I209" s="10">
-        <v>97000000000136</v>
+        <v>97000000000208</v>
       </c>
       <c r="J209" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Create</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
+      <c r="C210" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D210" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E210" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Recreate</v>
+      </c>
+      <c r="G210" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E210" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G210" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I210" s="10">
-        <v>97000000000137</v>
+        <v>97000000000209</v>
       </c>
       <c r="J210" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Recreate</v>
       </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
+      <c r="C211" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D211" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E211" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Edit</v>
+      </c>
+      <c r="G211" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E211" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G211" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Edit', 'Edit');</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I211" s="10">
-        <v>97000000000138</v>
+        <v>97000000000210</v>
       </c>
       <c r="J211" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="6" t="str">
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E212" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Delete</v>
+      </c>
+      <c r="G212" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="E212" s="7" t="str">
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H212" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I212" s="10">
+        <v>97000000000211</v>
+      </c>
+      <c r="J212" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction.Delete</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-      <c r="G212" s="1" t="str">
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E213" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I212" s="10">
-        <v>97000000000139</v>
-      </c>
-      <c r="J212" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
-      </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B213" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="3" t="str">
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="G213" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E213" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
-      </c>
-      <c r="G213" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I213" s="10">
-        <v>97000000000140</v>
+        <v>97000000000212</v>
       </c>
       <c r="J213" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B214" s="2"/>
-      <c r="C214" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C214" s="2"/>
       <c r="D214" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E214" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="G214" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E214" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
-      </c>
-      <c r="G214" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create', 'Create');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I214" s="10">
-        <v>97000000000141</v>
+        <v>97000000000213</v>
       </c>
       <c r="J214" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B215" s="2"/>
-      <c r="C215" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C215" s="2"/>
       <c r="D215" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E215" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="G215" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E215" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
-      </c>
-      <c r="G215" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate', 'Recreate');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I215" s="10">
-        <v>97000000000142</v>
+        <v>97000000000214</v>
       </c>
       <c r="J215" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B216" s="2"/>
-      <c r="C216" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C216" s="2"/>
       <c r="D216" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E216" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="G216" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E216" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
-      </c>
-      <c r="G216" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit', 'Edit');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I216" s="10">
-        <v>97000000000143</v>
+        <v>97000000000215</v>
       </c>
       <c r="J216" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B217" s="2"/>
-      <c r="C217" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C217" s="2"/>
       <c r="D217" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="E217" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
+      </c>
+      <c r="G217" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E217" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
-      </c>
-      <c r="G217" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete', 'Delete');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Transaction', null);</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I217" s="10">
-        <v>97000000000144</v>
+        <v>97000000000216</v>
       </c>
       <c r="J217" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Transaction</v>
       </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B218" s="2"/>
+      <c r="B218" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C218" s="2"/>
       <c r="D218" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</v>
+      </c>
+      <c r="E218" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</v>
+      </c>
+      <c r="G218" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E218" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="G218" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm', null);</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I218" s="10">
-        <v>97000000000145</v>
+        <v>97000000000217</v>
       </c>
       <c r="J218" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataForm</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
+      <c r="B219" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D219" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E219" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList.AllDocuments</v>
+      </c>
+      <c r="G219" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E219" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="G219" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList.AllDocuments', 'AllDocuments');</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I219" s="10">
-        <v>97000000000146</v>
+        <v>97000000000218</v>
       </c>
       <c r="J219" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList.AllDocuments</v>
       </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E220" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="G220" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E220" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="G220" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I220" s="10">
-        <v>97000000000147</v>
+        <v>97000000000219</v>
       </c>
       <c r="J220" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E221" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="G221" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E221" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="G221" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I221" s="10">
-        <v>97000000000148</v>
+        <v>97000000000220</v>
       </c>
       <c r="J221" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E222" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="G222" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="E222" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
-      </c>
-      <c r="G222" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I222" s="10">
-        <v>97000000000149</v>
+        <v>97000000000221</v>
       </c>
       <c r="J222" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B223" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E223" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="G223" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
-      </c>
-      <c r="E223" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
-      </c>
-      <c r="G223" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I223" s="10">
-        <v>97000000000150</v>
+        <v>97000000000222</v>
       </c>
       <c r="J223" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B224" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
       <c r="D224" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E224" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="G224" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E224" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
-      </c>
-      <c r="G224" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments', 'AllDocuments');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I224" s="10">
-        <v>97000000000151</v>
+        <v>97000000000223</v>
       </c>
       <c r="J224" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E225" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="G225" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E225" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="G225" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I225" s="10">
-        <v>97000000000152</v>
+        <v>97000000000224</v>
       </c>
       <c r="J225" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E226" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="G226" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E226" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="G226" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I226" s="10">
-        <v>97000000000153</v>
+        <v>97000000000225</v>
       </c>
       <c r="J226" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E227" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="G227" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E227" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="G227" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I227" s="10">
-        <v>97000000000154</v>
+        <v>97000000000226</v>
       </c>
       <c r="J227" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="E228" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
+      </c>
+      <c r="G228" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E228" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="G228" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataList', null);</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I228" s="10">
-        <v>97000000000155</v>
+        <v>97000000000227</v>
       </c>
       <c r="J228" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B229" s="2"/>
+      <c r="B229" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E229" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G229" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E229" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="G229" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I229" s="10">
-        <v>97000000000156</v>
+        <v>97000000000228</v>
       </c>
       <c r="J229" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E230" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G230" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E230" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="G230" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I230" s="10">
-        <v>97000000000157</v>
+        <v>97000000000229</v>
       </c>
       <c r="J230" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E231" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G231" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E231" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="G231" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I231" s="10">
-        <v>97000000000158</v>
+        <v>97000000000230</v>
       </c>
       <c r="J231" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E232" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G232" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E232" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="G232" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I232" s="10">
-        <v>97000000000159</v>
+        <v>97000000000231</v>
       </c>
       <c r="J232" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E233" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G233" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="E233" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
-      </c>
-      <c r="G233" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I233" s="10">
-        <v>97000000000160</v>
+        <v>97000000000232</v>
       </c>
       <c r="J233" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B234" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E234" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G234" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="E234" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="G234" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I234" s="10">
-        <v>97000000000161</v>
+        <v>97000000000233</v>
       </c>
       <c r="J234" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E235" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G235" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="E235" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="G235" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I235" s="10">
-        <v>97000000000162</v>
+        <v>97000000000234</v>
       </c>
       <c r="J235" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E236" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G236" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="E236" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="G236" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I236" s="10">
-        <v>97000000000163</v>
+        <v>97000000000235</v>
       </c>
       <c r="J236" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E237" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G237" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="E237" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="G237" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I237" s="10">
-        <v>97000000000164</v>
+        <v>97000000000236</v>
       </c>
       <c r="J237" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="3" t="str">
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="E238" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
+      </c>
+      <c r="G238" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="E238" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="G238" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume', null);</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I238" s="10">
-        <v>97000000000165</v>
+        <v>97000000000237</v>
       </c>
       <c r="J238" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <v>Module.HumanResource.PersonBusinessTripSettlement.Report.DataResume</v>
       </c>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
+      <c r="B239" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D239" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E239" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
+      </c>
+      <c r="G239" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="E239" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="G239" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation', 'DataValidation');</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I239" s="10">
-        <v>97000000000166</v>
+        <v>97000000000238</v>
       </c>
       <c r="J239" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.DataValidation</v>
       </c>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
+      <c r="C240" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D240" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E240" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
+      </c>
+      <c r="G240" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="E240" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="G240" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Create', 'Create');</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I240" s="10">
-        <v>97000000000167</v>
+        <v>97000000000239</v>
       </c>
       <c r="J240" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Create</v>
       </c>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
+      <c r="C241" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D241" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E241" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
+      </c>
+      <c r="G241" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="E241" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
-      </c>
-      <c r="G241" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Recreate', 'Recreate');</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I241" s="10">
-        <v>97000000000168</v>
+        <v>97000000000240</v>
       </c>
       <c r="J241" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Recreate</v>
       </c>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
+      <c r="C242" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D242" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E242" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
+      </c>
+      <c r="G242" s="1" t="str">
         <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Edit', 'Edit');</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I242" s="10">
+        <v>97000000000241</v>
+      </c>
+      <c r="J242" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B243" s="5"/>
+      <c r="C243" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction</v>
+      </c>
+      <c r="E243" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
+      </c>
+      <c r="G243" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.MasterData.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I243" s="10">
+        <v>97000000000242</v>
+      </c>
+      <c r="J243" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.MasterData.Transaction.Delete</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B244" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E244" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
+      </c>
+      <c r="G244" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation', 'DataValidation');</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I244" s="10">
+        <v>97000000000243</v>
+      </c>
+      <c r="J244" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.DataValidation</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B245" s="2"/>
+      <c r="C245" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E245" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
+      </c>
+      <c r="G245" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create', 'Create');</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I245" s="10">
+        <v>97000000000244</v>
+      </c>
+      <c r="J245" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Create</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B246" s="2"/>
+      <c r="C246" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E246" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
+      </c>
+      <c r="G246" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate', 'Recreate');</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I246" s="10">
+        <v>97000000000245</v>
+      </c>
+      <c r="J246" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Recreate</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B247" s="2"/>
+      <c r="C247" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E247" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
+      </c>
+      <c r="G247" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit', 'Edit');</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I247" s="10">
+        <v>97000000000246</v>
+      </c>
+      <c r="J247" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B248" s="2"/>
+      <c r="C248" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E248" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
+      </c>
+      <c r="G248" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I248" s="10">
+        <v>97000000000247</v>
+      </c>
+      <c r="J248" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction.Delete</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E249" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G249" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I249" s="10">
+        <v>97000000000248</v>
+      </c>
+      <c r="J249" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E250" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G250" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I250" s="10">
+        <v>97000000000249</v>
+      </c>
+      <c r="J250" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E251" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G251" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I251" s="10">
+        <v>97000000000250</v>
+      </c>
+      <c r="J251" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E252" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G252" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I252" s="10">
+        <v>97000000000251</v>
+      </c>
+      <c r="J252" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="E253" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+      <c r="G253" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Transaction', null);</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I253" s="10">
+        <v>97000000000252</v>
+      </c>
+      <c r="J253" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Transaction</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B254" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C254" s="2"/>
+      <c r="D254" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+      </c>
+      <c r="E254" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+      </c>
+      <c r="G254" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm', null);</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I254" s="10">
+        <v>97000000000253</v>
+      </c>
+      <c r="J254" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataForm</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B255" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E255" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
+      </c>
+      <c r="G255" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments', 'AllDocuments');</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I255" s="10">
+        <v>97000000000254</v>
+      </c>
+      <c r="J255" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList.AllDocuments</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E256" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G256" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I256" s="10">
+        <v>97000000000255</v>
+      </c>
+      <c r="J256" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E257" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G257" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I257" s="10">
+        <v>97000000000256</v>
+      </c>
+      <c r="J257" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E258" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G258" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I258" s="10">
+        <v>97000000000257</v>
+      </c>
+      <c r="J258" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E259" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G259" s="1" t="str">
+        <f t="shared" ref="G259:G305" si="22">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, '", E259, "', ", IF(EXACT(C259, ""), "null", CONCATENATE("'", C259, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I259" s="10">
+        <v>97000000000258</v>
+      </c>
+      <c r="J259" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E260" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G260" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I260" s="10">
+        <v>97000000000259</v>
+      </c>
+      <c r="J260" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="3" t="str">
+        <f t="shared" ref="D261:D305" si="23">IF(EXACT(B261, ""), D260, B261)</f>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E261" s="4" t="str">
+        <f t="shared" ref="E261:E305" si="24">CONCATENATE(D261, IF(EXACT(C261, ""), IF(EXACT(B261, ""), "", C261), CONCATENATE(".", C261)))</f>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G261" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I261" s="10">
+        <v>97000000000260</v>
+      </c>
+      <c r="J261" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E262" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G262" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I262" s="10">
+        <v>97000000000261</v>
+      </c>
+      <c r="J262" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E263" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G263" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I263" s="10">
+        <v>97000000000262</v>
+      </c>
+      <c r="J263" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="E264" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+      <c r="G264" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList', null);</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I264" s="10">
+        <v>97000000000263</v>
+      </c>
+      <c r="J264" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataList</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B265" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C265" s="2"/>
+      <c r="D265" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E265" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G265" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I265" s="10">
+        <v>97000000000264</v>
+      </c>
+      <c r="J265" s="1" t="str">
+        <f t="shared" ref="J265:J305" si="25">E265</f>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E266" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G266" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I266" s="10">
+        <v>97000000000265</v>
+      </c>
+      <c r="J266" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E267" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G267" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I267" s="10">
+        <v>97000000000266</v>
+      </c>
+      <c r="J267" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E268" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G268" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I268" s="10">
+        <v>97000000000267</v>
+      </c>
+      <c r="J268" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E269" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G269" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I269" s="10">
+        <v>97000000000268</v>
+      </c>
+      <c r="J269" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E270" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G270" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I270" s="10">
+        <v>97000000000269</v>
+      </c>
+      <c r="J270" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E271" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G271" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I271" s="10">
+        <v>97000000000270</v>
+      </c>
+      <c r="J271" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E272" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G272" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I272" s="10">
+        <v>97000000000271</v>
+      </c>
+      <c r="J272" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E273" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G273" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I273" s="10">
+        <v>97000000000272</v>
+      </c>
+      <c r="J273" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="E274" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+      <c r="G274" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume', null);</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I274" s="10">
+        <v>97000000000273</v>
+      </c>
+      <c r="J274" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseRequisition.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B275" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E275" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
+      </c>
+      <c r="G275" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation', 'DataValidation');</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I275" s="10">
+        <v>97000000000274</v>
+      </c>
+      <c r="J275" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.DataValidation</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B276" s="2"/>
+      <c r="C276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E276" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
+      </c>
+      <c r="G276" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create', 'Create');</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I276" s="10">
+        <v>97000000000275</v>
+      </c>
+      <c r="J276" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Create</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B277" s="2"/>
+      <c r="C277" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E277" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
+      </c>
+      <c r="G277" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate', 'Recreate');</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I277" s="10">
+        <v>97000000000276</v>
+      </c>
+      <c r="J277" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Recreate</v>
+      </c>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B278" s="2"/>
+      <c r="C278" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E278" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
+      </c>
+      <c r="G278" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit', 'Edit');</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I278" s="10">
+        <v>97000000000277</v>
+      </c>
+      <c r="J278" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Edit</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B279" s="2"/>
+      <c r="C279" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E279" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
+      </c>
+      <c r="G279" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete', 'Delete');</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I279" s="10">
+        <v>97000000000278</v>
+      </c>
+      <c r="J279" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction.Delete</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E280" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G280" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I280" s="10">
+        <v>97000000000279</v>
+      </c>
+      <c r="J280" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E281" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G281" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I281" s="10">
+        <v>97000000000280</v>
+      </c>
+      <c r="J281" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E282" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G282" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I282" s="10">
+        <v>97000000000281</v>
+      </c>
+      <c r="J282" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E283" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G283" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I283" s="10">
+        <v>97000000000282</v>
+      </c>
+      <c r="J283" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="E284" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+      <c r="G284" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Transaction', null);</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I284" s="10">
+        <v>97000000000283</v>
+      </c>
+      <c r="J284" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Transaction</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B285" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C285" s="2"/>
+      <c r="D285" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+      </c>
+      <c r="E285" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+      </c>
+      <c r="G285" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm', null);</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I285" s="10">
+        <v>97000000000284</v>
+      </c>
+      <c r="J285" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataForm</v>
+      </c>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B286" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E286" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
+      </c>
+      <c r="G286" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments', 'AllDocuments');</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I286" s="10">
+        <v>97000000000285</v>
+      </c>
+      <c r="J286" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList.AllDocuments</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E287" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G287" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I287" s="10">
+        <v>97000000000286</v>
+      </c>
+      <c r="J287" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E288" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G288" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I288" s="10">
+        <v>97000000000287</v>
+      </c>
+      <c r="J288" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E289" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G289" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I289" s="10">
+        <v>97000000000288</v>
+      </c>
+      <c r="J289" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E290" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G290" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I290" s="10">
+        <v>97000000000289</v>
+      </c>
+      <c r="J290" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E291" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G291" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I291" s="10">
+        <v>97000000000290</v>
+      </c>
+      <c r="J291" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E292" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G292" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I292" s="10">
+        <v>97000000000291</v>
+      </c>
+      <c r="J292" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E293" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G293" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I293" s="10">
+        <v>97000000000292</v>
+      </c>
+      <c r="J293" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E294" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G294" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I294" s="10">
+        <v>97000000000293</v>
+      </c>
+      <c r="J294" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="E295" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+      <c r="G295" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList', null);</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I295" s="10">
+        <v>97000000000294</v>
+      </c>
+      <c r="J295" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataList</v>
+      </c>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B296" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C296" s="2"/>
+      <c r="D296" s="3" t="str">
+        <f t="shared" si="23"/>
         <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
-      <c r="E242" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="E296" s="4" t="str">
+        <f t="shared" si="24"/>
         <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
-      <c r="G242" s="1" t="str">
-        <f t="shared" si="20"/>
+      <c r="G296" s="1" t="str">
+        <f t="shared" si="22"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
-      <c r="H242" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I242" s="10">
-        <v>97000000000169</v>
-      </c>
-      <c r="J242" s="1" t="str">
-        <f t="shared" si="21"/>
+      <c r="H296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I296" s="10">
+        <v>97000000000295</v>
+      </c>
+      <c r="J296" s="1" t="str">
+        <f t="shared" si="25"/>
         <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="3" t="str">
-        <f t="shared" si="18"/>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="3" t="str">
+        <f t="shared" si="23"/>
         <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
-      <c r="E243" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="E297" s="4" t="str">
+        <f t="shared" si="24"/>
         <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
-      <c r="G243" s="1" t="str">
-        <f t="shared" si="20"/>
+      <c r="G297" s="1" t="str">
+        <f t="shared" si="22"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I243" s="10">
-        <v>97000000000170</v>
-      </c>
-      <c r="J243" s="1" t="str">
-        <f t="shared" si="21"/>
+      <c r="H297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I297" s="10">
+        <v>97000000000296</v>
+      </c>
+      <c r="J297" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E298" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G298" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I298" s="10">
+        <v>97000000000297</v>
+      </c>
+      <c r="J298" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E299" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G299" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I299" s="10">
+        <v>97000000000298</v>
+      </c>
+      <c r="J299" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E300" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G300" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I300" s="10">
+        <v>97000000000299</v>
+      </c>
+      <c r="J300" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E301" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G301" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I301" s="10">
+        <v>97000000000300</v>
+      </c>
+      <c r="J301" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E302" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G302" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I302" s="10">
+        <v>97000000000301</v>
+      </c>
+      <c r="J302" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E303" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G303" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I303" s="10">
+        <v>97000000000302</v>
+      </c>
+      <c r="J303" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E304" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G304" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I304" s="10">
+        <v>97000000000303</v>
+      </c>
+      <c r="J304" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+    </row>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="E305" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+      </c>
+      <c r="G305" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume', null);</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I305" s="10">
+        <v>97000000000304</v>
+      </c>
+      <c r="J305" s="1" t="str">
+        <f t="shared" si="25"/>
         <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
       </c>
     </row>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="MainNEW" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="190">
   <si>
     <t>System</t>
   </si>
@@ -356,13 +357,241 @@
   </si>
   <si>
     <t>Purchase Order List</t>
+  </si>
+  <si>
+    <t>System.Login</t>
+  </si>
+  <si>
+    <t>System.Logout</t>
+  </si>
+  <si>
+    <t>System.Lock</t>
+  </si>
+  <si>
+    <t>Module.Administration.User.Transaction</t>
+  </si>
+  <si>
+    <t>Module.Administration.UserRole.Transaction</t>
+  </si>
+  <si>
+    <t>Module.Administration.UserRoleGroup.Transaction</t>
+  </si>
+  <si>
+    <t>Module.Administration.UserRoleGroupMember.Transaction</t>
+  </si>
+  <si>
+    <t>User Role Data List</t>
+  </si>
+  <si>
+    <t>User Role Group Data List</t>
+  </si>
+  <si>
+    <t>User Role Group Member Data List</t>
+  </si>
+  <si>
+    <t>User Role Delegation Data List</t>
+  </si>
+  <si>
+    <t>User Role Privileges Data List</t>
+  </si>
+  <si>
+    <t>Menu Data List</t>
+  </si>
+  <si>
+    <t>Module.Administration.MenuGroup</t>
+  </si>
+  <si>
+    <t>Module.Administration.MenuGroup.Report.DataList</t>
+  </si>
+  <si>
+    <t>Menu Group</t>
+  </si>
+  <si>
+    <t>Menu Group Data List</t>
+  </si>
+  <si>
+    <t>Module.Administration.MenuGroupMember</t>
+  </si>
+  <si>
+    <t>Module.Administration.MenuGroupMember.Report.DataList</t>
+  </si>
+  <si>
+    <t>Menu Group Member</t>
+  </si>
+  <si>
+    <t>Menu Group Member Data List</t>
+  </si>
+  <si>
+    <t>Module.Administration.MenuAction</t>
+  </si>
+  <si>
+    <t>Module.Administration.MenuAction.Report.DataList</t>
+  </si>
+  <si>
+    <t>Menu Action</t>
+  </si>
+  <si>
+    <t>Menu Action Data List</t>
+  </si>
+  <si>
+    <t>Module.Finance.Advance.Report.Form</t>
+  </si>
+  <si>
+    <t>Advance Form</t>
+  </si>
+  <si>
+    <t>Advance Data List</t>
+  </si>
+  <si>
+    <t>Module.Finance.AdvancePayment.Report.Form</t>
+  </si>
+  <si>
+    <t>Advance Payment Form</t>
+  </si>
+  <si>
+    <t>Advance Payment Data List</t>
+  </si>
+  <si>
+    <t>Module.Finance.AdvanceSettlement.Report.Form</t>
+  </si>
+  <si>
+    <t>Advance Settlement Form</t>
+  </si>
+  <si>
+    <t>Advance Settlement Data List</t>
+  </si>
+  <si>
+    <t>Module.Finance.Advance.Report.Resume</t>
+  </si>
+  <si>
+    <t>Advance Data Resume</t>
+  </si>
+  <si>
+    <t>Module.Finance.AdvancePayment.Report.Resume</t>
+  </si>
+  <si>
+    <t>Advance Payment Resume</t>
+  </si>
+  <si>
+    <t>Module.Finance.AdvanceSettlement.Report.Resume</t>
+  </si>
+  <si>
+    <t>Advance Settlement Resume</t>
+  </si>
+  <si>
+    <t>Module.Finance.Payment.Report.Form</t>
+  </si>
+  <si>
+    <t>Module.Finance.Payment.Report.Resume</t>
+  </si>
+  <si>
+    <t>Module.Finance.PaymentInstruction.Report.Form</t>
+  </si>
+  <si>
+    <t>Module.Finance.PaymentInstruction.Report.Resume</t>
+  </si>
+  <si>
+    <t>Advance Payment Instruction</t>
+  </si>
+  <si>
+    <t>Advance Payment Instruction Form</t>
+  </si>
+  <si>
+    <t>Advance Payment Instruction Data List</t>
+  </si>
+  <si>
+    <t>Advance Payment Instruction Resume</t>
+  </si>
+  <si>
+    <t>Module.MasterData.Person</t>
+  </si>
+  <si>
+    <t>Module.MasterData.Person.Report.DataList</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Person Data List</t>
+  </si>
+  <si>
+    <t>Module.Administration.WorkFlow</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>Workflow Data List</t>
+  </si>
+  <si>
+    <t>Module.Administration.WorkFlowPath</t>
+  </si>
+  <si>
+    <t>Module.Administration.WorkFlowPath.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.Administration.WorkFlow.Report.DataList</t>
+  </si>
+  <si>
+    <t>Workflow Path</t>
+  </si>
+  <si>
+    <t>Workflow Path Data List</t>
+  </si>
+  <si>
+    <t>Module.Accounting.MasterData.ChartOfAccounting</t>
+  </si>
+  <si>
+    <t>Module.Accounting.MasterData.ChartOfAccounting.Report.DataList</t>
+  </si>
+  <si>
+    <t>Chart Of Accounting</t>
+  </si>
+  <si>
+    <t>Chart Of Accounting Data List</t>
+  </si>
+  <si>
+    <t>Module.MasterData.Bank</t>
+  </si>
+  <si>
+    <t>Module.MasterData.Bank.Report.DataList</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Bank Data List</t>
+  </si>
+  <si>
+    <t>Module.MasterData.BankAccount</t>
+  </si>
+  <si>
+    <t>Module.MasterData.BankAccount.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.MasterData.BankBranch</t>
+  </si>
+  <si>
+    <t>Module.MasterData.BankBranch.Report.DataList</t>
+  </si>
+  <si>
+    <t>Bank Branch</t>
+  </si>
+  <si>
+    <t>Bank Branch Data List</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Bank Account Data List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +609,20 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -416,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -448,11 +691,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -467,6 +723,10 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14246,4 +14506,1401 @@
     <ignoredError sqref="E110 E141 E32 E38 E62 E44:E50 E56 E68" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>97000000000001</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(EXACT(B2, ""), "", B2)</f>
+        <v>System.Login</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f>IF(EXACT(C2, ""), "", C2)</f>
+        <v>Login</v>
+      </c>
+      <c r="I2" s="15" t="str">
+        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B2, ""),"null", CONCATENATE("'", $F2, "'")), ", ", IF(EXACT($B2, ""), "null", CONCATENATE("'", $G2, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System.Login', 'Login');</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>97000000000002</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f t="shared" ref="F3:F8" si="0">IF(EXACT(B3, ""), "", B3)</f>
+        <v>System.Logout</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G8" si="1">IF(EXACT(C3, ""), "", C3)</f>
+        <v>Logout</v>
+      </c>
+      <c r="I3" s="15" t="str">
+        <f t="shared" ref="I3:I60" si="2">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B3, ""),"null", CONCATENATE("'", $F3, "'")), ", ", IF(EXACT($B3, ""), "null", CONCATENATE("'", $G3, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System.Logout', 'Logout');</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="14">
+        <v>97000000000003</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>System.Lock</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Lock</v>
+      </c>
+      <c r="I4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'System.Lock', 'Lock');</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="14">
+        <v>97000000000004</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dashboard.DocumentTracking</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Document Tracking</v>
+      </c>
+      <c r="I5" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard.DocumentTracking', 'Document Tracking');</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="14">
+        <v>97000000000005</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dashboard.DocumentDisposition</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Document Disposition</v>
+      </c>
+      <c r="I6" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Dashboard.DocumentDisposition', 'Document Disposition');</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="14">
+        <v>97000000000006</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Module.Administration.User.Transaction</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>User</v>
+      </c>
+      <c r="I7" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.User.Transaction', 'User');</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="14">
+        <v>97000000000007</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Module.Administration.User.Report.DataList</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>User Data List</v>
+      </c>
+      <c r="I8" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.User.Report.DataList', 'User Data List');</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="14">
+        <v>97000000000008</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" ref="F9:F11" si="3">IF(EXACT(B9, ""), "", B9)</f>
+        <v>Module.Administration.UserRole.Transaction</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" ref="G9:G11" si="4">IF(EXACT(C9, ""), "", C9)</f>
+        <v>User Role</v>
+      </c>
+      <c r="I9" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRole.Transaction', 'User Role');</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="14">
+        <v>97000000000009</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Module.Administration.UserRole.Report.DataList</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>User Role Data List</v>
+      </c>
+      <c r="I10" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRole.Report.DataList', 'User Role Data List');</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="14">
+        <v>97000000000010</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Module.Administration.UserRoleGroup.Transaction</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>User Role Group</v>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRoleGroup.Transaction', 'User Role Group');</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="14">
+        <v>97000000000011</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" ref="F12:F13" si="5">IF(EXACT(B12, ""), "", B12)</f>
+        <v>Module.Administration.UserRoleGroup.Report.DataList</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" ref="G12:G13" si="6">IF(EXACT(C12, ""), "", C12)</f>
+        <v>User Role Group Data List</v>
+      </c>
+      <c r="I12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRoleGroup.Report.DataList', 'User Role Group Data List');</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="14">
+        <v>97000000000012</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Module.Administration.UserRoleGroupMember.Transaction</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>User Role Group Member</v>
+      </c>
+      <c r="I13" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRoleGroupMember.Transaction', 'User Role Group Member');</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="14">
+        <v>97000000000013</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" ref="F14:F16" si="7">IF(EXACT(B14, ""), "", B14)</f>
+        <v>Module.Administration.UserRoleGroupMember.Report.DataList</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" ref="G14:G16" si="8">IF(EXACT(C14, ""), "", C14)</f>
+        <v>User Role Group Member Data List</v>
+      </c>
+      <c r="I14" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRoleGroupMember.Report.DataList', 'User Role Group Member Data List');</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="14">
+        <v>97000000000014</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.Administration.UserRoleDelegation</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>User Role Delegation</v>
+      </c>
+      <c r="I15" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRoleDelegation', 'User Role Delegation');</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="14">
+        <v>97000000000015</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Module.Administration.UserRoleDelegation.Report.DataList</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>User Role Delegation Data List</v>
+      </c>
+      <c r="I16" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRoleDelegation.Report.DataList', 'User Role Delegation Data List');</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="14">
+        <v>97000000000016</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" ref="F17:F18" si="9">IF(EXACT(B17, ""), "", B17)</f>
+        <v>Module.Administration.UserRolePrivilegesMenu</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" ref="G17:G18" si="10">IF(EXACT(C17, ""), "", C17)</f>
+        <v>User Role Privileges Menu</v>
+      </c>
+      <c r="I17" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRolePrivilegesMenu', 'User Role Privileges Menu');</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="14">
+        <v>97000000000017</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Module.Administration.UserRolePrivilegesMenu.Report.DataList</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>User Role Privileges Data List</v>
+      </c>
+      <c r="I18" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.UserRolePrivilegesMenu.Report.DataList', 'User Role Privileges Data List');</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="14">
+        <v>97000000000018</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" ref="F19:F26" si="11">IF(EXACT(B19, ""), "", B19)</f>
+        <v>Module.Administration.Menu</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" ref="G19:G26" si="12">IF(EXACT(C19, ""), "", C19)</f>
+        <v>Menu</v>
+      </c>
+      <c r="I19" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.Menu', 'Menu');</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="14">
+        <v>97000000000019</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>Module.Administration.Menu.Report.DataList</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Menu Data List</v>
+      </c>
+      <c r="I20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.Menu.Report.DataList', 'Menu Data List');</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="14">
+        <v>97000000000020</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>Module.Administration.MenuGroup</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Menu Group</v>
+      </c>
+      <c r="I21" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.MenuGroup', 'Menu Group');</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="14">
+        <v>97000000000021</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>Module.Administration.MenuGroup.Report.DataList</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Menu Group Data List</v>
+      </c>
+      <c r="I22" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.MenuGroup.Report.DataList', 'Menu Group Data List');</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="14">
+        <v>97000000000022</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>Module.Administration.MenuGroupMember</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Menu Group Member</v>
+      </c>
+      <c r="I23" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.MenuGroupMember', 'Menu Group Member');</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="14">
+        <v>97000000000023</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>Module.Administration.MenuGroupMember.Report.DataList</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Menu Group Member Data List</v>
+      </c>
+      <c r="I24" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.MenuGroupMember.Report.DataList', 'Menu Group Member Data List');</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="14">
+        <v>97000000000024</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>Module.Administration.MenuAction</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Menu Action</v>
+      </c>
+      <c r="I25" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.MenuAction', 'Menu Action');</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="14">
+        <v>97000000000025</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>Module.Administration.MenuAction.Report.DataList</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Menu Action Data List</v>
+      </c>
+      <c r="I26" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.MenuAction.Report.DataList', 'Menu Action Data List');</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="14">
+        <v>97000000000026</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f t="shared" ref="F27:F28" si="13">IF(EXACT(B27, ""), "", B27)</f>
+        <v>Module.Administration.WorkFlow</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" ref="G27:G28" si="14">IF(EXACT(C27, ""), "", C27)</f>
+        <v>Workflow</v>
+      </c>
+      <c r="I27" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.WorkFlow', 'Workflow');</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="14">
+        <v>97000000000027</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>Module.Administration.WorkFlow.Report.DataList</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Workflow Data List</v>
+      </c>
+      <c r="I28" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.WorkFlow.Report.DataList', 'Workflow Data List');</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="14">
+        <v>97000000000028</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f t="shared" ref="F29:F34" si="15">IF(EXACT(B29, ""), "", B29)</f>
+        <v>Module.Administration.WorkFlowPath</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" ref="G29:G34" si="16">IF(EXACT(C29, ""), "", C29)</f>
+        <v>Workflow Path</v>
+      </c>
+      <c r="I29" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.WorkFlowPath', 'Workflow Path');</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="14">
+        <v>97000000000029</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.Administration.WorkFlowPath.Report.DataList</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Workflow Path Data List</v>
+      </c>
+      <c r="I30" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Administration.WorkFlowPath.Report.DataList', 'Workflow Path Data List');</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="14">
+        <v>97000000000030</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.MasterData.Bank</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Bank</v>
+      </c>
+      <c r="I31" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Bank', 'Bank');</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="14">
+        <v>97000000000031</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.MasterData.Bank.Report.DataList</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Bank Data List</v>
+      </c>
+      <c r="I32" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Bank.Report.DataList', 'Bank Data List');</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="14">
+        <v>97000000000032</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.MasterData.BankAccount</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Bank Account</v>
+      </c>
+      <c r="I33" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.BankAccount', 'Bank Account');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="14">
+        <v>97000000000033</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Module.MasterData.BankAccount.Report.DataList</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Bank Account Data List</v>
+      </c>
+      <c r="I34" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.BankAccount.Report.DataList', 'Bank Account Data List');</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="14">
+        <v>97000000000034</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" ref="F35:F36" si="17">IF(EXACT(B35, ""), "", B35)</f>
+        <v>Module.MasterData.BankBranch</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" ref="G35:G36" si="18">IF(EXACT(C35, ""), "", C35)</f>
+        <v>Bank Branch</v>
+      </c>
+      <c r="I35" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.BankBranch', 'Bank Branch');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="14">
+        <v>97000000000035</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Module.MasterData.BankBranch.Report.DataList</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>Bank Branch Data List</v>
+      </c>
+      <c r="I36" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.BankBranch.Report.DataList', 'Bank Branch Data List');</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="14">
+        <v>97000000000036</v>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f t="shared" ref="F37:F44" si="19">IF(EXACT(B37, ""), "", B37)</f>
+        <v>Module.MasterData.Person</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" ref="G37:G44" si="20">IF(EXACT(C37, ""), "", C37)</f>
+        <v>Person</v>
+      </c>
+      <c r="I37" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Person', 'Person');</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="14">
+        <v>97000000000037</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.MasterData.Person.Report.DataList</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Person Data List</v>
+      </c>
+      <c r="I38" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.MasterData.Person.Report.DataList', 'Person Data List');</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="14">
+        <v>97000000000038</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.Accounting.MasterData.ChartOfAccounting</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Chart Of Accounting</v>
+      </c>
+      <c r="I39" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Accounting.MasterData.ChartOfAccounting', 'Chart Of Accounting');</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="14">
+        <v>97000000000039</v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.Accounting.MasterData.ChartOfAccounting.Report.DataList</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Chart Of Accounting Data List</v>
+      </c>
+      <c r="I40" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Accounting.MasterData.ChartOfAccounting.Report.DataList', 'Chart Of Accounting Data List');</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="14">
+        <v>97000000000040</v>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.Finance.Advance.Transaction</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Advance</v>
+      </c>
+      <c r="I41" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Transaction', 'Advance');</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="14">
+        <v>97000000000041</v>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.Finance.Advance.Report.Form</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Advance Form</v>
+      </c>
+      <c r="I42" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.Form', 'Advance Form');</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="14">
+        <v>97000000000042</v>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.Finance.Advance.Report.DataList</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Advance Data List</v>
+      </c>
+      <c r="I43" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.DataList', 'Advance Data List');</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="14">
+        <v>97000000000043</v>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>Module.Finance.Advance.Report.Resume</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>Advance Data Resume</v>
+      </c>
+      <c r="I44" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Advance.Report.Resume', 'Advance Data Resume');</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="14">
+        <v>97000000000044</v>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f t="shared" ref="F45:F60" si="21">IF(EXACT(B45, ""), "", B45)</f>
+        <v>Module.Finance.AdvancePayment.Transaction</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" ref="G45:G60" si="22">IF(EXACT(C45, ""), "", C45)</f>
+        <v>Advance Payment</v>
+      </c>
+      <c r="I45" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvancePayment.Transaction', 'Advance Payment');</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="14">
+        <v>97000000000045</v>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.AdvancePayment.Report.Form</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Form</v>
+      </c>
+      <c r="I46" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvancePayment.Report.Form', 'Advance Payment Form');</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="14">
+        <v>97000000000046</v>
+      </c>
+      <c r="F47" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.AdvancePayment.Report.DataList</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Data List</v>
+      </c>
+      <c r="I47" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvancePayment.Report.DataList', 'Advance Payment Data List');</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="14">
+        <v>97000000000047</v>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.AdvancePayment.Report.Resume</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Resume</v>
+      </c>
+      <c r="I48" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvancePayment.Report.Resume', 'Advance Payment Resume');</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="14">
+        <v>97000000000048</v>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Settlement</v>
+      </c>
+      <c r="I49" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Transaction', 'Advance Settlement');</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="14">
+        <v>97000000000049</v>
+      </c>
+      <c r="F50" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.AdvanceSettlement.Report.Form</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Settlement Form</v>
+      </c>
+      <c r="I50" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.Form', 'Advance Settlement Form');</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="14">
+        <v>97000000000050</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Settlement Data List</v>
+      </c>
+      <c r="I51" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.DataList', 'Advance Settlement Data List');</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="14">
+        <v>97000000000051</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.AdvanceSettlement.Report.Resume</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Settlement Resume</v>
+      </c>
+      <c r="I52" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.AdvanceSettlement.Report.Resume', 'Advance Settlement Resume');</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="14">
+        <v>97000000000052</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.Payment.Transaction</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment</v>
+      </c>
+      <c r="I53" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Transaction', 'Advance Payment');</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="14">
+        <v>97000000000053</v>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.Payment.Report.Form</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Form</v>
+      </c>
+      <c r="I54" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.Form', 'Advance Payment Form');</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="14">
+        <v>97000000000054</v>
+      </c>
+      <c r="F55" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.Payment.Report.DataList</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Data List</v>
+      </c>
+      <c r="I55" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.DataList', 'Advance Payment Data List');</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="14">
+        <v>97000000000055</v>
+      </c>
+      <c r="F56" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.Payment.Report.Resume</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Resume</v>
+      </c>
+      <c r="I56" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Payment.Report.Resume', 'Advance Payment Resume');</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="14">
+        <v>97000000000056</v>
+      </c>
+      <c r="F57" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.PaymentInstruction.Transaction</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Instruction</v>
+      </c>
+      <c r="I57" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Transaction', 'Advance Payment Instruction');</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="14">
+        <v>97000000000057</v>
+      </c>
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.PaymentInstruction.Report.Form</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Instruction Form</v>
+      </c>
+      <c r="I58" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.Form', 'Advance Payment Instruction Form');</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="14">
+        <v>97000000000058</v>
+      </c>
+      <c r="F59" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.PaymentInstruction.Report.DataList</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Instruction Data List</v>
+      </c>
+      <c r="I59" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.DataList', 'Advance Payment Instruction Data List');</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="14">
+        <v>97000000000059</v>
+      </c>
+      <c r="F60" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>Module.Finance.PaymentInstruction.Report.Resume</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Advance Payment Instruction Resume</v>
+      </c>
+      <c r="I60" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.PaymentInstruction.Report.Resume', 'Advance Payment Instruction Resume');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1336">
   <si>
     <t>System</t>
   </si>
@@ -3999,6 +3999,30 @@
   </si>
   <si>
     <t>Material Return Resume</t>
+  </si>
+  <si>
+    <t>Module.Finance.Data.SalesInvoiceRequisition.Transaction</t>
+  </si>
+  <si>
+    <t>Module.Finance.Data.SalesInvoiceRequisition.Report.Form</t>
+  </si>
+  <si>
+    <t>Module.Finance.Data.SalesInvoiceRequisition.Report.DataList</t>
+  </si>
+  <si>
+    <t>Module.Finance.Data.SalesInvoiceRequisition.Report.Resume</t>
+  </si>
+  <si>
+    <t>Sales Invoice Requisition</t>
+  </si>
+  <si>
+    <t>Sales Invoice Requisition Form</t>
+  </si>
+  <si>
+    <t>Sales Invoice Requisition Data List</t>
+  </si>
+  <si>
+    <t>Sales Invoice Requisition Resume</t>
   </si>
 </sst>
 </file>
@@ -17943,10 +17967,10 @@
   <dimension ref="B1:I626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B582" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C589" sqref="C589"/>
+      <selection pane="bottomRight" activeCell="H390" sqref="H390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24200,11 +24224,11 @@
         <v>97000000000260</v>
       </c>
       <c r="F261" s="3" t="str">
-        <f t="shared" ref="F261:F327" si="19">IF(EXACT(B261, ""), "", B261)</f>
+        <f t="shared" ref="F261:F324" si="19">IF(EXACT(B261, ""), "", B261)</f>
         <v>Module.General.MasterData.Religion.DataValidation</v>
       </c>
       <c r="G261" s="3" t="str">
-        <f t="shared" ref="G261:G327" si="20">IF(EXACT(C261, ""), "", C261)</f>
+        <f t="shared" ref="G261:G324" si="20">IF(EXACT(C261, ""), "", C261)</f>
         <v>Religion Data Validation</v>
       </c>
       <c r="I261" s="15" t="str">
@@ -24664,7 +24688,7 @@
         <v>Chart Of Accounting</v>
       </c>
       <c r="I280" s="15" t="str">
-        <f t="shared" ref="I280:I346" si="21">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B280, ""),"null", CONCATENATE("'", $F280, "'")), ", ", IF(EXACT($B280, ""), "null", CONCATENATE("'", $G280, "'")), ");")</f>
+        <f t="shared" ref="I280:I343" si="21">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B280, ""),"null", CONCATENATE("'", $F280, "'")), ", ", IF(EXACT($B280, ""), "null", CONCATENATE("'", $G280, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Accounting.MasterData.ChartOfAccounting.Transaction', 'Chart Of Accounting');</v>
       </c>
     </row>
@@ -24752,11 +24776,11 @@
         <v>97000000000283</v>
       </c>
       <c r="F284" s="3" t="str">
-        <f t="shared" ref="F284" si="22">IF(EXACT(B284, ""), "", B284)</f>
+        <f t="shared" si="19"/>
         <v>Module.Accounting.Data.Journal.Transaction</v>
       </c>
       <c r="G284" s="3" t="str">
-        <f t="shared" ref="G284" si="23">IF(EXACT(C284, ""), "", C284)</f>
+        <f t="shared" si="20"/>
         <v>Journal</v>
       </c>
       <c r="I284" s="15" t="str">
@@ -24776,11 +24800,11 @@
         <v>97000000000284</v>
       </c>
       <c r="F285" s="3" t="str">
-        <f t="shared" ref="F285:F288" si="24">IF(EXACT(B285, ""), "", B285)</f>
+        <f t="shared" si="19"/>
         <v>Module.Accounting.Data.JournalPosting.Transaction</v>
       </c>
       <c r="G285" s="3" t="str">
-        <f t="shared" ref="G285:G288" si="25">IF(EXACT(C285, ""), "", C285)</f>
+        <f t="shared" si="20"/>
         <v>Journal Posting</v>
       </c>
       <c r="I285" s="15" t="str">
@@ -24800,11 +24824,11 @@
         <v>97000000000285</v>
       </c>
       <c r="F286" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>Module.Accounting.Data.FinanceReport.Report.Resume</v>
       </c>
       <c r="G286" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>Finance Report Data Resume</v>
       </c>
       <c r="I286" s="15" t="str">
@@ -24824,11 +24848,11 @@
         <v>97000000000286</v>
       </c>
       <c r="F287" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>Module.Budgeting.Data.Budget.Transaction</v>
       </c>
       <c r="G287" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>Budget</v>
       </c>
       <c r="I287" s="15" t="str">
@@ -24848,11 +24872,11 @@
         <v>97000000000287</v>
       </c>
       <c r="F288" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>Module.Budgeting.Data.Budget.Report.Form</v>
       </c>
       <c r="G288" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>Budget Form</v>
       </c>
       <c r="I288" s="15" t="str">
@@ -25684,7 +25708,7 @@
         <v>1156</v>
       </c>
       <c r="E323" s="14">
-        <f t="shared" ref="E323:E386" si="26">IF(ISNUMBER($E322), $E322+1, 97000000000001)</f>
+        <f t="shared" ref="E323:E386" si="22">IF(ISNUMBER($E322), $E322+1, 97000000000001)</f>
         <v>97000000000322</v>
       </c>
       <c r="F323" s="3" t="str">
@@ -25708,7 +25732,7 @@
         <v>1157</v>
       </c>
       <c r="E324" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000323</v>
       </c>
       <c r="F324" s="3" t="str">
@@ -25732,15 +25756,15 @@
         <v>1158</v>
       </c>
       <c r="E325" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000324</v>
       </c>
       <c r="F325" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F325:F388" si="23">IF(EXACT(B325, ""), "", B325)</f>
         <v>Module.CustomerRelation.Data.SalesContractAddendum.Report.DataList</v>
       </c>
       <c r="G325" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="G325:G388" si="24">IF(EXACT(C325, ""), "", C325)</f>
         <v>Sales Contract Addendum Data List</v>
       </c>
       <c r="I325" s="15" t="str">
@@ -25756,15 +25780,15 @@
         <v>1159</v>
       </c>
       <c r="E326" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000325</v>
       </c>
       <c r="F326" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Module.CustomerRelation.Data.SalesContractAddendum.Report.Resume</v>
       </c>
       <c r="G326" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>Sales Contract Addendum Data Resume</v>
       </c>
       <c r="I326" s="15" t="str">
@@ -25780,15 +25804,15 @@
         <v>193</v>
       </c>
       <c r="E327" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000326</v>
       </c>
       <c r="F327" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>Module.CustomerRelation.Data.SalesOrder.Transaction</v>
       </c>
       <c r="G327" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>Sales Order</v>
       </c>
       <c r="I327" s="15" t="str">
@@ -25804,15 +25828,15 @@
         <v>194</v>
       </c>
       <c r="E328" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000327</v>
       </c>
       <c r="F328" s="3" t="str">
-        <f t="shared" ref="F328:F407" si="27">IF(EXACT(B328, ""), "", B328)</f>
+        <f t="shared" si="23"/>
         <v>Module.CustomerRelation.Data.SalesOrder.Report.Form</v>
       </c>
       <c r="G328" s="3" t="str">
-        <f t="shared" ref="G328:G407" si="28">IF(EXACT(C328, ""), "", C328)</f>
+        <f t="shared" si="24"/>
         <v>Sales Order Form</v>
       </c>
       <c r="I328" s="15" t="str">
@@ -25828,15 +25852,15 @@
         <v>195</v>
       </c>
       <c r="E329" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000328</v>
       </c>
       <c r="F329" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.CustomerRelation.Data.SalesOrder.Report.DataList</v>
       </c>
       <c r="G329" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Sales Order Data List</v>
       </c>
       <c r="I329" s="15" t="str">
@@ -25852,15 +25876,15 @@
         <v>196</v>
       </c>
       <c r="E330" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000329</v>
       </c>
       <c r="F330" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.CustomerRelation.Data.SalesOrder.Report.Resume</v>
       </c>
       <c r="G330" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Sales Order Data Resume</v>
       </c>
       <c r="I330" s="15" t="str">
@@ -25876,15 +25900,15 @@
         <v>1164</v>
       </c>
       <c r="E331" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000330</v>
       </c>
       <c r="F331" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.CustomerRelation.Data.SalesQuotation.Transaction</v>
       </c>
       <c r="G331" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Sales Quotation Order</v>
       </c>
       <c r="I331" s="15" t="str">
@@ -25900,15 +25924,15 @@
         <v>1165</v>
       </c>
       <c r="E332" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000331</v>
       </c>
       <c r="F332" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.CustomerRelation.Data.SalesQuotation.Report.Form</v>
       </c>
       <c r="G332" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Sales Quotation Order Form</v>
       </c>
       <c r="I332" s="15" t="str">
@@ -25924,15 +25948,15 @@
         <v>1166</v>
       </c>
       <c r="E333" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000332</v>
       </c>
       <c r="F333" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.CustomerRelation.Data.SalesQuotation.Report.DataList</v>
       </c>
       <c r="G333" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Sales Quotation Order Data List</v>
       </c>
       <c r="I333" s="15" t="str">
@@ -25948,15 +25972,15 @@
         <v>1167</v>
       </c>
       <c r="E334" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000333</v>
       </c>
       <c r="F334" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.CustomerRelation.Data.SalesQuotation.Report.Resume</v>
       </c>
       <c r="G334" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Sales Quotation Order Data Resume</v>
       </c>
       <c r="I334" s="15" t="str">
@@ -25972,15 +25996,15 @@
         <v>79</v>
       </c>
       <c r="E335" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000334</v>
       </c>
       <c r="F335" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Advance.Transaction</v>
       </c>
       <c r="G335" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance</v>
       </c>
       <c r="I335" s="15" t="str">
@@ -25996,15 +26020,15 @@
         <v>136</v>
       </c>
       <c r="E336" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000335</v>
       </c>
       <c r="F336" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Advance.Report.Form</v>
       </c>
       <c r="G336" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Form</v>
       </c>
       <c r="I336" s="15" t="str">
@@ -26020,15 +26044,15 @@
         <v>137</v>
       </c>
       <c r="E337" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000336</v>
       </c>
       <c r="F337" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Advance.Report.DataList</v>
       </c>
       <c r="G337" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Data List</v>
       </c>
       <c r="I337" s="15" t="str">
@@ -26044,15 +26068,15 @@
         <v>142</v>
       </c>
       <c r="E338" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000337</v>
       </c>
       <c r="F338" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Advance.Report.Resume</v>
       </c>
       <c r="G338" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Data Resume</v>
       </c>
       <c r="I338" s="15" t="str">
@@ -26068,15 +26092,15 @@
         <v>80</v>
       </c>
       <c r="E339" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000338</v>
       </c>
       <c r="F339" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.AdvancePayment.Transaction</v>
       </c>
       <c r="G339" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Payment</v>
       </c>
       <c r="I339" s="15" t="str">
@@ -26092,15 +26116,15 @@
         <v>138</v>
       </c>
       <c r="E340" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000339</v>
       </c>
       <c r="F340" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.AdvancePayment.Report.Form</v>
       </c>
       <c r="G340" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Payment Form</v>
       </c>
       <c r="I340" s="15" t="str">
@@ -26116,15 +26140,15 @@
         <v>139</v>
       </c>
       <c r="E341" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000340</v>
       </c>
       <c r="F341" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.AdvancePayment.Report.DataList</v>
       </c>
       <c r="G341" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Payment Data List</v>
       </c>
       <c r="I341" s="15" t="str">
@@ -26140,15 +26164,15 @@
         <v>143</v>
       </c>
       <c r="E342" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000341</v>
       </c>
       <c r="F342" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.AdvancePayment.Report.Resume</v>
       </c>
       <c r="G342" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Payment Resume</v>
       </c>
       <c r="I342" s="15" t="str">
@@ -26164,15 +26188,15 @@
         <v>81</v>
       </c>
       <c r="E343" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000342</v>
       </c>
       <c r="F343" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.AdvanceSettlement.Transaction</v>
       </c>
       <c r="G343" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Settlement</v>
       </c>
       <c r="I343" s="15" t="str">
@@ -26188,19 +26212,19 @@
         <v>140</v>
       </c>
       <c r="E344" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000343</v>
       </c>
       <c r="F344" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.AdvanceSettlement.Report.Form</v>
       </c>
       <c r="G344" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Settlement Form</v>
       </c>
       <c r="I344" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I344:I407" si="25">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B344, ""),"null", CONCATENATE("'", $F344, "'")), ", ", IF(EXACT($B344, ""), "null", CONCATENATE("'", $G344, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.AdvanceSettlement.Report.Form', 'Advance Settlement Form');</v>
       </c>
     </row>
@@ -26212,19 +26236,19 @@
         <v>141</v>
       </c>
       <c r="E345" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000344</v>
       </c>
       <c r="F345" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.AdvanceSettlement.Report.DataList</v>
       </c>
       <c r="G345" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Settlement Data List</v>
       </c>
       <c r="I345" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.AdvanceSettlement.Report.DataList', 'Advance Settlement Data List');</v>
       </c>
     </row>
@@ -26236,19 +26260,19 @@
         <v>144</v>
       </c>
       <c r="E346" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000345</v>
       </c>
       <c r="F346" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.AdvanceSettlement.Report.Resume</v>
       </c>
       <c r="G346" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Advance Settlement Resume</v>
       </c>
       <c r="I346" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.AdvanceSettlement.Report.Resume', 'Advance Settlement Resume');</v>
       </c>
     </row>
@@ -26260,19 +26284,19 @@
         <v>197</v>
       </c>
       <c r="E347" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000346</v>
       </c>
       <c r="F347" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.BankAccountMutation.Transaction</v>
       </c>
       <c r="G347" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Bank Account Mutation</v>
       </c>
       <c r="I347" s="15" t="str">
-        <f t="shared" ref="I347:I426" si="29">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B347, ""),"null", CONCATENATE("'", $F347, "'")), ", ", IF(EXACT($B347, ""), "null", CONCATENATE("'", $G347, "'")), ");")</f>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.BankAccountMutation.Transaction', 'Bank Account Mutation');</v>
       </c>
     </row>
@@ -26284,19 +26308,19 @@
         <v>198</v>
       </c>
       <c r="E348" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000347</v>
       </c>
       <c r="F348" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.BankAccountMutation.Report.Form</v>
       </c>
       <c r="G348" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Bank Account Mutation Form</v>
       </c>
       <c r="I348" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.BankAccountMutation.Report.Form', 'Bank Account Mutation Form');</v>
       </c>
     </row>
@@ -26308,19 +26332,19 @@
         <v>199</v>
       </c>
       <c r="E349" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000348</v>
       </c>
       <c r="F349" s="3" t="str">
-        <f t="shared" ref="F349:F359" si="30">IF(EXACT(B349, ""), "", B349)</f>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.BankAccountMutation.Report.DataList</v>
       </c>
       <c r="G349" s="3" t="str">
-        <f t="shared" ref="G349:G359" si="31">IF(EXACT(C349, ""), "", C349)</f>
+        <f t="shared" si="24"/>
         <v>Bank Account Mutation Data List</v>
       </c>
       <c r="I349" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.BankAccountMutation.Report.DataList', 'Bank Account Mutation Data List');</v>
       </c>
     </row>
@@ -26332,19 +26356,19 @@
         <v>200</v>
       </c>
       <c r="E350" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000349</v>
       </c>
       <c r="F350" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.BankAccountMutation.Report.Resume</v>
       </c>
       <c r="G350" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Bank Account Mutation Resume</v>
       </c>
       <c r="I350" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.BankAccountMutation.Report.Resume', 'Bank Account Mutation Resume');</v>
       </c>
     </row>
@@ -26356,19 +26380,19 @@
         <v>1272</v>
       </c>
       <c r="E351" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000350</v>
       </c>
       <c r="F351" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.CreditNote.Transaction</v>
       </c>
       <c r="G351" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Credit Note</v>
       </c>
       <c r="I351" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.CreditNote.Transaction', 'Credit Note');</v>
       </c>
     </row>
@@ -26380,19 +26404,19 @@
         <v>1273</v>
       </c>
       <c r="E352" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000351</v>
       </c>
       <c r="F352" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.CreditNote.Report.Form</v>
       </c>
       <c r="G352" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Credit Note Form</v>
       </c>
       <c r="I352" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.CreditNote.Report.Form', 'Credit Note Form');</v>
       </c>
     </row>
@@ -26404,19 +26428,19 @@
         <v>1271</v>
       </c>
       <c r="E353" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000352</v>
       </c>
       <c r="F353" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.CreditNote.Report.DataList</v>
       </c>
       <c r="G353" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Credit Note Data List</v>
       </c>
       <c r="I353" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.CreditNote.Report.DataList', 'Credit Note Data List');</v>
       </c>
     </row>
@@ -26428,19 +26452,19 @@
         <v>1270</v>
       </c>
       <c r="E354" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000353</v>
       </c>
       <c r="F354" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.CreditNote.Report.Resume</v>
       </c>
       <c r="G354" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Credit Note Resume</v>
       </c>
       <c r="I354" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.CreditNote.Report.Resume', 'Credit Note Resume');</v>
       </c>
     </row>
@@ -26452,19 +26476,19 @@
         <v>201</v>
       </c>
       <c r="E355" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000354</v>
       </c>
       <c r="F355" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.DebitNote.Transaction</v>
       </c>
       <c r="G355" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Debit Note</v>
       </c>
       <c r="I355" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.DebitNote.Transaction', 'Debit Note');</v>
       </c>
     </row>
@@ -26476,19 +26500,19 @@
         <v>202</v>
       </c>
       <c r="E356" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000355</v>
       </c>
       <c r="F356" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.DebitNote.Report.Form</v>
       </c>
       <c r="G356" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Debit Note Form</v>
       </c>
       <c r="I356" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.DebitNote.Report.Form', 'Debit Note Form');</v>
       </c>
     </row>
@@ -26500,19 +26524,19 @@
         <v>203</v>
       </c>
       <c r="E357" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000356</v>
       </c>
       <c r="F357" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.DebitNote.Report.DataList</v>
       </c>
       <c r="G357" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Debit Note Data List</v>
       </c>
       <c r="I357" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.DebitNote.Report.DataList', 'Debit Note Data List');</v>
       </c>
     </row>
@@ -26524,19 +26548,19 @@
         <v>204</v>
       </c>
       <c r="E358" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000357</v>
       </c>
       <c r="F358" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.DebitNote.Report.Resume</v>
       </c>
       <c r="G358" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Debit Note Resume</v>
       </c>
       <c r="I358" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.DebitNote.Report.Resume', 'Debit Note Resume');</v>
       </c>
     </row>
@@ -26548,19 +26572,19 @@
         <v>1314</v>
       </c>
       <c r="E359" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000358</v>
       </c>
       <c r="F359" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.ExpenseReimbursement.Transaction</v>
       </c>
       <c r="G359" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>Expense Reimbursement</v>
       </c>
       <c r="I359" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.ExpenseReimbursement.Transaction', 'Expense Reimbursement');</v>
       </c>
     </row>
@@ -26572,19 +26596,19 @@
         <v>1315</v>
       </c>
       <c r="E360" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000359</v>
       </c>
       <c r="F360" s="3" t="str">
-        <f t="shared" ref="F360:F375" si="32">IF(EXACT(B360, ""), "", B360)</f>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.ExpenseReimbursement.Report.Form</v>
       </c>
       <c r="G360" s="3" t="str">
-        <f t="shared" ref="G360:G375" si="33">IF(EXACT(C360, ""), "", C360)</f>
+        <f t="shared" si="24"/>
         <v>Expense Reimbursement Form</v>
       </c>
       <c r="I360" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.ExpenseReimbursement.Report.Form', 'Expense Reimbursement Form');</v>
       </c>
     </row>
@@ -26596,19 +26620,19 @@
         <v>1316</v>
       </c>
       <c r="E361" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000360</v>
       </c>
       <c r="F361" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.ExpenseReimbursement.Report.DataList</v>
       </c>
       <c r="G361" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Expense Reimbursement Data List</v>
       </c>
       <c r="I361" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.ExpenseReimbursement.Report.DataList', 'Expense Reimbursement Data List');</v>
       </c>
     </row>
@@ -26620,19 +26644,19 @@
         <v>1317</v>
       </c>
       <c r="E362" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000361</v>
       </c>
       <c r="F362" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.ExpenseReimbursement.Report.Resume</v>
       </c>
       <c r="G362" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Expense Reimbursement Resume</v>
       </c>
       <c r="I362" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.ExpenseReimbursement.Report.Resume', 'Expense Reimbursement Resume');</v>
       </c>
     </row>
@@ -26644,19 +26668,19 @@
         <v>1280</v>
       </c>
       <c r="E363" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000362</v>
       </c>
       <c r="F363" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Loan.Transaction</v>
       </c>
       <c r="G363" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Loan</v>
       </c>
       <c r="I363" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.Loan.Transaction', 'Loan');</v>
       </c>
     </row>
@@ -26668,19 +26692,19 @@
         <v>1281</v>
       </c>
       <c r="E364" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000363</v>
       </c>
       <c r="F364" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Loan.Report.Form</v>
       </c>
       <c r="G364" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Loan Form</v>
       </c>
       <c r="I364" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.Loan.Report.Form', 'Loan Form');</v>
       </c>
     </row>
@@ -26692,19 +26716,19 @@
         <v>1279</v>
       </c>
       <c r="E365" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000364</v>
       </c>
       <c r="F365" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Loan.Report.DataList</v>
       </c>
       <c r="G365" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Loan Data List</v>
       </c>
       <c r="I365" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.Loan.Report.DataList', 'Loan Data List');</v>
       </c>
     </row>
@@ -26716,19 +26740,19 @@
         <v>1278</v>
       </c>
       <c r="E366" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000365</v>
       </c>
       <c r="F366" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Loan.Report.Resume</v>
       </c>
       <c r="G366" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Loan Resume</v>
       </c>
       <c r="I366" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.Loan.Report.Resume', 'Loan Resume');</v>
       </c>
     </row>
@@ -26740,19 +26764,19 @@
         <v>1286</v>
       </c>
       <c r="E367" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000366</v>
       </c>
       <c r="F367" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.LoanSettlement.Transaction</v>
       </c>
       <c r="G367" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Loan Settlement</v>
       </c>
       <c r="I367" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.LoanSettlement.Transaction', 'Loan Settlement');</v>
       </c>
     </row>
@@ -26764,19 +26788,19 @@
         <v>1287</v>
       </c>
       <c r="E368" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000367</v>
       </c>
       <c r="F368" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.LoanSettlement.Report.Form</v>
       </c>
       <c r="G368" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Loan Settlement Form</v>
       </c>
       <c r="I368" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.LoanSettlement.Report.Form', 'Loan Settlement Form');</v>
       </c>
     </row>
@@ -26788,19 +26812,19 @@
         <v>1288</v>
       </c>
       <c r="E369" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000368</v>
       </c>
       <c r="F369" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.LoanSettlement.Report.DataList</v>
       </c>
       <c r="G369" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Loan Settlement Data List</v>
       </c>
       <c r="I369" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.LoanSettlement.Report.DataList', 'Loan Settlement Data List');</v>
       </c>
     </row>
@@ -26812,19 +26836,19 @@
         <v>1289</v>
       </c>
       <c r="E370" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000369</v>
       </c>
       <c r="F370" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.LoanSettlement.Report.Resume</v>
       </c>
       <c r="G370" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Loan Settlement Resume</v>
       </c>
       <c r="I370" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.LoanSettlement.Report.Resume', 'Loan Settlement Resume');</v>
       </c>
     </row>
@@ -26836,19 +26860,19 @@
         <v>83</v>
       </c>
       <c r="E371" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000370</v>
       </c>
       <c r="F371" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Payment.Transaction</v>
       </c>
       <c r="G371" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Payment</v>
       </c>
       <c r="I371" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.Payment.Transaction', 'Payment');</v>
       </c>
     </row>
@@ -26860,19 +26884,19 @@
         <v>205</v>
       </c>
       <c r="E372" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000371</v>
       </c>
       <c r="F372" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Payment.Report.Form</v>
       </c>
       <c r="G372" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Payment Form</v>
       </c>
       <c r="I372" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.Payment.Report.Form', 'Payment Form');</v>
       </c>
     </row>
@@ -26884,19 +26908,19 @@
         <v>206</v>
       </c>
       <c r="E373" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000372</v>
       </c>
       <c r="F373" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Payment.Report.DataList</v>
       </c>
       <c r="G373" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Payment Data List</v>
       </c>
       <c r="I373" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.Payment.Report.DataList', 'Payment Data List');</v>
       </c>
     </row>
@@ -26908,19 +26932,19 @@
         <v>207</v>
       </c>
       <c r="E374" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000373</v>
       </c>
       <c r="F374" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.Payment.Report.Resume</v>
       </c>
       <c r="G374" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Payment Resume</v>
       </c>
       <c r="I374" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.Payment.Report.Resume', 'Payment Resume');</v>
       </c>
     </row>
@@ -26932,19 +26956,19 @@
         <v>82</v>
       </c>
       <c r="E375" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000374</v>
       </c>
       <c r="F375" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PaymentInstruction.Transaction</v>
       </c>
       <c r="G375" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>Payment Instruction</v>
       </c>
       <c r="I375" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PaymentInstruction.Transaction', 'Payment Instruction');</v>
       </c>
     </row>
@@ -26956,19 +26980,19 @@
         <v>208</v>
       </c>
       <c r="E376" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000375</v>
       </c>
       <c r="F376" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PaymentInstruction.Report.Form</v>
       </c>
       <c r="G376" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Payment Instruction Instruction Form</v>
       </c>
       <c r="I376" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PaymentInstruction.Report.Form', 'Payment Instruction Instruction Form');</v>
       </c>
     </row>
@@ -26980,19 +27004,19 @@
         <v>209</v>
       </c>
       <c r="E377" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000376</v>
       </c>
       <c r="F377" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PaymentInstruction.Report.DataList</v>
       </c>
       <c r="G377" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Payment Instruction Instruction Data List</v>
       </c>
       <c r="I377" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PaymentInstruction.Report.DataList', 'Payment Instruction Instruction Data List');</v>
       </c>
     </row>
@@ -27004,19 +27028,19 @@
         <v>210</v>
       </c>
       <c r="E378" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000377</v>
       </c>
       <c r="F378" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PaymentInstruction.Report.Resume</v>
       </c>
       <c r="G378" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Payment Instruction Instruction Resume</v>
       </c>
       <c r="I378" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PaymentInstruction.Report.Resume', 'Payment Instruction Instruction Resume');</v>
       </c>
     </row>
@@ -27028,19 +27052,19 @@
         <v>426</v>
       </c>
       <c r="E379" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000378</v>
       </c>
       <c r="F379" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PettyCash.Transaction</v>
       </c>
       <c r="G379" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Petty Cash</v>
       </c>
       <c r="I379" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PettyCash.Transaction', 'Petty Cash');</v>
       </c>
     </row>
@@ -27052,19 +27076,19 @@
         <v>211</v>
       </c>
       <c r="E380" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000379</v>
       </c>
       <c r="F380" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PettyCash.Report.Form</v>
       </c>
       <c r="G380" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Petty Cash Instruction Form</v>
       </c>
       <c r="I380" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PettyCash.Report.Form', 'Petty Cash Instruction Form');</v>
       </c>
     </row>
@@ -27076,19 +27100,19 @@
         <v>212</v>
       </c>
       <c r="E381" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000380</v>
       </c>
       <c r="F381" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PettyCash.Report.DataList</v>
       </c>
       <c r="G381" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Petty Cash Instruction Data List</v>
       </c>
       <c r="I381" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PettyCash.Report.DataList', 'Petty Cash Instruction Data List');</v>
       </c>
     </row>
@@ -27100,19 +27124,19 @@
         <v>213</v>
       </c>
       <c r="E382" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000381</v>
       </c>
       <c r="F382" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PettyCash.Report.Resume</v>
       </c>
       <c r="G382" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Petty Cash Instruction Resume</v>
       </c>
       <c r="I382" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PettyCash.Report.Resume', 'Petty Cash Instruction Resume');</v>
       </c>
     </row>
@@ -27124,19 +27148,19 @@
         <v>427</v>
       </c>
       <c r="E383" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000382</v>
       </c>
       <c r="F383" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PurchaseInvoice.Transaction</v>
       </c>
       <c r="G383" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Purchase Invoice</v>
       </c>
       <c r="I383" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PurchaseInvoice.Transaction', 'Purchase Invoice');</v>
       </c>
     </row>
@@ -27148,19 +27172,19 @@
         <v>214</v>
       </c>
       <c r="E384" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000383</v>
       </c>
       <c r="F384" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PurchaseInvoice.Report.Form</v>
       </c>
       <c r="G384" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Purchase Invoice Form</v>
       </c>
       <c r="I384" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PurchaseInvoice.Report.Form', 'Purchase Invoice Form');</v>
       </c>
     </row>
@@ -27172,19 +27196,19 @@
         <v>215</v>
       </c>
       <c r="E385" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000384</v>
       </c>
       <c r="F385" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PurchaseInvoice.Report.DataList</v>
       </c>
       <c r="G385" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Purchase Invoice Data List</v>
       </c>
       <c r="I385" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PurchaseInvoice.Report.DataList', 'Purchase Invoice Data List');</v>
       </c>
     </row>
@@ -27196,19 +27220,19 @@
         <v>216</v>
       </c>
       <c r="E386" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>97000000000385</v>
       </c>
       <c r="F386" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PurchaseInvoice.Report.Resume</v>
       </c>
       <c r="G386" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Purchase Invoice Resume</v>
       </c>
       <c r="I386" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PurchaseInvoice.Report.Resume', 'Purchase Invoice Resume');</v>
       </c>
     </row>
@@ -27220,19 +27244,19 @@
         <v>428</v>
       </c>
       <c r="E387" s="14">
-        <f t="shared" ref="E387:E450" si="34">IF(ISNUMBER($E386), $E386+1, 97000000000001)</f>
+        <f t="shared" ref="E387:E450" si="26">IF(ISNUMBER($E386), $E386+1, 97000000000001)</f>
         <v>97000000000386</v>
       </c>
       <c r="F387" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PurchaseProformaInvoice.Transaction</v>
       </c>
       <c r="G387" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Purchase Proforma Invoice</v>
       </c>
       <c r="I387" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PurchaseProformaInvoice.Transaction', 'Purchase Proforma Invoice');</v>
       </c>
     </row>
@@ -27244,19 +27268,19 @@
         <v>217</v>
       </c>
       <c r="E388" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000387</v>
       </c>
       <c r="F388" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>Module.Finance.Data.PurchaseProformaInvoice.Report.Form</v>
       </c>
       <c r="G388" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>Purchase Proforma Invoice Form</v>
       </c>
       <c r="I388" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PurchaseProformaInvoice.Report.Form', 'Purchase Proforma Invoice Form');</v>
       </c>
     </row>
@@ -27268,19 +27292,19 @@
         <v>218</v>
       </c>
       <c r="E389" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000388</v>
       </c>
       <c r="F389" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="F389:F452" si="27">IF(EXACT(B389, ""), "", B389)</f>
         <v>Module.Finance.Data.PurchaseProformaInvoice.Report.DataList</v>
       </c>
       <c r="G389" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="G389:G452" si="28">IF(EXACT(C389, ""), "", C389)</f>
         <v>Purchase Proforma Invoice Data List</v>
       </c>
       <c r="I389" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PurchaseProformaInvoice.Report.DataList', 'Purchase Proforma Invoice Data List');</v>
       </c>
     </row>
@@ -27292,7 +27316,7 @@
         <v>219</v>
       </c>
       <c r="E390" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000389</v>
       </c>
       <c r="F390" s="3" t="str">
@@ -27304,7 +27328,7 @@
         <v>Purchase Proforma Invoice Resume</v>
       </c>
       <c r="I390" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.PurchaseProformaInvoice.Report.Resume', 'Purchase Proforma Invoice Resume');</v>
       </c>
     </row>
@@ -27316,7 +27340,7 @@
         <v>429</v>
       </c>
       <c r="E391" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000390</v>
       </c>
       <c r="F391" s="3" t="str">
@@ -27328,7 +27352,7 @@
         <v>Sales Invoice</v>
       </c>
       <c r="I391" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoice.Transaction', 'Sales Invoice');</v>
       </c>
     </row>
@@ -27340,7 +27364,7 @@
         <v>220</v>
       </c>
       <c r="E392" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000391</v>
       </c>
       <c r="F392" s="3" t="str">
@@ -27352,7 +27376,7 @@
         <v>Sales Invoice Form</v>
       </c>
       <c r="I392" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoice.Report.Form', 'Sales Invoice Form');</v>
       </c>
     </row>
@@ -27364,7 +27388,7 @@
         <v>221</v>
       </c>
       <c r="E393" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000392</v>
       </c>
       <c r="F393" s="3" t="str">
@@ -27376,7 +27400,7 @@
         <v>Sales Invoice Data List</v>
       </c>
       <c r="I393" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoice.Report.DataList', 'Sales Invoice Data List');</v>
       </c>
     </row>
@@ -27388,7 +27412,7 @@
         <v>222</v>
       </c>
       <c r="E394" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000393</v>
       </c>
       <c r="F394" s="3" t="str">
@@ -27400,200 +27424,200 @@
         <v>Sales Invoice Resume</v>
       </c>
       <c r="I394" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoice.Report.Resume', 'Sales Invoice Resume');</v>
       </c>
     </row>
     <row r="395" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B395" s="2" t="s">
-        <v>310</v>
+        <v>1328</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>430</v>
+        <v>1332</v>
       </c>
       <c r="E395" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000394</v>
       </c>
       <c r="F395" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>Module.Finance.Data.SalesProformaInvoice.Transaction</v>
+        <v>Module.Finance.Data.SalesInvoiceRequisition.Transaction</v>
       </c>
       <c r="G395" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>Sales Proforma Invoice</v>
+        <v>Sales Invoice Requisition</v>
       </c>
       <c r="I395" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesProformaInvoice.Transaction', 'Sales Proforma Invoice');</v>
+        <f t="shared" si="25"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoiceRequisition.Transaction', 'Sales Invoice Requisition');</v>
       </c>
     </row>
     <row r="396" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B396" s="2" t="s">
-        <v>311</v>
+        <v>1329</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>223</v>
+        <v>1333</v>
       </c>
       <c r="E396" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000395</v>
       </c>
       <c r="F396" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>Module.Finance.Data.SalesProformaInvoice.Report.Form</v>
+        <v>Module.Finance.Data.SalesInvoiceRequisition.Report.Form</v>
       </c>
       <c r="G396" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>Sales Proforma Invoice Form</v>
+        <v>Sales Invoice Requisition Form</v>
       </c>
       <c r="I396" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesProformaInvoice.Report.Form', 'Sales Proforma Invoice Form');</v>
+        <f t="shared" si="25"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoiceRequisition.Report.Form', 'Sales Invoice Requisition Form');</v>
       </c>
     </row>
     <row r="397" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B397" s="2" t="s">
-        <v>312</v>
+        <v>1330</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>224</v>
+        <v>1334</v>
       </c>
       <c r="E397" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000396</v>
       </c>
       <c r="F397" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>Module.Finance.Data.SalesProformaInvoice.Report.DataList</v>
+        <v>Module.Finance.Data.SalesInvoiceRequisition.Report.DataList</v>
       </c>
       <c r="G397" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>Sales Proforma Invoice Data List</v>
+        <v>Sales Invoice Requisition Data List</v>
       </c>
       <c r="I397" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesProformaInvoice.Report.DataList', 'Sales Proforma Invoice Data List');</v>
+        <f t="shared" si="25"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoiceRequisition.Report.DataList', 'Sales Invoice Requisition Data List');</v>
       </c>
     </row>
     <row r="398" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B398" s="5" t="s">
-        <v>313</v>
+        <v>1331</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>225</v>
+        <v>1335</v>
       </c>
       <c r="E398" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000397</v>
       </c>
       <c r="F398" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>Module.Finance.Data.SalesProformaInvoice.Report.Resume</v>
+        <v>Module.Finance.Data.SalesInvoiceRequisition.Report.Resume</v>
       </c>
       <c r="G398" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>Sales Proforma Invoice Resume</v>
+        <v>Sales Invoice Requisition Resume</v>
       </c>
       <c r="I398" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesProformaInvoice.Report.Resume', 'Sales Proforma Invoice Resume');</v>
+        <f t="shared" si="25"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoiceRequisition.Report.Resume', 'Sales Invoice Requisition Resume');</v>
       </c>
     </row>
     <row r="399" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B399" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E399" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000398</v>
       </c>
       <c r="F399" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>Module.Finance.Data.SalesInvoice.Transaction</v>
+        <v>Module.Finance.Data.SalesProformaInvoice.Transaction</v>
       </c>
       <c r="G399" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>Sales Invoice</v>
+        <v>Sales Proforma Invoice</v>
       </c>
       <c r="I399" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoice.Transaction', 'Sales Invoice');</v>
+        <f t="shared" si="25"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesProformaInvoice.Transaction', 'Sales Proforma Invoice');</v>
       </c>
     </row>
     <row r="400" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B400" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E400" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000399</v>
       </c>
       <c r="F400" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>Module.Finance.Data.SalesInvoice.Report.Form</v>
+        <v>Module.Finance.Data.SalesProformaInvoice.Report.Form</v>
       </c>
       <c r="G400" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>Sales Invoice Form</v>
+        <v>Sales Proforma Invoice Form</v>
       </c>
       <c r="I400" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoice.Report.Form', 'Sales Invoice Form');</v>
+        <f t="shared" si="25"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesProformaInvoice.Report.Form', 'Sales Proforma Invoice Form');</v>
       </c>
     </row>
     <row r="401" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B401" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E401" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000400</v>
       </c>
       <c r="F401" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>Module.Finance.Data.SalesInvoice.Report.DataList</v>
+        <v>Module.Finance.Data.SalesProformaInvoice.Report.DataList</v>
       </c>
       <c r="G401" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>Sales Invoice Data List</v>
+        <v>Sales Proforma Invoice Data List</v>
       </c>
       <c r="I401" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoice.Report.DataList', 'Sales Invoice Data List');</v>
+        <f t="shared" si="25"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesProformaInvoice.Report.DataList', 'Sales Proforma Invoice Data List');</v>
       </c>
     </row>
     <row r="402" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B402" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E402" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000401</v>
       </c>
       <c r="F402" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>Module.Finance.Data.SalesInvoice.Report.Resume</v>
+        <v>Module.Finance.Data.SalesProformaInvoice.Report.Resume</v>
       </c>
       <c r="G402" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>Sales Invoice Resume</v>
+        <v>Sales Proforma Invoice Resume</v>
       </c>
       <c r="I402" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesInvoice.Report.Resume', 'Sales Invoice Resume');</v>
+        <f t="shared" si="25"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Finance.Data.SalesProformaInvoice.Report.Resume', 'Sales Proforma Invoice Resume');</v>
       </c>
     </row>
     <row r="403" spans="2:9" x14ac:dyDescent="0.2">
@@ -27604,7 +27628,7 @@
         <v>431</v>
       </c>
       <c r="E403" s="14">
-        <f t="shared" si="34"/>
+        <f>IF(ISNUMBER($E402), $E402+1, 97000000000001)</f>
         <v>97000000000402</v>
       </c>
       <c r="F403" s="3" t="str">
@@ -27616,7 +27640,7 @@
         <v>Goods Identity</v>
       </c>
       <c r="I403" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.FixedAsset.MasterData.GoodsIdentity.Transaction', 'Goods Identity');</v>
       </c>
     </row>
@@ -27628,7 +27652,7 @@
         <v>1091</v>
       </c>
       <c r="E404" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000403</v>
       </c>
       <c r="F404" s="3" t="str">
@@ -27640,7 +27664,7 @@
         <v>Goods Identity Data Validation</v>
       </c>
       <c r="I404" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.FixedAsset.MasterData.GoodsIdentity.DataValidation', 'Goods Identity Data Validation');</v>
       </c>
     </row>
@@ -27652,7 +27676,7 @@
         <v>904</v>
       </c>
       <c r="E405" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000404</v>
       </c>
       <c r="F405" s="3" t="str">
@@ -27664,7 +27688,7 @@
         <v>Goods Identity Form</v>
       </c>
       <c r="I405" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.FixedAsset.MasterData.GoodsIdentity.Report.Form', 'Goods Identity Form');</v>
       </c>
     </row>
@@ -27676,7 +27700,7 @@
         <v>226</v>
       </c>
       <c r="E406" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000405</v>
       </c>
       <c r="F406" s="3" t="str">
@@ -27688,7 +27712,7 @@
         <v>Goods Identity Data List</v>
       </c>
       <c r="I406" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.FixedAsset.MasterData.GoodsIdentity.Report.DataList', 'Goods Identity Data List');</v>
       </c>
     </row>
@@ -27700,7 +27724,7 @@
         <v>316</v>
       </c>
       <c r="E407" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000406</v>
       </c>
       <c r="F407" s="3" t="str">
@@ -27712,7 +27736,7 @@
         <v>Business Trip Accommodation Arrangements Type</v>
       </c>
       <c r="I407" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.BusinessTripAccommodationArrangementsType.Transaction', 'Business Trip Accommodation Arrangements Type');</v>
       </c>
     </row>
@@ -27724,19 +27748,19 @@
         <v>1093</v>
       </c>
       <c r="E408" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000407</v>
       </c>
       <c r="F408" s="3" t="str">
-        <f t="shared" ref="F408:F471" si="35">IF(EXACT(B408, ""), "", B408)</f>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripAccommodationArrangementsType.DataValidation</v>
       </c>
       <c r="G408" s="3" t="str">
-        <f t="shared" ref="G408:G471" si="36">IF(EXACT(C408, ""), "", C408)</f>
+        <f t="shared" si="28"/>
         <v>Business Trip Accommodation Arrangements Type Data Validation</v>
       </c>
       <c r="I408" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="I408:I471" si="29">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B408, ""),"null", CONCATENATE("'", $F408, "'")), ", ", IF(EXACT($B408, ""), "null", CONCATENATE("'", $G408, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.BusinessTripAccommodationArrangementsType.DataValidation', 'Business Trip Accommodation Arrangements Type Data Validation');</v>
       </c>
     </row>
@@ -27748,15 +27772,15 @@
         <v>906</v>
       </c>
       <c r="E409" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000408</v>
       </c>
       <c r="F409" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripAccommodationArrangementsType.Report.Form</v>
       </c>
       <c r="G409" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Accommodation Arrangements Type Form</v>
       </c>
       <c r="I409" s="15" t="str">
@@ -27772,15 +27796,15 @@
         <v>317</v>
       </c>
       <c r="E410" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000409</v>
       </c>
       <c r="F410" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripAccommodationArrangementsType.Report.DataList</v>
       </c>
       <c r="G410" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Accommodation Arrangements Type Data List</v>
       </c>
       <c r="I410" s="15" t="str">
@@ -27796,15 +27820,15 @@
         <v>320</v>
       </c>
       <c r="E411" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000410</v>
       </c>
       <c r="F411" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripCostComponent.Transaction</v>
       </c>
       <c r="G411" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Cost Component</v>
       </c>
       <c r="I411" s="15" t="str">
@@ -27820,15 +27844,15 @@
         <v>1095</v>
       </c>
       <c r="E412" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000411</v>
       </c>
       <c r="F412" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripCostComponent.Report.DataValidation</v>
       </c>
       <c r="G412" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Cost Component Data Validation</v>
       </c>
       <c r="I412" s="15" t="str">
@@ -27844,15 +27868,15 @@
         <v>908</v>
       </c>
       <c r="E413" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000412</v>
       </c>
       <c r="F413" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripCostComponent.Report.Form</v>
       </c>
       <c r="G413" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Cost Component Form</v>
       </c>
       <c r="I413" s="15" t="str">
@@ -27868,15 +27892,15 @@
         <v>321</v>
       </c>
       <c r="E414" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000413</v>
       </c>
       <c r="F414" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripCostComponent.Report.DataList</v>
       </c>
       <c r="G414" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Cost Component Data List</v>
       </c>
       <c r="I414" s="15" t="str">
@@ -27892,15 +27916,15 @@
         <v>324</v>
       </c>
       <c r="E415" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000414</v>
       </c>
       <c r="F415" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationCostType.Transaction</v>
       </c>
       <c r="G415" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Cost Type</v>
       </c>
       <c r="I415" s="15" t="str">
@@ -27916,15 +27940,15 @@
         <v>1097</v>
       </c>
       <c r="E416" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000415</v>
       </c>
       <c r="F416" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationCostType.DataValidation</v>
       </c>
       <c r="G416" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Cost Type Data Validation</v>
       </c>
       <c r="I416" s="15" t="str">
@@ -27940,15 +27964,15 @@
         <v>910</v>
       </c>
       <c r="E417" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000416</v>
       </c>
       <c r="F417" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationCostType.Report.Form</v>
       </c>
       <c r="G417" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Cost Type Form</v>
       </c>
       <c r="I417" s="15" t="str">
@@ -27964,15 +27988,15 @@
         <v>325</v>
       </c>
       <c r="E418" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000417</v>
       </c>
       <c r="F418" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationCostType.Report.DataList</v>
       </c>
       <c r="G418" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Cost Type Data List</v>
       </c>
       <c r="I418" s="15" t="str">
@@ -27988,15 +28012,15 @@
         <v>328</v>
       </c>
       <c r="E419" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000418</v>
       </c>
       <c r="F419" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationCostTypeComponent.Transaction</v>
       </c>
       <c r="G419" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Cost Type Component</v>
       </c>
       <c r="I419" s="15" t="str">
@@ -28012,15 +28036,15 @@
         <v>1099</v>
       </c>
       <c r="E420" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000419</v>
       </c>
       <c r="F420" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationCostTypeComponent.DataValidation</v>
       </c>
       <c r="G420" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Cost Type Component Data Validation</v>
       </c>
       <c r="I420" s="15" t="str">
@@ -28036,15 +28060,15 @@
         <v>912</v>
       </c>
       <c r="E421" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000420</v>
       </c>
       <c r="F421" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationCostTypeComponent.Report.Form</v>
       </c>
       <c r="G421" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Cost Type Component Form</v>
       </c>
       <c r="I421" s="15" t="str">
@@ -28060,15 +28084,15 @@
         <v>329</v>
       </c>
       <c r="E422" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000421</v>
       </c>
       <c r="F422" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationCostTypeComponent.Report.DataList</v>
       </c>
       <c r="G422" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Cost Type Component Data List</v>
       </c>
       <c r="I422" s="15" t="str">
@@ -28084,15 +28108,15 @@
         <v>332</v>
       </c>
       <c r="E423" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000422</v>
       </c>
       <c r="F423" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationType.Transaction</v>
       </c>
       <c r="G423" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Type</v>
       </c>
       <c r="I423" s="15" t="str">
@@ -28108,15 +28132,15 @@
         <v>1101</v>
       </c>
       <c r="E424" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000423</v>
       </c>
       <c r="F424" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationType.DataValidation</v>
       </c>
       <c r="G424" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Type Data Validation</v>
       </c>
       <c r="I424" s="15" t="str">
@@ -28132,15 +28156,15 @@
         <v>914</v>
       </c>
       <c r="E425" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000424</v>
       </c>
       <c r="F425" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationType.Report.Form</v>
       </c>
       <c r="G425" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Type Form</v>
       </c>
       <c r="I425" s="15" t="str">
@@ -28156,15 +28180,15 @@
         <v>333</v>
       </c>
       <c r="E426" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000425</v>
       </c>
       <c r="F426" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.BusinessTripTransportationType.Report.DataList</v>
       </c>
       <c r="G426" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Business Trip Transportation Type Data List</v>
       </c>
       <c r="I426" s="15" t="str">
@@ -28180,19 +28204,19 @@
         <v>336</v>
       </c>
       <c r="E427" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000426</v>
       </c>
       <c r="F427" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.OrganizationalDepartment.Transaction</v>
       </c>
       <c r="G427" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Organizational Department</v>
       </c>
       <c r="I427" s="15" t="str">
-        <f t="shared" ref="I427:I490" si="37">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B427, ""),"null", CONCATENATE("'", $F427, "'")), ", ", IF(EXACT($B427, ""), "null", CONCATENATE("'", $G427, "'")), ");")</f>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.OrganizationalDepartment.Transaction', 'Organizational Department');</v>
       </c>
     </row>
@@ -28204,19 +28228,19 @@
         <v>1103</v>
       </c>
       <c r="E428" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000427</v>
       </c>
       <c r="F428" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.OrganizationalDepartment.DataValidation</v>
       </c>
       <c r="G428" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Organizational Department Data Validation</v>
       </c>
       <c r="I428" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.OrganizationalDepartment.DataValidation', 'Organizational Department Data Validation');</v>
       </c>
     </row>
@@ -28228,19 +28252,19 @@
         <v>916</v>
       </c>
       <c r="E429" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000428</v>
       </c>
       <c r="F429" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.OrganizationalDepartment.Report.Form</v>
       </c>
       <c r="G429" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Organizational Department Form</v>
       </c>
       <c r="I429" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.OrganizationalDepartment.Report.Form', 'Organizational Department Form');</v>
       </c>
     </row>
@@ -28252,19 +28276,19 @@
         <v>337</v>
       </c>
       <c r="E430" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000429</v>
       </c>
       <c r="F430" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.OrganizationalDepartment.Report.DataList</v>
       </c>
       <c r="G430" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Organizational Department Data List</v>
       </c>
       <c r="I430" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.OrganizationalDepartment.Report.DataList', 'Organizational Department Data List');</v>
       </c>
     </row>
@@ -28276,19 +28300,19 @@
         <v>340</v>
       </c>
       <c r="E431" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000430</v>
       </c>
       <c r="F431" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.OrganizationalJobPosition.Transaction</v>
       </c>
       <c r="G431" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Organizational Job Position</v>
       </c>
       <c r="I431" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.OrganizationalJobPosition.Transaction', 'Organizational Job Position');</v>
       </c>
     </row>
@@ -28300,19 +28324,19 @@
         <v>1105</v>
       </c>
       <c r="E432" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000431</v>
       </c>
       <c r="F432" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.OrganizationalJobPosition.DataValidation</v>
       </c>
       <c r="G432" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Organizational Job Position Data Validation</v>
       </c>
       <c r="I432" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.OrganizationalJobPosition.DataValidation', 'Organizational Job Position Data Validation');</v>
       </c>
     </row>
@@ -28324,19 +28348,19 @@
         <v>918</v>
       </c>
       <c r="E433" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000432</v>
       </c>
       <c r="F433" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.OrganizationalJobPosition.Report.Form</v>
       </c>
       <c r="G433" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Organizational Job Position Form</v>
       </c>
       <c r="I433" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.OrganizationalJobPosition.Report.Form', 'Organizational Job Position Form');</v>
       </c>
     </row>
@@ -28348,19 +28372,19 @@
         <v>341</v>
       </c>
       <c r="E434" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000433</v>
       </c>
       <c r="F434" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.OrganizationalJobPosition.Report.DataList</v>
       </c>
       <c r="G434" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Organizational Job Position Data List</v>
       </c>
       <c r="I434" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.OrganizationalJobPosition.Report.DataList', 'Organizational Job Position Data List');</v>
       </c>
     </row>
@@ -28372,19 +28396,19 @@
         <v>386</v>
       </c>
       <c r="E435" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000434</v>
       </c>
       <c r="F435" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkAbsencePermit.Transaction</v>
       </c>
       <c r="G435" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Absence Permit</v>
       </c>
       <c r="I435" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkAbsencePermit.Transaction', 'Work Absence Permit');</v>
       </c>
     </row>
@@ -28396,19 +28420,19 @@
         <v>1107</v>
       </c>
       <c r="E436" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000435</v>
       </c>
       <c r="F436" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkAbsencePermit.DataValidation</v>
       </c>
       <c r="G436" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Absence Permit Data Validation</v>
       </c>
       <c r="I436" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkAbsencePermit.DataValidation', 'Work Absence Permit Data Validation');</v>
       </c>
     </row>
@@ -28420,19 +28444,19 @@
         <v>920</v>
       </c>
       <c r="E437" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000436</v>
       </c>
       <c r="F437" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkAbsencePermit.Report.Form</v>
       </c>
       <c r="G437" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Absence Permit Form</v>
       </c>
       <c r="I437" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkAbsencePermit.Report.Form', 'Work Absence Permit Form');</v>
       </c>
     </row>
@@ -28444,19 +28468,19 @@
         <v>387</v>
       </c>
       <c r="E438" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000437</v>
       </c>
       <c r="F438" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkAbsencePermit.Report.DataList</v>
       </c>
       <c r="G438" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Absence Permit Data List</v>
       </c>
       <c r="I438" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkAbsencePermit.Report.DataList', 'Work Absence Permit Data List');</v>
       </c>
     </row>
@@ -28468,19 +28492,19 @@
         <v>390</v>
       </c>
       <c r="E439" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000438</v>
       </c>
       <c r="F439" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkAbsencePermitType.Transaction</v>
       </c>
       <c r="G439" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Absence Permit Type</v>
       </c>
       <c r="I439" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkAbsencePermitType.Transaction', 'Work Absence Permit Type');</v>
       </c>
     </row>
@@ -28492,19 +28516,19 @@
         <v>1109</v>
       </c>
       <c r="E440" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000439</v>
       </c>
       <c r="F440" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkAbsencePermitType.DataValidation</v>
       </c>
       <c r="G440" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Absence Permit Type Data Validation</v>
       </c>
       <c r="I440" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkAbsencePermitType.DataValidation', 'Work Absence Permit Type Data Validation');</v>
       </c>
     </row>
@@ -28516,19 +28540,19 @@
         <v>922</v>
       </c>
       <c r="E441" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000440</v>
       </c>
       <c r="F441" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkAbsencePermitType.Report.Form</v>
       </c>
       <c r="G441" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Absence Permit Type Form</v>
       </c>
       <c r="I441" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkAbsencePermitType.Report.Form', 'Work Absence Permit Type Form');</v>
       </c>
     </row>
@@ -28540,19 +28564,19 @@
         <v>391</v>
       </c>
       <c r="E442" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000441</v>
       </c>
       <c r="F442" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkAbsencePermitType.Report.DataList</v>
       </c>
       <c r="G442" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Absence Permit Type Data List</v>
       </c>
       <c r="I442" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkAbsencePermitType.Report.DataList', 'Work Absence Permit Type Data List');</v>
       </c>
     </row>
@@ -28564,19 +28588,19 @@
         <v>394</v>
       </c>
       <c r="E443" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000442</v>
       </c>
       <c r="F443" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkArriveDepartPermit.Transaction</v>
       </c>
       <c r="G443" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Arrive Depart Permit</v>
       </c>
       <c r="I443" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkArriveDepartPermit.Transaction', 'Work Arrive Depart Permit');</v>
       </c>
     </row>
@@ -28588,19 +28612,19 @@
         <v>1111</v>
       </c>
       <c r="E444" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000443</v>
       </c>
       <c r="F444" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkArriveDepartPermit.DataValidation</v>
       </c>
       <c r="G444" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Arrive Depart Permit Data Validation</v>
       </c>
       <c r="I444" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkArriveDepartPermit.DataValidation', 'Work Arrive Depart Permit Data Validation');</v>
       </c>
     </row>
@@ -28612,19 +28636,19 @@
         <v>924</v>
       </c>
       <c r="E445" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000444</v>
       </c>
       <c r="F445" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkArriveDepartPermit.Report.Form</v>
       </c>
       <c r="G445" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Arrive Depart Permit Form</v>
       </c>
       <c r="I445" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkArriveDepartPermit.Report.Form', 'Work Arrive Depart Permit Form');</v>
       </c>
     </row>
@@ -28636,19 +28660,19 @@
         <v>395</v>
       </c>
       <c r="E446" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000445</v>
       </c>
       <c r="F446" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkArriveDepartPermit.Report.DataList</v>
       </c>
       <c r="G446" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Arrive Depart Permit Data List</v>
       </c>
       <c r="I446" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkArriveDepartPermit.Report.DataList', 'Work Arrive Depart Permit Data List');</v>
       </c>
     </row>
@@ -28660,19 +28684,19 @@
         <v>398</v>
       </c>
       <c r="E447" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000446</v>
       </c>
       <c r="F447" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkDay.Transaction</v>
       </c>
       <c r="G447" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Day</v>
       </c>
       <c r="I447" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkDay.Transaction', 'Work Day');</v>
       </c>
     </row>
@@ -28684,19 +28708,19 @@
         <v>1113</v>
       </c>
       <c r="E448" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000447</v>
       </c>
       <c r="F448" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkDay.DataValidation</v>
       </c>
       <c r="G448" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Day Data Validation</v>
       </c>
       <c r="I448" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkDay.DataValidation', 'Work Day Data Validation');</v>
       </c>
     </row>
@@ -28708,19 +28732,19 @@
         <v>926</v>
       </c>
       <c r="E449" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000448</v>
       </c>
       <c r="F449" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkDay.Report.Form</v>
       </c>
       <c r="G449" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Day Form</v>
       </c>
       <c r="I449" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkDay.Report.Form', 'Work Day Form');</v>
       </c>
     </row>
@@ -28732,19 +28756,19 @@
         <v>399</v>
       </c>
       <c r="E450" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>97000000000449</v>
       </c>
       <c r="F450" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkDay.Report.DataList</v>
       </c>
       <c r="G450" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Day Data List</v>
       </c>
       <c r="I450" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkDay.Report.DataList', 'Work Day Data List');</v>
       </c>
     </row>
@@ -28756,19 +28780,19 @@
         <v>402</v>
       </c>
       <c r="E451" s="14">
-        <f t="shared" ref="E451:E514" si="38">IF(ISNUMBER($E450), $E450+1, 97000000000001)</f>
+        <f t="shared" ref="E451:E514" si="30">IF(ISNUMBER($E450), $E450+1, 97000000000001)</f>
         <v>97000000000450</v>
       </c>
       <c r="F451" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkTimeAssignation.Transaction</v>
       </c>
       <c r="G451" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Time Assignation</v>
       </c>
       <c r="I451" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeAssignation.Transaction', 'Work Time Assignation');</v>
       </c>
     </row>
@@ -28780,19 +28804,19 @@
         <v>1115</v>
       </c>
       <c r="E452" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000451</v>
       </c>
       <c r="F452" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>Module.HumanResource.MasterData.WorkTimeAssignation.DataValidation</v>
       </c>
       <c r="G452" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>Work Time Assignation Data Validation</v>
       </c>
       <c r="I452" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeAssignation.DataValidation', 'Work Time Assignation Data Validation');</v>
       </c>
     </row>
@@ -28804,19 +28828,19 @@
         <v>928</v>
       </c>
       <c r="E453" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000452</v>
       </c>
       <c r="F453" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="F453:F516" si="31">IF(EXACT(B453, ""), "", B453)</f>
         <v>Module.HumanResource.MasterData.WorkTimeAssignation.Report.Form</v>
       </c>
       <c r="G453" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="G453:G516" si="32">IF(EXACT(C453, ""), "", C453)</f>
         <v>Work Time Assignation Form</v>
       </c>
       <c r="I453" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeAssignation.Report.Form', 'Work Time Assignation Form');</v>
       </c>
     </row>
@@ -28828,19 +28852,19 @@
         <v>403</v>
       </c>
       <c r="E454" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000453</v>
       </c>
       <c r="F454" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkTimeAssignation.Report.DataList</v>
       </c>
       <c r="G454" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Time Assignation Data List</v>
       </c>
       <c r="I454" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeAssignation.Report.DataList', 'Work Time Assignation Data List');</v>
       </c>
     </row>
@@ -28852,19 +28876,19 @@
         <v>406</v>
       </c>
       <c r="E455" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000454</v>
       </c>
       <c r="F455" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkTimeEpoch.Transaction</v>
       </c>
       <c r="G455" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Time Epoch</v>
       </c>
       <c r="I455" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeEpoch.Transaction', 'Work Time Epoch');</v>
       </c>
     </row>
@@ -28876,19 +28900,19 @@
         <v>1117</v>
       </c>
       <c r="E456" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000455</v>
       </c>
       <c r="F456" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkTimeEpoch.DataValidation</v>
       </c>
       <c r="G456" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Time Epoch Data Validation</v>
       </c>
       <c r="I456" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeEpoch.DataValidation', 'Work Time Epoch Data Validation');</v>
       </c>
     </row>
@@ -28900,19 +28924,19 @@
         <v>930</v>
       </c>
       <c r="E457" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000456</v>
       </c>
       <c r="F457" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkTimeEpoch.Report.Form</v>
       </c>
       <c r="G457" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Time Epoch Form</v>
       </c>
       <c r="I457" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeEpoch.Report.Form', 'Work Time Epoch Form');</v>
       </c>
     </row>
@@ -28924,19 +28948,19 @@
         <v>407</v>
       </c>
       <c r="E458" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000457</v>
       </c>
       <c r="F458" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkTimeEpoch.Report.DataList</v>
       </c>
       <c r="G458" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Time Epoch Data List</v>
       </c>
       <c r="I458" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeEpoch.Report.DataList', 'Work Time Epoch Data List');</v>
       </c>
     </row>
@@ -28948,19 +28972,19 @@
         <v>410</v>
       </c>
       <c r="E459" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000458</v>
       </c>
       <c r="F459" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkTimeSchedule.Transaction</v>
       </c>
       <c r="G459" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Time Schedule</v>
       </c>
       <c r="I459" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeSchedule.Transaction', 'Work Time Schedule');</v>
       </c>
     </row>
@@ -28972,19 +28996,19 @@
         <v>1119</v>
       </c>
       <c r="E460" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000459</v>
       </c>
       <c r="F460" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkTimeSchedule.DataValidation</v>
       </c>
       <c r="G460" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Time Schedule Data Validation</v>
       </c>
       <c r="I460" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeSchedule.DataValidation', 'Work Time Schedule Data Validation');</v>
       </c>
     </row>
@@ -28996,19 +29020,19 @@
         <v>932</v>
       </c>
       <c r="E461" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000460</v>
       </c>
       <c r="F461" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkTimeSchedule.Report.Form</v>
       </c>
       <c r="G461" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Time Schedule Form</v>
       </c>
       <c r="I461" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeSchedule.Report.Form', 'Work Time Schedule Form');</v>
       </c>
     </row>
@@ -29020,19 +29044,19 @@
         <v>411</v>
       </c>
       <c r="E462" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000461</v>
       </c>
       <c r="F462" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkTimeSchedule.Report.DataList</v>
       </c>
       <c r="G462" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Time Schedule Data List</v>
       </c>
       <c r="I462" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkTimeSchedule.Report.DataList', 'Work Time Schedule Data List');</v>
       </c>
     </row>
@@ -29044,19 +29068,19 @@
         <v>458</v>
       </c>
       <c r="E463" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000462</v>
       </c>
       <c r="F463" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkType.Transaction</v>
       </c>
       <c r="G463" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Type</v>
       </c>
       <c r="I463" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkType.Transaction', 'Work Type');</v>
       </c>
     </row>
@@ -29068,19 +29092,19 @@
         <v>1121</v>
       </c>
       <c r="E464" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000463</v>
       </c>
       <c r="F464" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkType.DataValidation</v>
       </c>
       <c r="G464" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Type Data Validation</v>
       </c>
       <c r="I464" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkType.DataValidation', 'Work Type Data Validation');</v>
       </c>
     </row>
@@ -29092,19 +29116,19 @@
         <v>934</v>
       </c>
       <c r="E465" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000464</v>
       </c>
       <c r="F465" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkType.Report.Form</v>
       </c>
       <c r="G465" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Type Form</v>
       </c>
       <c r="I465" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkType.Report.Form', 'Work Type Form');</v>
       </c>
     </row>
@@ -29116,19 +29140,19 @@
         <v>459</v>
       </c>
       <c r="E466" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000465</v>
       </c>
       <c r="F466" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.MasterData.WorkType.Report.DataList</v>
       </c>
       <c r="G466" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Work Type Data List</v>
       </c>
       <c r="I466" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.MasterData.WorkType.Report.DataList', 'Work Type Data List');</v>
       </c>
     </row>
@@ -29140,19 +29164,19 @@
         <v>425</v>
       </c>
       <c r="E467" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000466</v>
       </c>
       <c r="F467" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTrip.Transaction</v>
       </c>
       <c r="G467" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip</v>
       </c>
       <c r="I467" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTrip.Transaction', 'Person Business Trip');</v>
       </c>
     </row>
@@ -29164,19 +29188,19 @@
         <v>342</v>
       </c>
       <c r="E468" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000467</v>
       </c>
       <c r="F468" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTrip.Report.Form</v>
       </c>
       <c r="G468" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Form</v>
       </c>
       <c r="I468" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTrip.Report.Form', 'Person Business Trip Form');</v>
       </c>
     </row>
@@ -29188,19 +29212,19 @@
         <v>343</v>
       </c>
       <c r="E469" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000468</v>
       </c>
       <c r="F469" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTrip.Report.DataList</v>
       </c>
       <c r="G469" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Data List</v>
       </c>
       <c r="I469" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTrip.Report.DataList', 'Person Business Trip Data List');</v>
       </c>
     </row>
@@ -29212,19 +29236,19 @@
         <v>344</v>
       </c>
       <c r="E470" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000469</v>
       </c>
       <c r="F470" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTrip.Report.Resume</v>
       </c>
       <c r="G470" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Resume</v>
       </c>
       <c r="I470" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTrip.Report.Resume', 'Person Business Trip Resume');</v>
       </c>
     </row>
@@ -29236,19 +29260,19 @@
         <v>1135</v>
       </c>
       <c r="E471" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000470</v>
       </c>
       <c r="F471" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTripPayment.Transaction</v>
       </c>
       <c r="G471" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Payment</v>
       </c>
       <c r="I471" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTripPayment.Transaction', 'Person Business Trip Payment');</v>
       </c>
     </row>
@@ -29260,19 +29284,19 @@
         <v>1134</v>
       </c>
       <c r="E472" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000471</v>
       </c>
       <c r="F472" s="3" t="str">
-        <f t="shared" ref="F472:F543" si="39">IF(EXACT(B472, ""), "", B472)</f>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTripPayment.Report.Form</v>
       </c>
       <c r="G472" s="3" t="str">
-        <f t="shared" ref="G472:G543" si="40">IF(EXACT(C472, ""), "", C472)</f>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Payment Form</v>
       </c>
       <c r="I472" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="I472:I535" si="33">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B472, ""),"null", CONCATENATE("'", $F472, "'")), ", ", IF(EXACT($B472, ""), "null", CONCATENATE("'", $G472, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTripPayment.Report.Form', 'Person Business Trip Payment Form');</v>
       </c>
     </row>
@@ -29284,19 +29308,19 @@
         <v>1133</v>
       </c>
       <c r="E473" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000472</v>
       </c>
       <c r="F473" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTripPayment.Report.DataList</v>
       </c>
       <c r="G473" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Payment Data List</v>
       </c>
       <c r="I473" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTripPayment.Report.DataList', 'Person Business Trip Payment Data List');</v>
       </c>
     </row>
@@ -29308,19 +29332,19 @@
         <v>1132</v>
       </c>
       <c r="E474" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000473</v>
       </c>
       <c r="F474" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTripPayment.Report.Resume</v>
       </c>
       <c r="G474" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Payment Resume</v>
       </c>
       <c r="I474" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTripPayment.Report.Resume', 'Person Business Trip Payment Resume');</v>
       </c>
     </row>
@@ -29332,19 +29356,19 @@
         <v>1136</v>
       </c>
       <c r="E475" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000474</v>
       </c>
       <c r="F475" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTripSettlement.Transaction</v>
       </c>
       <c r="G475" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Settlement</v>
       </c>
       <c r="I475" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTripSettlement.Transaction', 'Person Business Trip Settlement');</v>
       </c>
     </row>
@@ -29356,19 +29380,19 @@
         <v>1137</v>
       </c>
       <c r="E476" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000475</v>
       </c>
       <c r="F476" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTripSettlement.Report.Form</v>
       </c>
       <c r="G476" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Settlement Form</v>
       </c>
       <c r="I476" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTripSettlement.Report.Form', 'Person Business Trip Settlement Form');</v>
       </c>
     </row>
@@ -29380,19 +29404,19 @@
         <v>1138</v>
       </c>
       <c r="E477" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000476</v>
       </c>
       <c r="F477" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTripSettlement.Report.DataList</v>
       </c>
       <c r="G477" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Settlement Data List</v>
       </c>
       <c r="I477" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTripSettlement.Report.DataList', 'Person Business Trip Settlement Data List');</v>
       </c>
     </row>
@@ -29404,19 +29428,19 @@
         <v>1139</v>
       </c>
       <c r="E478" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000477</v>
       </c>
       <c r="F478" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonBusinessTripSettlement.Report.Resume</v>
       </c>
       <c r="G478" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Business Trip Settlement Resume</v>
       </c>
       <c r="I478" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonBusinessTripSettlement.Report.Resume', 'Person Business Trip Settlement Resume');</v>
       </c>
     </row>
@@ -29428,19 +29452,19 @@
         <v>424</v>
       </c>
       <c r="E479" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000478</v>
       </c>
       <c r="F479" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.DataPersonWorkAbsencePermitTransaction</v>
       </c>
       <c r="G479" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Absence Permit</v>
       </c>
       <c r="I479" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.DataPersonWorkAbsencePermitTransaction', 'Person Work Absence Permit');</v>
       </c>
     </row>
@@ -29452,19 +29476,19 @@
         <v>353</v>
       </c>
       <c r="E480" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000479</v>
       </c>
       <c r="F480" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.DataPersonWorkAbsencePermitReport.Form</v>
       </c>
       <c r="G480" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Absence Permit Form</v>
       </c>
       <c r="I480" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.DataPersonWorkAbsencePermitReport.Form', 'Person Work Absence Permit Form');</v>
       </c>
     </row>
@@ -29476,19 +29500,19 @@
         <v>354</v>
       </c>
       <c r="E481" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000480</v>
       </c>
       <c r="F481" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.DataPersonWorkAbsencePermitReport.DataList</v>
       </c>
       <c r="G481" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Absence Permit Data List</v>
       </c>
       <c r="I481" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.DataPersonWorkAbsencePermitReport.DataList', 'Person Work Absence Permit Data List');</v>
       </c>
     </row>
@@ -29500,19 +29524,19 @@
         <v>355</v>
       </c>
       <c r="E482" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000481</v>
       </c>
       <c r="F482" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.DataPersonWorkAbsencePermitReport.Resume</v>
       </c>
       <c r="G482" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Absence Permit Resume</v>
       </c>
       <c r="I482" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.DataPersonWorkAbsencePermitReport.Resume', 'Person Work Absence Permit Resume');</v>
       </c>
     </row>
@@ -29524,19 +29548,19 @@
         <v>423</v>
       </c>
       <c r="E483" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000482</v>
       </c>
       <c r="F483" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkAbsenceReplacement.Transaction</v>
       </c>
       <c r="G483" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Absence Replacement</v>
       </c>
       <c r="I483" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkAbsenceReplacement.Transaction', 'Person Work Absence Replacement');</v>
       </c>
     </row>
@@ -29548,19 +29572,19 @@
         <v>360</v>
       </c>
       <c r="E484" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000483</v>
       </c>
       <c r="F484" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkAbsenceReplacement.Report.Form</v>
       </c>
       <c r="G484" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Absence Replacement Form</v>
       </c>
       <c r="I484" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkAbsenceReplacement.Report.Form', 'Person Work Absence Replacement Form');</v>
       </c>
     </row>
@@ -29572,19 +29596,19 @@
         <v>361</v>
       </c>
       <c r="E485" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000484</v>
       </c>
       <c r="F485" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkAbsenceReplacement.Report.DataList</v>
       </c>
       <c r="G485" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Absence Replacement Data List</v>
       </c>
       <c r="I485" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkAbsenceReplacement.Report.DataList', 'Person Work Absence Replacement Data List');</v>
       </c>
     </row>
@@ -29596,19 +29620,19 @@
         <v>362</v>
       </c>
       <c r="E486" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000485</v>
       </c>
       <c r="F486" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkAbsenceReplacement.Report.Resume</v>
       </c>
       <c r="G486" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Absence Replacement Resume</v>
       </c>
       <c r="I486" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkAbsenceReplacement.Report.Resume', 'Person Work Absence Replacement Resume');</v>
       </c>
     </row>
@@ -29620,19 +29644,19 @@
         <v>422</v>
       </c>
       <c r="E487" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000486</v>
       </c>
       <c r="F487" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkArriveDepartPermit.Transaction</v>
       </c>
       <c r="G487" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Arrive Depart Permit</v>
       </c>
       <c r="I487" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkArriveDepartPermit.Transaction', 'Person Work Arrive Depart Permit');</v>
       </c>
     </row>
@@ -29644,19 +29668,19 @@
         <v>367</v>
       </c>
       <c r="E488" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000487</v>
       </c>
       <c r="F488" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkArriveDepartPermit.Report.Form</v>
       </c>
       <c r="G488" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Arrive Depart Permit Form</v>
       </c>
       <c r="I488" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkArriveDepartPermit.Report.Form', 'Person Work Arrive Depart Permit Form');</v>
       </c>
     </row>
@@ -29668,19 +29692,19 @@
         <v>368</v>
       </c>
       <c r="E489" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000488</v>
       </c>
       <c r="F489" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkArriveDepartPermit.Report.DataList</v>
       </c>
       <c r="G489" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Arrive Depart Permit Data List</v>
       </c>
       <c r="I489" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkArriveDepartPermit.Report.DataList', 'Person Work Arrive Depart Permit Data List');</v>
       </c>
     </row>
@@ -29692,19 +29716,19 @@
         <v>369</v>
       </c>
       <c r="E490" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000489</v>
       </c>
       <c r="F490" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkArriveDepartPermit.Report.Resume</v>
       </c>
       <c r="G490" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Arrive Depart Permit Resume</v>
       </c>
       <c r="I490" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkArriveDepartPermit.Report.Resume', 'Person Work Arrive Depart Permit Resume');</v>
       </c>
     </row>
@@ -29716,19 +29740,19 @@
         <v>421</v>
       </c>
       <c r="E491" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000490</v>
       </c>
       <c r="F491" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkTimeSheet.Transaction</v>
       </c>
       <c r="G491" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Time Sheet</v>
       </c>
       <c r="I491" s="15" t="str">
-        <f t="shared" ref="I491:I562" si="41">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B491, ""),"null", CONCATENATE("'", $F491, "'")), ", ", IF(EXACT($B491, ""), "null", CONCATENATE("'", $G491, "'")), ");")</f>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkTimeSheet.Transaction', 'Person Work Time Sheet');</v>
       </c>
     </row>
@@ -29740,19 +29764,19 @@
         <v>374</v>
       </c>
       <c r="E492" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000491</v>
       </c>
       <c r="F492" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkTimeSheet.Report.Form</v>
       </c>
       <c r="G492" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Time Sheet Form</v>
       </c>
       <c r="I492" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkTimeSheet.Report.Form', 'Person Work Time Sheet Form');</v>
       </c>
     </row>
@@ -29764,19 +29788,19 @@
         <v>375</v>
       </c>
       <c r="E493" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000492</v>
       </c>
       <c r="F493" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkTimeSheet.Report.DataList</v>
       </c>
       <c r="G493" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Time Sheet Data List</v>
       </c>
       <c r="I493" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkTimeSheet.Report.DataList', 'Person Work Time Sheet Data List');</v>
       </c>
     </row>
@@ -29788,19 +29812,19 @@
         <v>376</v>
       </c>
       <c r="E494" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000493</v>
       </c>
       <c r="F494" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkTimeSheet.Report.Resume</v>
       </c>
       <c r="G494" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Time Sheet Resume</v>
       </c>
       <c r="I494" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkTimeSheet.Report.Resume', 'Person Work Time Sheet Resume');</v>
       </c>
     </row>
@@ -29812,19 +29836,19 @@
         <v>420</v>
       </c>
       <c r="E495" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000494</v>
       </c>
       <c r="F495" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkTimeSheetActivity.Transaction</v>
       </c>
       <c r="G495" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Time Sheet Activity</v>
       </c>
       <c r="I495" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkTimeSheetActivity.Transaction', 'Person Work Time Sheet Activity');</v>
       </c>
     </row>
@@ -29836,19 +29860,19 @@
         <v>381</v>
       </c>
       <c r="E496" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000495</v>
       </c>
       <c r="F496" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkTimeSheetActivity.Report.Form</v>
       </c>
       <c r="G496" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Time Sheet Activity Form</v>
       </c>
       <c r="I496" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkTimeSheetActivity.Report.Form', 'Person Work Time Sheet Activity Form');</v>
       </c>
     </row>
@@ -29860,19 +29884,19 @@
         <v>382</v>
       </c>
       <c r="E497" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000496</v>
       </c>
       <c r="F497" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkTimeSheetActivity.Report.DataList</v>
       </c>
       <c r="G497" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Time Sheet Activity Data List</v>
       </c>
       <c r="I497" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkTimeSheetActivity.Report.DataList', 'Person Work Time Sheet Activity Data List');</v>
       </c>
     </row>
@@ -29884,19 +29908,19 @@
         <v>383</v>
       </c>
       <c r="E498" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000497</v>
       </c>
       <c r="F498" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.PersonWorkTimeSheetActivity.Report.Resume</v>
       </c>
       <c r="G498" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Person Work Time Sheet Activity Resume</v>
       </c>
       <c r="I498" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.PersonWorkTimeSheetActivity.Report.Resume', 'Person Work Time Sheet Activity Resume');</v>
       </c>
     </row>
@@ -29908,19 +29932,19 @@
         <v>416</v>
       </c>
       <c r="E499" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000498</v>
       </c>
       <c r="F499" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.Worker.Transaction</v>
       </c>
       <c r="G499" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker</v>
       </c>
       <c r="I499" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.Worker.Transaction', 'Worker');</v>
       </c>
     </row>
@@ -29932,19 +29956,19 @@
         <v>417</v>
       </c>
       <c r="E500" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000499</v>
       </c>
       <c r="F500" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.Worker.Report.Form</v>
       </c>
       <c r="G500" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Form</v>
       </c>
       <c r="I500" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.Worker.Report.Form', 'Worker Form');</v>
       </c>
     </row>
@@ -29956,19 +29980,19 @@
         <v>418</v>
       </c>
       <c r="E501" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000500</v>
       </c>
       <c r="F501" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.Worker.Report.DataList</v>
       </c>
       <c r="G501" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Data List</v>
       </c>
       <c r="I501" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.Worker.Report.DataList', 'Worker Data List');</v>
       </c>
     </row>
@@ -29980,19 +30004,19 @@
         <v>419</v>
       </c>
       <c r="E502" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000501</v>
       </c>
       <c r="F502" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.Worker.Report.Resume</v>
       </c>
       <c r="G502" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Resume</v>
       </c>
       <c r="I502" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.Worker.Report.Resume', 'Worker Resume');</v>
       </c>
     </row>
@@ -30004,19 +30028,19 @@
         <v>436</v>
       </c>
       <c r="E503" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000502</v>
       </c>
       <c r="F503" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternal.Transaction</v>
       </c>
       <c r="G503" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal</v>
       </c>
       <c r="I503" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternal.Transaction', 'Worker Career Internal');</v>
       </c>
     </row>
@@ -30028,19 +30052,19 @@
         <v>437</v>
       </c>
       <c r="E504" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000503</v>
       </c>
       <c r="F504" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternal.Report.Form</v>
       </c>
       <c r="G504" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Form</v>
       </c>
       <c r="I504" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternal.Report.Form', 'Worker Career Internal Form');</v>
       </c>
     </row>
@@ -30052,19 +30076,19 @@
         <v>438</v>
       </c>
       <c r="E505" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000504</v>
       </c>
       <c r="F505" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternal.Report.DataList</v>
       </c>
       <c r="G505" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Data List</v>
       </c>
       <c r="I505" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternal.Report.DataList', 'Worker Career Internal Data List');</v>
       </c>
     </row>
@@ -30076,19 +30100,19 @@
         <v>439</v>
       </c>
       <c r="E506" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000505</v>
       </c>
       <c r="F506" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternal.Report.Resume</v>
       </c>
       <c r="G506" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Resume</v>
       </c>
       <c r="I506" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternal.Report.Resume', 'Worker Career Internal Resume');</v>
       </c>
     </row>
@@ -30100,19 +30124,19 @@
         <v>448</v>
       </c>
       <c r="E507" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000506</v>
       </c>
       <c r="F507" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternalRoleAccess.Transaction</v>
       </c>
       <c r="G507" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Role Access</v>
       </c>
       <c r="I507" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternalRoleAccess.Transaction', 'Worker Career Internal Role Access');</v>
       </c>
     </row>
@@ -30124,19 +30148,19 @@
         <v>449</v>
       </c>
       <c r="E508" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000507</v>
       </c>
       <c r="F508" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternalRoleAccess.Report.Form</v>
       </c>
       <c r="G508" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Role Access Form</v>
       </c>
       <c r="I508" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternalRoleAccess.Report.Form', 'Worker Career Internal Role Access Form');</v>
       </c>
     </row>
@@ -30148,19 +30172,19 @@
         <v>450</v>
       </c>
       <c r="E509" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000508</v>
       </c>
       <c r="F509" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternalRoleAccess.Report.DataList</v>
       </c>
       <c r="G509" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Role Access Data List</v>
       </c>
       <c r="I509" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternalRoleAccess.Report.DataList', 'Worker Career Internal Role Access Data List');</v>
       </c>
     </row>
@@ -30172,19 +30196,19 @@
         <v>451</v>
       </c>
       <c r="E510" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000509</v>
       </c>
       <c r="F510" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternalRoleAccess.Report.Resume</v>
       </c>
       <c r="G510" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Role Access Resume</v>
       </c>
       <c r="I510" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternalRoleAccess.Report.Resume', 'Worker Career Internal Role Access Resume');</v>
       </c>
     </row>
@@ -30196,19 +30220,19 @@
         <v>452</v>
       </c>
       <c r="E511" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000510</v>
       </c>
       <c r="F511" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternalRoleDelegation.Transaction</v>
       </c>
       <c r="G511" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Role Delegation</v>
       </c>
       <c r="I511" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternalRoleDelegation.Transaction', 'Worker Career Internal Role Delegation');</v>
       </c>
     </row>
@@ -30220,19 +30244,19 @@
         <v>453</v>
       </c>
       <c r="E512" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000511</v>
       </c>
       <c r="F512" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternalRoleDelegation.Report.Form</v>
       </c>
       <c r="G512" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Role Delegation Form</v>
       </c>
       <c r="I512" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternalRoleDelegation.Report.Form', 'Worker Career Internal Role Delegation Form');</v>
       </c>
     </row>
@@ -30244,19 +30268,19 @@
         <v>454</v>
       </c>
       <c r="E513" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000512</v>
       </c>
       <c r="F513" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternalRoleDelegation.Report.DataList</v>
       </c>
       <c r="G513" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Role Delegation Data List</v>
       </c>
       <c r="I513" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternalRoleDelegation.Report.DataList', 'Worker Career Internal Role Delegation Data List');</v>
       </c>
     </row>
@@ -30268,19 +30292,19 @@
         <v>455</v>
       </c>
       <c r="E514" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>97000000000513</v>
       </c>
       <c r="F514" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerCareerInternalRoleDelegation.Report.Resume</v>
       </c>
       <c r="G514" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>Worker Career Internal Role Delegation Resume</v>
       </c>
       <c r="I514" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerCareerInternalRoleDelegation.Report.Resume', 'Worker Career Internal Role Delegation Resume');</v>
       </c>
     </row>
@@ -30292,19 +30316,19 @@
         <v>1309</v>
       </c>
       <c r="E515" s="14">
-        <f t="shared" ref="E515:E578" si="42">IF(ISNUMBER($E514), $E514+1, 97000000000001)</f>
+        <f t="shared" ref="E515:E578" si="34">IF(ISNUMBER($E514), $E514+1, 97000000000001)</f>
         <v>97000000000514</v>
       </c>
       <c r="F515" s="3" t="str">
-        <f>IF(EXACT(B515, ""), "", B515)</f>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerOvertime.Transaction</v>
       </c>
       <c r="G515" s="3" t="str">
-        <f>IF(EXACT(C515, ""), "", C515)</f>
+        <f t="shared" si="32"/>
         <v>Worker Overtime</v>
       </c>
       <c r="I515" s="15" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B515, ""),"null", CONCATENATE("'", $F515, "'")), ", ", IF(EXACT($B515, ""), "null", CONCATENATE("'", $G515, "'")), ");")</f>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerOvertime.Transaction', 'Worker Overtime');</v>
       </c>
     </row>
@@ -30316,19 +30340,19 @@
         <v>1302</v>
       </c>
       <c r="E516" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000515</v>
       </c>
       <c r="F516" s="3" t="str">
-        <f>IF(EXACT(B516, ""), "", B516)</f>
+        <f t="shared" si="31"/>
         <v>Module.HumanResource.Data.WorkerOvertime.Report.Form</v>
       </c>
       <c r="G516" s="3" t="str">
-        <f>IF(EXACT(C516, ""), "", C516)</f>
+        <f t="shared" si="32"/>
         <v>Worker Overtime Form</v>
       </c>
       <c r="I516" s="15" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B516, ""),"null", CONCATENATE("'", $F516, "'")), ", ", IF(EXACT($B516, ""), "null", CONCATENATE("'", $G516, "'")), ");")</f>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerOvertime.Report.Form', 'Worker Overtime Form');</v>
       </c>
     </row>
@@ -30340,19 +30364,19 @@
         <v>1303</v>
       </c>
       <c r="E517" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000516</v>
       </c>
       <c r="F517" s="3" t="str">
-        <f>IF(EXACT(B517, ""), "", B517)</f>
+        <f t="shared" ref="F517:F580" si="35">IF(EXACT(B517, ""), "", B517)</f>
         <v>Module.HumanResource.Data.WorkerOvertime.Report.DataList</v>
       </c>
       <c r="G517" s="3" t="str">
-        <f>IF(EXACT(C517, ""), "", C517)</f>
+        <f t="shared" ref="G517:G580" si="36">IF(EXACT(C517, ""), "", C517)</f>
         <v>Worker Overtime Data List</v>
       </c>
       <c r="I517" s="15" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B517, ""),"null", CONCATENATE("'", $F517, "'")), ", ", IF(EXACT($B517, ""), "null", CONCATENATE("'", $G517, "'")), ");")</f>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerOvertime.Report.DataList', 'Worker Overtime Data List');</v>
       </c>
     </row>
@@ -30364,19 +30388,19 @@
         <v>1304</v>
       </c>
       <c r="E518" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000517</v>
       </c>
       <c r="F518" s="3" t="str">
-        <f>IF(EXACT(B518, ""), "", B518)</f>
+        <f t="shared" si="35"/>
         <v>Module.HumanResource.Data.WorkerOvertime.Report.Resume</v>
       </c>
       <c r="G518" s="3" t="str">
-        <f>IF(EXACT(C518, ""), "", C518)</f>
+        <f t="shared" si="36"/>
         <v>Worker Overtime Resume</v>
       </c>
       <c r="I518" s="15" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B518, ""),"null", CONCATENATE("'", $F518, "'")), ", ", IF(EXACT($B518, ""), "null", CONCATENATE("'", $G518, "'")), ");")</f>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerOvertime.Report.Resume', 'Worker Overtime Resume');</v>
       </c>
     </row>
@@ -30388,19 +30412,19 @@
         <v>1308</v>
       </c>
       <c r="E519" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000518</v>
       </c>
       <c r="F519" s="3" t="str">
-        <f>IF(EXACT(B519, ""), "", B519)</f>
+        <f t="shared" si="35"/>
         <v>Module.HumanResource.Data.WorkerSalary.Transaction</v>
       </c>
       <c r="G519" s="3" t="str">
-        <f>IF(EXACT(C519, ""), "", C519)</f>
+        <f t="shared" si="36"/>
         <v>Worker Salary</v>
       </c>
       <c r="I519" s="15" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B519, ""),"null", CONCATENATE("'", $F519, "'")), ", ", IF(EXACT($B519, ""), "null", CONCATENATE("'", $G519, "'")), ");")</f>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerSalary.Transaction', 'Worker Salary');</v>
       </c>
     </row>
@@ -30412,19 +30436,19 @@
         <v>1305</v>
       </c>
       <c r="E520" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000519</v>
       </c>
       <c r="F520" s="3" t="str">
-        <f>IF(EXACT(B520, ""), "", B520)</f>
+        <f t="shared" si="35"/>
         <v>Module.HumanResource.Data.WorkerSalary.Report.Form</v>
       </c>
       <c r="G520" s="3" t="str">
-        <f>IF(EXACT(C520, ""), "", C520)</f>
+        <f t="shared" si="36"/>
         <v>Worker Salary Form</v>
       </c>
       <c r="I520" s="15" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B520, ""),"null", CONCATENATE("'", $F520, "'")), ", ", IF(EXACT($B520, ""), "null", CONCATENATE("'", $G520, "'")), ");")</f>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerSalary.Report.Form', 'Worker Salary Form');</v>
       </c>
     </row>
@@ -30436,19 +30460,19 @@
         <v>1306</v>
       </c>
       <c r="E521" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000520</v>
       </c>
       <c r="F521" s="3" t="str">
-        <f>IF(EXACT(B521, ""), "", B521)</f>
+        <f t="shared" si="35"/>
         <v>Module.HumanResource.Data.WorkerSalary.Report.DataList</v>
       </c>
       <c r="G521" s="3" t="str">
-        <f>IF(EXACT(C521, ""), "", C521)</f>
+        <f t="shared" si="36"/>
         <v>Worker Salary Data List</v>
       </c>
       <c r="I521" s="15" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B521, ""),"null", CONCATENATE("'", $F521, "'")), ", ", IF(EXACT($B521, ""), "null", CONCATENATE("'", $G521, "'")), ");")</f>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerSalary.Report.DataList', 'Worker Salary Data List');</v>
       </c>
     </row>
@@ -30460,19 +30484,19 @@
         <v>1307</v>
       </c>
       <c r="E522" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000521</v>
       </c>
       <c r="F522" s="3" t="str">
-        <f>IF(EXACT(B522, ""), "", B522)</f>
+        <f t="shared" si="35"/>
         <v>Module.HumanResource.Data.WorkerSalary.Report.Resume</v>
       </c>
       <c r="G522" s="3" t="str">
-        <f>IF(EXACT(C522, ""), "", C522)</f>
+        <f t="shared" si="36"/>
         <v>Worker Salary Resume</v>
       </c>
       <c r="I522" s="15" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B522, ""),"null", CONCATENATE("'", $F522, "'")), ", ", IF(EXACT($B522, ""), "null", CONCATENATE("'", $G522, "'")), ");")</f>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.HumanResource.Data.WorkerSalary.Report.Resume', 'Worker Salary Resume');</v>
       </c>
     </row>
@@ -30484,19 +30508,19 @@
         <v>464</v>
       </c>
       <c r="E523" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000522</v>
       </c>
       <c r="F523" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.BillOfMaterial.Transaction</v>
       </c>
       <c r="G523" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Bill Of Material</v>
       </c>
       <c r="I523" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.BillOfMaterial.Transaction', 'Bill Of Material');</v>
       </c>
     </row>
@@ -30508,19 +30532,19 @@
         <v>465</v>
       </c>
       <c r="E524" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000523</v>
       </c>
       <c r="F524" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.BillOfMaterial.Report.Form</v>
       </c>
       <c r="G524" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Bill Of Material Form</v>
       </c>
       <c r="I524" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.BillOfMaterial.Report.Form', 'Bill Of Material Form');</v>
       </c>
     </row>
@@ -30532,19 +30556,19 @@
         <v>466</v>
       </c>
       <c r="E525" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000524</v>
       </c>
       <c r="F525" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.BillOfMaterial.Report.DataList</v>
       </c>
       <c r="G525" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Bill Of Material Data List</v>
       </c>
       <c r="I525" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.BillOfMaterial.Report.DataList', 'Bill Of Material Data List');</v>
       </c>
     </row>
@@ -30556,19 +30580,19 @@
         <v>467</v>
       </c>
       <c r="E526" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000525</v>
       </c>
       <c r="F526" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.BillOfMaterial.Report.Resume</v>
       </c>
       <c r="G526" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Bill Of Material Resume</v>
       </c>
       <c r="I526" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.BillOfMaterial.Report.Resume', 'Bill Of Material Resume');</v>
       </c>
     </row>
@@ -30580,19 +30604,19 @@
         <v>472</v>
       </c>
       <c r="E527" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000526</v>
       </c>
       <c r="F527" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialProductAssembly.Transaction</v>
       </c>
       <c r="G527" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Product Assembly</v>
       </c>
       <c r="I527" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialProductAssembly.Transaction', 'Material Product Assembly');</v>
       </c>
     </row>
@@ -30604,19 +30628,19 @@
         <v>473</v>
       </c>
       <c r="E528" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000527</v>
       </c>
       <c r="F528" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialProductAssembly.Report.Form</v>
       </c>
       <c r="G528" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Product Assembly Form</v>
       </c>
       <c r="I528" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialProductAssembly.Report.Form', 'Material Product Assembly Form');</v>
       </c>
     </row>
@@ -30628,19 +30652,19 @@
         <v>474</v>
       </c>
       <c r="E529" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000528</v>
       </c>
       <c r="F529" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialProductAssembly.Report.DataList</v>
       </c>
       <c r="G529" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Product Assembly Data List</v>
       </c>
       <c r="I529" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialProductAssembly.Report.DataList', 'Material Product Assembly Data List');</v>
       </c>
     </row>
@@ -30652,19 +30676,19 @@
         <v>475</v>
       </c>
       <c r="E530" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000529</v>
       </c>
       <c r="F530" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialProductAssembly.Report.Resume</v>
       </c>
       <c r="G530" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Product Assembly Resume</v>
       </c>
       <c r="I530" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialProductAssembly.Report.Resume', 'Material Product Assembly Resume');</v>
       </c>
     </row>
@@ -30676,19 +30700,19 @@
         <v>476</v>
       </c>
       <c r="E531" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000530</v>
       </c>
       <c r="F531" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialProductComponent.Transaction</v>
       </c>
       <c r="G531" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Product Component</v>
       </c>
       <c r="I531" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialProductComponent.Transaction', 'Material Product Component');</v>
       </c>
     </row>
@@ -30700,19 +30724,19 @@
         <v>477</v>
       </c>
       <c r="E532" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000531</v>
       </c>
       <c r="F532" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialProductComponent.Report.Form</v>
       </c>
       <c r="G532" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Product Component Form</v>
       </c>
       <c r="I532" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialProductComponent.Report.Form', 'Material Product Component Form');</v>
       </c>
     </row>
@@ -30724,19 +30748,19 @@
         <v>478</v>
       </c>
       <c r="E533" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000532</v>
       </c>
       <c r="F533" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialProductComponent.Report.DataList</v>
       </c>
       <c r="G533" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Product Component Data List</v>
       </c>
       <c r="I533" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialProductComponent.Report.DataList', 'Material Product Component Data List');</v>
       </c>
     </row>
@@ -30748,19 +30772,19 @@
         <v>479</v>
       </c>
       <c r="E534" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000533</v>
       </c>
       <c r="F534" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialProductComponent.Report.Resume</v>
       </c>
       <c r="G534" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Product Component Resume</v>
       </c>
       <c r="I534" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialProductComponent.Report.Resume', 'Material Product Component Resume');</v>
       </c>
     </row>
@@ -30772,19 +30796,19 @@
         <v>488</v>
       </c>
       <c r="E535" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000534</v>
       </c>
       <c r="F535" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialTakeOff.Transaction</v>
       </c>
       <c r="G535" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Take Off</v>
       </c>
       <c r="I535" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialTakeOff.Transaction', 'Material Take Off');</v>
       </c>
     </row>
@@ -30796,19 +30820,19 @@
         <v>489</v>
       </c>
       <c r="E536" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000535</v>
       </c>
       <c r="F536" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialTakeOff.Report.Form</v>
       </c>
       <c r="G536" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Take Off Form</v>
       </c>
       <c r="I536" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="I536:I599" si="37">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B536, ""),"null", CONCATENATE("'", $F536, "'")), ", ", IF(EXACT($B536, ""), "null", CONCATENATE("'", $G536, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialTakeOff.Report.Form', 'Material Take Off Form');</v>
       </c>
     </row>
@@ -30820,19 +30844,19 @@
         <v>490</v>
       </c>
       <c r="E537" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000536</v>
       </c>
       <c r="F537" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialTakeOff.Report.DataList</v>
       </c>
       <c r="G537" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Take Off Data List</v>
       </c>
       <c r="I537" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialTakeOff.Report.DataList', 'Material Take Off Data List');</v>
       </c>
     </row>
@@ -30844,19 +30868,19 @@
         <v>491</v>
       </c>
       <c r="E538" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000537</v>
       </c>
       <c r="F538" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Production.Data.MaterialTakeOff.Report.Resume</v>
       </c>
       <c r="G538" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Material Take Off Resume</v>
       </c>
       <c r="I538" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Production.Data.MaterialTakeOff.Report.Resume', 'Material Take Off Resume');</v>
       </c>
     </row>
@@ -30868,19 +30892,19 @@
         <v>526</v>
       </c>
       <c r="E539" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000538</v>
       </c>
       <c r="F539" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.MasterData.ProjectSectionType.Transaction</v>
       </c>
       <c r="G539" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Project Section Type</v>
       </c>
       <c r="I539" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.MasterData.ProjectSectionType.Transaction', 'Project Section Type');</v>
       </c>
     </row>
@@ -30892,19 +30916,19 @@
         <v>1123</v>
       </c>
       <c r="E540" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000539</v>
       </c>
       <c r="F540" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.MasterData.ProjectSectionType.Report.DataValidation</v>
       </c>
       <c r="G540" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Project Section Type Data Validation</v>
       </c>
       <c r="I540" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.MasterData.ProjectSectionType.Report.DataValidation', 'Project Section Type Data Validation');</v>
       </c>
     </row>
@@ -30916,19 +30940,19 @@
         <v>936</v>
       </c>
       <c r="E541" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000540</v>
       </c>
       <c r="F541" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.MasterData.ProjectSectionType.Report.Form</v>
       </c>
       <c r="G541" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Project Section Type Form</v>
       </c>
       <c r="I541" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.MasterData.ProjectSectionType.Report.Form', 'Project Section Type Form');</v>
       </c>
     </row>
@@ -30940,19 +30964,19 @@
         <v>527</v>
       </c>
       <c r="E542" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000541</v>
       </c>
       <c r="F542" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.MasterData.ProjectSectionType.Report.DataList</v>
       </c>
       <c r="G542" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Project Section Type Data List</v>
       </c>
       <c r="I542" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.MasterData.ProjectSectionType.Report.DataList', 'Project Section Type Data List');</v>
       </c>
     </row>
@@ -30964,19 +30988,19 @@
         <v>530</v>
       </c>
       <c r="E543" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000542</v>
       </c>
       <c r="F543" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.Mapper_ProjectToMaterialProductAssembly.Transaction</v>
       </c>
       <c r="G543" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>Mapper Project To Material Product Assembly</v>
       </c>
       <c r="I543" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.Mapper_ProjectToMaterialProductAssembly.Transaction', 'Mapper Project To Material Product Assembly');</v>
       </c>
     </row>
@@ -30988,19 +31012,19 @@
         <v>938</v>
       </c>
       <c r="E544" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000543</v>
       </c>
       <c r="F544" s="3" t="str">
-        <f t="shared" ref="F544:F581" si="43">IF(EXACT(B544, ""), "", B544)</f>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.Mapper_ProjectToMaterialProductAssembly.Report.Form</v>
       </c>
       <c r="G544" s="3" t="str">
-        <f t="shared" ref="G544:G581" si="44">IF(EXACT(C544, ""), "", C544)</f>
+        <f t="shared" si="36"/>
         <v>Mapper Project To Material Product Assembly Form</v>
       </c>
       <c r="I544" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.Mapper_ProjectToMaterialProductAssembly.Report.Form', 'Mapper Project To Material Product Assembly Form');</v>
       </c>
     </row>
@@ -31012,19 +31036,19 @@
         <v>531</v>
       </c>
       <c r="E545" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000544</v>
       </c>
       <c r="F545" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.Mapper_ProjectToMaterialProductAssembly.Report.DataList</v>
       </c>
       <c r="G545" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Mapper Project To Material Product Assembly Data List</v>
       </c>
       <c r="I545" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.Mapper_ProjectToMaterialProductAssembly.Report.DataList', 'Mapper Project To Material Product Assembly Data List');</v>
       </c>
     </row>
@@ -31036,19 +31060,19 @@
         <v>940</v>
       </c>
       <c r="E546" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000545</v>
       </c>
       <c r="F546" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.Mapper_ProjectToMaterialProductAssembly.Report.Resume</v>
       </c>
       <c r="G546" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Mapper Project To Material Product Assembly Resume</v>
       </c>
       <c r="I546" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.Mapper_ProjectToMaterialProductAssembly.Report.Resume', 'Mapper Project To Material Product Assembly Resume');</v>
       </c>
     </row>
@@ -31060,19 +31084,19 @@
         <v>492</v>
       </c>
       <c r="E547" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000546</v>
       </c>
       <c r="F547" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.Project.Transaction</v>
       </c>
       <c r="G547" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project</v>
       </c>
       <c r="I547" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.Project.Transaction', 'Project');</v>
       </c>
     </row>
@@ -31084,19 +31108,19 @@
         <v>493</v>
       </c>
       <c r="E548" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000547</v>
       </c>
       <c r="F548" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.Project.Report.Form</v>
       </c>
       <c r="G548" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Form</v>
       </c>
       <c r="I548" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.Project.Report.Form', 'Project Form');</v>
       </c>
     </row>
@@ -31108,19 +31132,19 @@
         <v>494</v>
       </c>
       <c r="E549" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000548</v>
       </c>
       <c r="F549" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.Project.Report.DataList</v>
       </c>
       <c r="G549" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Data List</v>
       </c>
       <c r="I549" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.Project.Report.DataList', 'Project Data List');</v>
       </c>
     </row>
@@ -31132,19 +31156,19 @@
         <v>506</v>
       </c>
       <c r="E550" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000549</v>
       </c>
       <c r="F550" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.Project.Report.Resume</v>
       </c>
       <c r="G550" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Resume</v>
       </c>
       <c r="I550" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.Project.Report.Resume', 'Project Resume');</v>
       </c>
     </row>
@@ -31156,19 +31180,19 @@
         <v>503</v>
       </c>
       <c r="E551" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000550</v>
       </c>
       <c r="F551" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSection.Transaction</v>
       </c>
       <c r="G551" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section</v>
       </c>
       <c r="I551" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSection.Transaction', 'Project Section');</v>
       </c>
     </row>
@@ -31180,19 +31204,19 @@
         <v>505</v>
       </c>
       <c r="E552" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000551</v>
       </c>
       <c r="F552" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSection.Report.Form</v>
       </c>
       <c r="G552" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Form</v>
       </c>
       <c r="I552" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSection.Report.Form', 'Project Section Form');</v>
       </c>
     </row>
@@ -31204,19 +31228,19 @@
         <v>504</v>
       </c>
       <c r="E553" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000552</v>
       </c>
       <c r="F553" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSection.Report.DataList</v>
       </c>
       <c r="G553" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Data List</v>
       </c>
       <c r="I553" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSection.Report.DataList', 'Project Section Data List');</v>
       </c>
     </row>
@@ -31228,19 +31252,19 @@
         <v>507</v>
       </c>
       <c r="E554" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000553</v>
       </c>
       <c r="F554" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSection.Report.Resume</v>
       </c>
       <c r="G554" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Resume</v>
       </c>
       <c r="I554" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSection.Report.Resume', 'Project Section Resume');</v>
       </c>
     </row>
@@ -31252,19 +31276,19 @@
         <v>512</v>
       </c>
       <c r="E555" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000554</v>
       </c>
       <c r="F555" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSectionItem.Transaction</v>
       </c>
       <c r="G555" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Item</v>
       </c>
       <c r="I555" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSectionItem.Transaction', 'Project Section Item');</v>
       </c>
     </row>
@@ -31276,19 +31300,19 @@
         <v>513</v>
       </c>
       <c r="E556" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000555</v>
       </c>
       <c r="F556" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSectionItem.Report.Form</v>
       </c>
       <c r="G556" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Item Form</v>
       </c>
       <c r="I556" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSectionItem.Report.Form', 'Project Section Item Form');</v>
       </c>
     </row>
@@ -31300,19 +31324,19 @@
         <v>514</v>
       </c>
       <c r="E557" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000556</v>
       </c>
       <c r="F557" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSectionItem.Report.DataList</v>
       </c>
       <c r="G557" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Item Data List</v>
       </c>
       <c r="I557" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSectionItem.Report.DataList', 'Project Section Item Data List');</v>
       </c>
     </row>
@@ -31324,19 +31348,19 @@
         <v>515</v>
       </c>
       <c r="E558" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000557</v>
       </c>
       <c r="F558" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSectionItem.Report.Resume</v>
       </c>
       <c r="G558" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Item Resume</v>
       </c>
       <c r="I558" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSectionItem.Report.Resume', 'Project Section Item Resume');</v>
       </c>
     </row>
@@ -31348,19 +31372,19 @@
         <v>520</v>
       </c>
       <c r="E559" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000558</v>
       </c>
       <c r="F559" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSectionItemWork.Transaction</v>
       </c>
       <c r="G559" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Item Work</v>
       </c>
       <c r="I559" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSectionItemWork.Transaction', 'Project Section Item Work');</v>
       </c>
     </row>
@@ -31372,19 +31396,19 @@
         <v>521</v>
       </c>
       <c r="E560" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000559</v>
       </c>
       <c r="F560" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSectionItemWork.Report.Form</v>
       </c>
       <c r="G560" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Item Work Form</v>
       </c>
       <c r="I560" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSectionItemWork.Report.Form', 'Project Section Item Work Form');</v>
       </c>
     </row>
@@ -31396,19 +31420,19 @@
         <v>522</v>
       </c>
       <c r="E561" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000560</v>
       </c>
       <c r="F561" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSectionItemWork.Report.DataList</v>
       </c>
       <c r="G561" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Item Work Data List</v>
       </c>
       <c r="I561" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSectionItemWork.Report.DataList', 'Project Section Item Work Data List');</v>
       </c>
     </row>
@@ -31420,19 +31444,19 @@
         <v>523</v>
       </c>
       <c r="E562" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000561</v>
       </c>
       <c r="F562" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.Project.Data.ProjectSectionItemWork.Report.Resume</v>
       </c>
       <c r="G562" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Project Section Item Work Resume</v>
       </c>
       <c r="I562" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Project.Data.ProjectSectionItemWork.Report.Resume', 'Project Section Item Work Resume');</v>
       </c>
     </row>
@@ -31444,19 +31468,19 @@
         <v>1172</v>
       </c>
       <c r="E563" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000562</v>
       </c>
       <c r="F563" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.DeliveryDestinationType.Transaction</v>
       </c>
       <c r="G563" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Delivery Destination Type</v>
       </c>
       <c r="I563" s="15" t="str">
-        <f t="shared" ref="I563:I606" si="45">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B563, ""),"null", CONCATENATE("'", $F563, "'")), ", ", IF(EXACT($B563, ""), "null", CONCATENATE("'", $G563, "'")), ");")</f>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.DeliveryDestinationType.Transaction', 'Delivery Destination Type');</v>
       </c>
     </row>
@@ -31468,19 +31492,19 @@
         <v>1173</v>
       </c>
       <c r="E564" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000563</v>
       </c>
       <c r="F564" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.DeliveryDestinationType.DataValidation</v>
       </c>
       <c r="G564" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Delivery Destination Type Data Validation</v>
       </c>
       <c r="I564" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.DeliveryDestinationType.DataValidation', 'Delivery Destination Type Data Validation');</v>
       </c>
     </row>
@@ -31492,19 +31516,19 @@
         <v>1174</v>
       </c>
       <c r="E565" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000564</v>
       </c>
       <c r="F565" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.DeliveryDestinationType.Report.Form</v>
       </c>
       <c r="G565" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Delivery Destination Type Form</v>
       </c>
       <c r="I565" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.DeliveryDestinationType.Report.Form', 'Delivery Destination Type Form');</v>
       </c>
     </row>
@@ -31516,19 +31540,19 @@
         <v>1175</v>
       </c>
       <c r="E566" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000565</v>
       </c>
       <c r="F566" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.DeliveryDestinationType.Report.DataList</v>
       </c>
       <c r="G566" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Delivery Destination Type Data List</v>
       </c>
       <c r="I566" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.DeliveryDestinationType.Report.DataList', 'Delivery Destination Type Data List');</v>
       </c>
     </row>
@@ -31540,19 +31564,19 @@
         <v>1222</v>
       </c>
       <c r="E567" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000566</v>
       </c>
       <c r="F567" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.Supplier.Transaction</v>
       </c>
       <c r="G567" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Supplier</v>
       </c>
       <c r="I567" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.Supplier.Transaction', 'Supplier');</v>
       </c>
     </row>
@@ -31564,19 +31588,19 @@
         <v>1223</v>
       </c>
       <c r="E568" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000567</v>
       </c>
       <c r="F568" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.Supplier.DataValidation</v>
       </c>
       <c r="G568" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Supplier Data Validation</v>
       </c>
       <c r="I568" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.Supplier.DataValidation', 'Supplier Data Validation');</v>
       </c>
     </row>
@@ -31588,19 +31612,19 @@
         <v>1224</v>
       </c>
       <c r="E569" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000568</v>
       </c>
       <c r="F569" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.Supplier.Report.Form</v>
       </c>
       <c r="G569" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Supplier Form</v>
       </c>
       <c r="I569" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.Supplier.Report.Form', 'Supplier Form');</v>
       </c>
     </row>
@@ -31612,19 +31636,19 @@
         <v>1225</v>
       </c>
       <c r="E570" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000569</v>
       </c>
       <c r="F570" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.Supplier.Report.DataList</v>
       </c>
       <c r="G570" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Supplier Data List</v>
       </c>
       <c r="I570" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.Supplier.Report.DataList', 'Supplier Data List');</v>
       </c>
     </row>
@@ -31636,19 +31660,19 @@
         <v>1230</v>
       </c>
       <c r="E571" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000570</v>
       </c>
       <c r="F571" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.Warehouse.Transaction</v>
       </c>
       <c r="G571" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Warehouse</v>
       </c>
       <c r="I571" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.Warehouse.Transaction', 'Warehouse');</v>
       </c>
     </row>
@@ -31660,19 +31684,19 @@
         <v>1231</v>
       </c>
       <c r="E572" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000571</v>
       </c>
       <c r="F572" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.Warehouse.DataValidation</v>
       </c>
       <c r="G572" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Warehouse Data Validation</v>
       </c>
       <c r="I572" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.Warehouse.DataValidation', 'Warehouse Data Validation');</v>
       </c>
     </row>
@@ -31684,19 +31708,19 @@
         <v>1232</v>
       </c>
       <c r="E573" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000572</v>
       </c>
       <c r="F573" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.Warehouse.Report.Form</v>
       </c>
       <c r="G573" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Warehouse Form</v>
       </c>
       <c r="I573" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.Warehouse.Report.Form', 'Warehouse Form');</v>
       </c>
     </row>
@@ -31708,19 +31732,19 @@
         <v>1233</v>
       </c>
       <c r="E574" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000573</v>
       </c>
       <c r="F574" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.Warehouse.Report.DataList</v>
       </c>
       <c r="G574" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Warehouse Data List</v>
       </c>
       <c r="I574" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.Warehouse.Report.DataList', 'Warehouse Data List');</v>
       </c>
     </row>
@@ -31732,19 +31756,19 @@
         <v>1254</v>
       </c>
       <c r="E575" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000574</v>
       </c>
       <c r="F575" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.WarehouseType.Transaction</v>
       </c>
       <c r="G575" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Warehouse Type</v>
       </c>
       <c r="I575" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.WarehouseType.Transaction', 'Warehouse Type');</v>
       </c>
     </row>
@@ -31756,19 +31780,19 @@
         <v>1255</v>
       </c>
       <c r="E576" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000575</v>
       </c>
       <c r="F576" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.WarehouseType.DataValidation</v>
       </c>
       <c r="G576" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Warehouse Type Data Validation</v>
       </c>
       <c r="I576" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.WarehouseType.DataValidation', 'Warehouse Type Data Validation');</v>
       </c>
     </row>
@@ -31780,19 +31804,19 @@
         <v>1256</v>
       </c>
       <c r="E577" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000576</v>
       </c>
       <c r="F577" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.WarehouseType.Report.Form</v>
       </c>
       <c r="G577" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Warehouse Type Form</v>
       </c>
       <c r="I577" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.WarehouseType.Report.Form', 'Warehouse Type Form');</v>
       </c>
     </row>
@@ -31804,19 +31828,19 @@
         <v>1257</v>
       </c>
       <c r="E578" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>97000000000577</v>
       </c>
       <c r="F578" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.MasterData.WarehouseType.Report.DataList</v>
       </c>
       <c r="G578" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Warehouse Type Data List</v>
       </c>
       <c r="I578" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.MasterData.WarehouseType.Report.DataList', 'Warehouse Type Data List');</v>
       </c>
     </row>
@@ -31828,19 +31852,19 @@
         <v>1184</v>
       </c>
       <c r="E579" s="14">
-        <f t="shared" ref="E579:E626" si="46">IF(ISNUMBER($E578), $E578+1, 97000000000001)</f>
+        <f t="shared" ref="E579:E626" si="38">IF(ISNUMBER($E578), $E578+1, 97000000000001)</f>
         <v>97000000000578</v>
       </c>
       <c r="F579" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.Data.DeliveryOrder.Transaction</v>
       </c>
       <c r="G579" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Delivery Order</v>
       </c>
       <c r="I579" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.DeliveryOrder.Transaction', 'Delivery Order');</v>
       </c>
     </row>
@@ -31852,19 +31876,19 @@
         <v>1185</v>
       </c>
       <c r="E580" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000579</v>
       </c>
       <c r="F580" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>Module.SupplyChain.Data.DeliveryOrder.Report.Form</v>
       </c>
       <c r="G580" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Delivery Order Form</v>
       </c>
       <c r="I580" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.DeliveryOrder.Report.Form', 'Delivery Order Form');</v>
       </c>
     </row>
@@ -31876,19 +31900,19 @@
         <v>1186</v>
       </c>
       <c r="E581" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000580</v>
       </c>
       <c r="F581" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="F581:F626" si="39">IF(EXACT(B581, ""), "", B581)</f>
         <v>Module.SupplyChain.Data.DeliveryOrder.Report.DataList</v>
       </c>
       <c r="G581" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="G581:G626" si="40">IF(EXACT(C581, ""), "", C581)</f>
         <v>Delivery Order Data List</v>
       </c>
       <c r="I581" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.DeliveryOrder.Report.DataList', 'Delivery Order Data List');</v>
       </c>
     </row>
@@ -31900,19 +31924,19 @@
         <v>1187</v>
       </c>
       <c r="E582" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000581</v>
       </c>
       <c r="F582" s="3" t="str">
-        <f t="shared" ref="F582:F606" si="47">IF(EXACT(B582, ""), "", B582)</f>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.DeliveryOrder.Report.Resume</v>
       </c>
       <c r="G582" s="3" t="str">
-        <f t="shared" ref="G582:G606" si="48">IF(EXACT(C582, ""), "", C582)</f>
+        <f t="shared" si="40"/>
         <v>Delivery Order Resume</v>
       </c>
       <c r="I582" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.DeliveryOrder.Report.Resume', 'Delivery Order Resume');</v>
       </c>
     </row>
@@ -31924,19 +31948,19 @@
         <v>1263</v>
       </c>
       <c r="E583" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000582</v>
       </c>
       <c r="F583" s="3" t="str">
-        <f t="shared" ref="F583:F592" si="49">IF(EXACT(B583, ""), "", B583)</f>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.DeliveryOrderRequest.Transaction</v>
       </c>
       <c r="G583" s="3" t="str">
-        <f t="shared" ref="G583:G592" si="50">IF(EXACT(C583, ""), "", C583)</f>
+        <f t="shared" si="40"/>
         <v>Delivery Order Request</v>
       </c>
       <c r="I583" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.DeliveryOrderRequest.Transaction', 'Delivery Order Request');</v>
       </c>
     </row>
@@ -31948,19 +31972,19 @@
         <v>1264</v>
       </c>
       <c r="E584" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000583</v>
       </c>
       <c r="F584" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.DeliveryOrderRequest.Report.Form</v>
       </c>
       <c r="G584" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>Delivery Order Request Form</v>
       </c>
       <c r="I584" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.DeliveryOrderRequest.Report.Form', 'Delivery Order Request Form');</v>
       </c>
     </row>
@@ -31972,19 +31996,19 @@
         <v>1265</v>
       </c>
       <c r="E585" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000584</v>
       </c>
       <c r="F585" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.DeliveryOrderRequest.Report.DataList</v>
       </c>
       <c r="G585" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>Delivery Order Request Data List</v>
       </c>
       <c r="I585" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.DeliveryOrderRequest.Report.DataList', 'Delivery Order Request Data List');</v>
       </c>
     </row>
@@ -31996,19 +32020,19 @@
         <v>1262</v>
       </c>
       <c r="E586" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000585</v>
       </c>
       <c r="F586" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.DeliveryOrderRequest.Report.Resume</v>
       </c>
       <c r="G586" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>Delivery Order Request Resume</v>
       </c>
       <c r="I586" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.DeliveryOrderRequest.Report.Resume', 'Delivery Order Request Resume');</v>
       </c>
     </row>
@@ -32020,19 +32044,19 @@
         <v>1320</v>
       </c>
       <c r="E587" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000586</v>
       </c>
       <c r="F587" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.MaterialReturn.Transaction</v>
       </c>
       <c r="G587" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>Material Return</v>
       </c>
       <c r="I587" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.MaterialReturn.Transaction', 'Material Return');</v>
       </c>
     </row>
@@ -32044,19 +32068,19 @@
         <v>1325</v>
       </c>
       <c r="E588" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000587</v>
       </c>
       <c r="F588" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.MaterialReturn.Report.Form</v>
       </c>
       <c r="G588" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>Material Return Form</v>
       </c>
       <c r="I588" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.MaterialReturn.Report.Form', 'Material Return Form');</v>
       </c>
     </row>
@@ -32068,19 +32092,19 @@
         <v>1326</v>
       </c>
       <c r="E589" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000588</v>
       </c>
       <c r="F589" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.MaterialReturn.Report.DataList</v>
       </c>
       <c r="G589" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>Material Return Data List</v>
       </c>
       <c r="I589" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.MaterialReturn.Report.DataList', 'Material Return Data List');</v>
       </c>
     </row>
@@ -32092,19 +32116,19 @@
         <v>1327</v>
       </c>
       <c r="E590" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000589</v>
       </c>
       <c r="F590" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.MaterialReturn.Report.Resume</v>
       </c>
       <c r="G590" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>Material Return Resume</v>
       </c>
       <c r="I590" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.MaterialReturn.Report.Resume', 'Material Return Resume');</v>
       </c>
     </row>
@@ -32116,19 +32140,19 @@
         <v>1192</v>
       </c>
       <c r="E591" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000590</v>
       </c>
       <c r="F591" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.OrderPicking.Transaction</v>
       </c>
       <c r="G591" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>Order Picking</v>
       </c>
       <c r="I591" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.OrderPicking.Transaction', 'Order Picking');</v>
       </c>
     </row>
@@ -32140,19 +32164,19 @@
         <v>1193</v>
       </c>
       <c r="E592" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000591</v>
       </c>
       <c r="F592" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.OrderPicking.Report.Form</v>
       </c>
       <c r="G592" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>Order Picking Form</v>
       </c>
       <c r="I592" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.OrderPicking.Report.Form', 'Order Picking Form');</v>
       </c>
     </row>
@@ -32164,19 +32188,19 @@
         <v>1194</v>
       </c>
       <c r="E593" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000592</v>
       </c>
       <c r="F593" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.OrderPicking.Report.DataList</v>
       </c>
       <c r="G593" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Order Picking Data List</v>
       </c>
       <c r="I593" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.OrderPicking.Report.DataList', 'Order Picking Data List');</v>
       </c>
     </row>
@@ -32188,19 +32212,19 @@
         <v>1195</v>
       </c>
       <c r="E594" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000593</v>
       </c>
       <c r="F594" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.OrderPicking.Report.Resume</v>
       </c>
       <c r="G594" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Order Picking Resume</v>
       </c>
       <c r="I594" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.OrderPicking.Report.Resume', 'Order Picking Resume');</v>
       </c>
     </row>
@@ -32212,19 +32236,19 @@
         <v>1203</v>
       </c>
       <c r="E595" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000594</v>
       </c>
       <c r="F595" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.OrderPickingRequisition.Transaction</v>
       </c>
       <c r="G595" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Order Picking Requisition</v>
       </c>
       <c r="I595" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.OrderPickingRequisition.Transaction', 'Order Picking Requisition');</v>
       </c>
     </row>
@@ -32236,19 +32260,19 @@
         <v>1202</v>
       </c>
       <c r="E596" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000595</v>
       </c>
       <c r="F596" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.OrderPickingRequisition.Report.Form</v>
       </c>
       <c r="G596" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Order Picking Requisition Form</v>
       </c>
       <c r="I596" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.OrderPickingRequisition.Report.Form', 'Order Picking Requisition Form');</v>
       </c>
     </row>
@@ -32260,19 +32284,19 @@
         <v>1201</v>
       </c>
       <c r="E597" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000596</v>
       </c>
       <c r="F597" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.OrderPickingRequisition.Report.DataList</v>
       </c>
       <c r="G597" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Order Picking Requisition Data List</v>
       </c>
       <c r="I597" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.OrderPickingRequisition.Report.DataList', 'Order Picking Requisition Data List');</v>
       </c>
     </row>
@@ -32284,19 +32308,19 @@
         <v>1200</v>
       </c>
       <c r="E598" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000597</v>
       </c>
       <c r="F598" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.OrderPickingRequisition.Report.Resume</v>
       </c>
       <c r="G598" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Order Picking Requisition Resume</v>
       </c>
       <c r="I598" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.OrderPickingRequisition.Report.Resume', 'Order Picking Requisition Resume');</v>
       </c>
     </row>
@@ -32308,19 +32332,19 @@
         <v>90</v>
       </c>
       <c r="E599" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000598</v>
       </c>
       <c r="F599" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.PurchaseOrder.Transaction</v>
       </c>
       <c r="G599" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Purchase Order</v>
       </c>
       <c r="I599" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.PurchaseOrder.Transaction', 'Purchase Order');</v>
       </c>
     </row>
@@ -32332,19 +32356,19 @@
         <v>1208</v>
       </c>
       <c r="E600" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000599</v>
       </c>
       <c r="F600" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.PurchaseOrder.Report.Form</v>
       </c>
       <c r="G600" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Purchase Order Form</v>
       </c>
       <c r="I600" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="I600:I626" si="41">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B600, ""),"null", CONCATENATE("'", $F600, "'")), ", ", IF(EXACT($B600, ""), "null", CONCATENATE("'", $G600, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.PurchaseOrder.Report.Form', 'Purchase Order Form');</v>
       </c>
     </row>
@@ -32356,19 +32380,19 @@
         <v>1209</v>
       </c>
       <c r="E601" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000600</v>
       </c>
       <c r="F601" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.PurchaseOrder.Report.DataList</v>
       </c>
       <c r="G601" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Purchase Order Data List</v>
       </c>
       <c r="I601" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.PurchaseOrder.Report.DataList', 'Purchase Order Data List');</v>
       </c>
     </row>
@@ -32380,19 +32404,19 @@
         <v>1210</v>
       </c>
       <c r="E602" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000601</v>
       </c>
       <c r="F602" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.PurchaseOrder.Report.Resume</v>
       </c>
       <c r="G602" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Purchase Order Resume</v>
       </c>
       <c r="I602" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.PurchaseOrder.Report.Resume', 'Purchase Order Resume');</v>
       </c>
     </row>
@@ -32404,19 +32428,19 @@
         <v>89</v>
       </c>
       <c r="E603" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000602</v>
       </c>
       <c r="F603" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.PurchaseRequisition.Transaction</v>
       </c>
       <c r="G603" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Purchase Requisition</v>
       </c>
       <c r="I603" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.PurchaseRequisition.Transaction', 'Purchase Requisition');</v>
       </c>
     </row>
@@ -32428,19 +32452,19 @@
         <v>1215</v>
       </c>
       <c r="E604" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000603</v>
       </c>
       <c r="F604" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.PurchaseRequisition.Report.Form</v>
       </c>
       <c r="G604" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Purchase Requisition Form</v>
       </c>
       <c r="I604" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.PurchaseRequisition.Report.Form', 'Purchase Requisition Form');</v>
       </c>
     </row>
@@ -32452,19 +32476,19 @@
         <v>1216</v>
       </c>
       <c r="E605" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000604</v>
       </c>
       <c r="F605" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.PurchaseRequisition.Report.DataList</v>
       </c>
       <c r="G605" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Purchase Requisition Data List</v>
       </c>
       <c r="I605" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.PurchaseRequisition.Report.DataList', 'Purchase Requisition Data List');</v>
       </c>
     </row>
@@ -32476,19 +32500,19 @@
         <v>1217</v>
       </c>
       <c r="E606" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000605</v>
       </c>
       <c r="F606" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.PurchaseRequisition.Report.Resume</v>
       </c>
       <c r="G606" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>Purchase Requisition Resume</v>
       </c>
       <c r="I606" s="15" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.PurchaseRequisition.Report.Resume', 'Purchase Requisition Resume');</v>
       </c>
     </row>
@@ -32500,19 +32524,19 @@
         <v>1238</v>
       </c>
       <c r="E607" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000606</v>
       </c>
       <c r="F607" s="3" t="str">
-        <f t="shared" ref="F607:F626" si="51">IF(EXACT(B607, ""), "", B607)</f>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.WarehouseInboundOrder.Transaction</v>
       </c>
       <c r="G607" s="3" t="str">
-        <f t="shared" ref="G607:G626" si="52">IF(EXACT(C607, ""), "", C607)</f>
+        <f t="shared" si="40"/>
         <v>Warehouse Inbound Order</v>
       </c>
       <c r="I607" s="15" t="str">
-        <f t="shared" ref="I607:I626" si="53">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_Menu_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B607, ""),"null", CONCATENATE("'", $F607, "'")), ", ", IF(EXACT($B607, ""), "null", CONCATENATE("'", $G607, "'")), ");")</f>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.WarehouseInboundOrder.Transaction', 'Warehouse Inbound Order');</v>
       </c>
     </row>
@@ -32524,19 +32548,19 @@
         <v>1239</v>
       </c>
       <c r="E608" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000607</v>
       </c>
       <c r="F608" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.WarehouseInboundOrder.Report.Form</v>
       </c>
       <c r="G608" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Warehouse Inbound Order Form</v>
       </c>
       <c r="I608" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.WarehouseInboundOrder.Report.Form', 'Warehouse Inbound Order Form');</v>
       </c>
     </row>
@@ -32548,19 +32572,19 @@
         <v>1240</v>
       </c>
       <c r="E609" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000608</v>
       </c>
       <c r="F609" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.WarehouseInboundOrder.Report.DataList</v>
       </c>
       <c r="G609" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Warehouse Inbound Order Data List</v>
       </c>
       <c r="I609" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.WarehouseInboundOrder.Report.DataList', 'Warehouse Inbound Order Data List');</v>
       </c>
     </row>
@@ -32572,19 +32596,19 @@
         <v>1241</v>
       </c>
       <c r="E610" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000609</v>
       </c>
       <c r="F610" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.WarehouseInboundOrder.Report.Resume</v>
       </c>
       <c r="G610" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Warehouse Inbound Order Resume</v>
       </c>
       <c r="I610" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.WarehouseInboundOrder.Report.Resume', 'Warehouse Inbound Order Resume');</v>
       </c>
     </row>
@@ -32596,19 +32620,19 @@
         <v>1242</v>
       </c>
       <c r="E611" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000610</v>
       </c>
       <c r="F611" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.WarehouseOutboundOrder.Transaction</v>
       </c>
       <c r="G611" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Warehouse Outbound Order</v>
       </c>
       <c r="I611" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.WarehouseOutboundOrder.Transaction', 'Warehouse Outbound Order');</v>
       </c>
     </row>
@@ -32620,19 +32644,19 @@
         <v>1243</v>
       </c>
       <c r="E612" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000611</v>
       </c>
       <c r="F612" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.WarehouseOutboundOrder.Report.Form</v>
       </c>
       <c r="G612" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Warehouse Outbound Order Form</v>
       </c>
       <c r="I612" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.WarehouseOutboundOrder.Report.Form', 'Warehouse Outbound Order Form');</v>
       </c>
     </row>
@@ -32644,19 +32668,19 @@
         <v>1244</v>
       </c>
       <c r="E613" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000612</v>
       </c>
       <c r="F613" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.WarehouseOutboundOrder.Report.DataList</v>
       </c>
       <c r="G613" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Warehouse Outbound Order Data List</v>
       </c>
       <c r="I613" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.WarehouseOutboundOrder.Report.DataList', 'Warehouse Outbound Order Data List');</v>
       </c>
     </row>
@@ -32668,19 +32692,19 @@
         <v>1245</v>
       </c>
       <c r="E614" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000613</v>
       </c>
       <c r="F614" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.SupplyChain.Data.WarehouseOutboundOrder.Report.Resume</v>
       </c>
       <c r="G614" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Warehouse Outbound Order Resume</v>
       </c>
       <c r="I614" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.SupplyChain.Data.WarehouseOutboundOrder.Report.Resume', 'Warehouse Outbound Order Resume');</v>
       </c>
     </row>
@@ -32692,19 +32716,19 @@
         <v>539</v>
       </c>
       <c r="E615" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000614</v>
       </c>
       <c r="F615" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.MasterData.TaxTariff.Transaction</v>
       </c>
       <c r="G615" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Tax Tariff</v>
       </c>
       <c r="I615" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.MasterData.TaxTariff.Transaction', 'Tax Tariff');</v>
       </c>
     </row>
@@ -32716,19 +32740,19 @@
         <v>1125</v>
       </c>
       <c r="E616" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000615</v>
       </c>
       <c r="F616" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.MasterData.TaxTariff.DataValidation</v>
       </c>
       <c r="G616" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Tax Tariff Data Validation</v>
       </c>
       <c r="I616" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.MasterData.TaxTariff.DataValidation', 'Tax Tariff Data Validation');</v>
       </c>
     </row>
@@ -32740,19 +32764,19 @@
         <v>942</v>
       </c>
       <c r="E617" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000616</v>
       </c>
       <c r="F617" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.MasterData.TaxTariff.Report.Form</v>
       </c>
       <c r="G617" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Tax Tariff Form</v>
       </c>
       <c r="I617" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.MasterData.TaxTariff.Report.Form', 'Tax Tariff Form');</v>
       </c>
     </row>
@@ -32764,19 +32788,19 @@
         <v>538</v>
       </c>
       <c r="E618" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000617</v>
       </c>
       <c r="F618" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.MasterData.TaxTariff.Report.DataList</v>
       </c>
       <c r="G618" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Tax Tariff Data List</v>
       </c>
       <c r="I618" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.MasterData.TaxTariff.Report.DataList', 'Tax Tariff Data List');</v>
       </c>
     </row>
@@ -32788,19 +32812,19 @@
         <v>536</v>
       </c>
       <c r="E619" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000618</v>
       </c>
       <c r="F619" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.MasterData.TaxType.Transaction</v>
       </c>
       <c r="G619" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Tax Type</v>
       </c>
       <c r="I619" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.MasterData.TaxType.Transaction', 'Tax Type');</v>
       </c>
     </row>
@@ -32812,19 +32836,19 @@
         <v>1127</v>
       </c>
       <c r="E620" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000619</v>
       </c>
       <c r="F620" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.MasterData.TaxType.DataValidation</v>
       </c>
       <c r="G620" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Tax Type Data Validation</v>
       </c>
       <c r="I620" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.MasterData.TaxType.DataValidation', 'Tax Type Data Validation');</v>
       </c>
     </row>
@@ -32836,19 +32860,19 @@
         <v>944</v>
       </c>
       <c r="E621" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000620</v>
       </c>
       <c r="F621" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.MasterData.TaxType.Report.Form</v>
       </c>
       <c r="G621" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Tax Type Form</v>
       </c>
       <c r="I621" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.MasterData.TaxType.Report.Form', 'Tax Type Form');</v>
       </c>
     </row>
@@ -32860,19 +32884,19 @@
         <v>537</v>
       </c>
       <c r="E622" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000621</v>
       </c>
       <c r="F622" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.MasterData.TaxType.Report.DataList</v>
       </c>
       <c r="G622" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Tax Type Data List</v>
       </c>
       <c r="I622" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.MasterData.TaxType.Report.DataList', 'Tax Type Data List');</v>
       </c>
     </row>
@@ -32884,19 +32908,19 @@
         <v>540</v>
       </c>
       <c r="E623" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000622</v>
       </c>
       <c r="F623" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.Data.TransactionTax.Transaction</v>
       </c>
       <c r="G623" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Transaction Tax</v>
       </c>
       <c r="I623" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.Data.TransactionTax.Transaction', 'Transaction Tax');</v>
       </c>
     </row>
@@ -32908,19 +32932,19 @@
         <v>541</v>
       </c>
       <c r="E624" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000623</v>
       </c>
       <c r="F624" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.Data.TransactionTax.Report.Form</v>
       </c>
       <c r="G624" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Transaction Tax Form</v>
       </c>
       <c r="I624" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.Data.TransactionTax.Report.Form', 'Transaction Tax Form');</v>
       </c>
     </row>
@@ -32932,19 +32956,19 @@
         <v>542</v>
       </c>
       <c r="E625" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000624</v>
       </c>
       <c r="F625" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.Data.TransactionTax.Report.DataList</v>
       </c>
       <c r="G625" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Transaction Tax Data List</v>
       </c>
       <c r="I625" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.Data.TransactionTax.Report.DataList', 'Transaction Tax Data List');</v>
       </c>
     </row>
@@ -32956,19 +32980,19 @@
         <v>543</v>
       </c>
       <c r="E626" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>97000000000625</v>
       </c>
       <c r="F626" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>Module.Taxation.Data.TransactionTax.Report.Resume</v>
       </c>
       <c r="G626" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>Transaction Tax Resume</v>
       </c>
       <c r="I626" s="15" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 'Module.Taxation.Data.TransactionTax.Report.Resume', 'Transaction Tax Resume');</v>
       </c>
     </row>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_Menu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1375">
   <si>
     <t>System</t>
   </si>
@@ -3251,9 +3251,6 @@
     <t>Business Trip Accommodation Arrangements Type Data Validation</t>
   </si>
   <si>
-    <t>Module.HumanResource.MasterData.BusinessTripCostComponent.Report.DataValidation</t>
-  </si>
-  <si>
     <t>Business Trip Cost Component Data Validation</t>
   </si>
   <si>
@@ -3335,9 +3332,6 @@
     <t>Work Type Data Validation</t>
   </si>
   <si>
-    <t>Module.Project.MasterData.ProjectSectionType.Report.DataValidation</t>
-  </si>
-  <si>
     <t>Project Section Type Data Validation</t>
   </si>
   <si>
@@ -3923,12 +3917,6 @@
     <t>Expense Reimbursement Resume</t>
   </si>
   <si>
-    <t>Module.Accounting.Data.Journal.Transaction</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
     <t>Module.Finance.Data.SalesInvoiceRequisition.Transaction</t>
   </si>
   <si>
@@ -4137,6 +4125,21 @@
   </si>
   <si>
     <t>Chart Of Accounting Linkage Schema Data List</t>
+  </si>
+  <si>
+    <t>Module.Accounting.Data.JournalEntry.Transaction</t>
+  </si>
+  <si>
+    <t>Journal Entry</t>
+  </si>
+  <si>
+    <t>Workflow Path Data Validation</t>
+  </si>
+  <si>
+    <t>Module.Project.MasterData.ProjectSectionType.DataValidation</t>
+  </si>
+  <si>
+    <t>Module.HumanResource.MasterData.BusinessTripCostComponent.DataValidation</t>
   </si>
 </sst>
 </file>
@@ -15884,10 +15887,10 @@
     </row>
     <row r="311" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B311" s="14" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="D311" s="14" t="s">
         <v>96</v>
@@ -16248,7 +16251,7 @@
     </row>
     <row r="321" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B321" s="14" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C321" s="14"/>
       <c r="D321" s="14"/>
@@ -16285,10 +16288,10 @@
     </row>
     <row r="322" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B322" s="14" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D322" s="14" t="s">
         <v>62</v>
@@ -16641,7 +16644,7 @@
     </row>
     <row r="332" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B332" s="14" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C332" s="14"/>
       <c r="D332" s="14"/>
@@ -19223,7 +19226,7 @@
   <dimension ref="B1:I642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D624" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I2" sqref="I2:I642"/>
@@ -19237,7 +19240,7 @@
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -20481,7 +20484,7 @@
         <v>961</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>960</v>
+        <v>1372</v>
       </c>
       <c r="E53" s="8">
         <f t="shared" si="0"/>
@@ -20493,11 +20496,11 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Workflow Data Validation</v>
+        <v>Workflow Path Data Validation</v>
       </c>
       <c r="I53" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 'Module.Administration.WorkFlowPath.DataValidation', 'Workflow Data Validation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 'Module.Administration.WorkFlowPath.DataValidation', 'Workflow Path Data Validation');</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
@@ -22281,7 +22284,7 @@
         <v>645</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="E128" s="8">
         <f t="shared" si="6"/>
@@ -22305,7 +22308,7 @@
         <v>998</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E129" s="8">
         <f t="shared" si="6"/>
@@ -22329,7 +22332,7 @@
         <v>816</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="E130" s="8">
         <f t="shared" si="6"/>
@@ -22353,7 +22356,7 @@
         <v>588</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="E131" s="8">
         <f t="shared" ref="E131:E202" si="10">IF(ISNUMBER($E130), $E130+1, 97000000000001)</f>
@@ -22377,7 +22380,7 @@
         <v>646</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E132" s="8">
         <f t="shared" si="10"/>
@@ -22401,7 +22404,7 @@
         <v>999</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="E133" s="8">
         <f t="shared" si="10"/>
@@ -22425,7 +22428,7 @@
         <v>817</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E134" s="8">
         <f t="shared" si="10"/>
@@ -22449,7 +22452,7 @@
         <v>589</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="E135" s="8">
         <f t="shared" si="10"/>
@@ -22473,7 +22476,7 @@
         <v>647</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E136" s="8">
         <f t="shared" si="10"/>
@@ -22497,7 +22500,7 @@
         <v>1000</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="E137" s="8">
         <f t="shared" si="10"/>
@@ -22521,7 +22524,7 @@
         <v>818</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E138" s="8">
         <f t="shared" si="10"/>
@@ -22545,7 +22548,7 @@
         <v>590</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="E139" s="8">
         <f t="shared" si="10"/>
@@ -22569,7 +22572,7 @@
         <v>648</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="E140" s="8">
         <f t="shared" si="10"/>
@@ -22593,7 +22596,7 @@
         <v>1001</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E141" s="8">
         <f t="shared" si="10"/>
@@ -22617,7 +22620,7 @@
         <v>819</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="E142" s="8">
         <f t="shared" si="10"/>
@@ -22641,7 +22644,7 @@
         <v>591</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="E143" s="8">
         <f t="shared" si="10"/>
@@ -23526,10 +23529,10 @@
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>1342</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>1346</v>
       </c>
       <c r="E180" s="8">
         <f t="shared" si="10"/>
@@ -23550,10 +23553,10 @@
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>1343</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>1347</v>
       </c>
       <c r="E181" s="8">
         <f t="shared" si="10"/>
@@ -23574,10 +23577,10 @@
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>1348</v>
       </c>
       <c r="E182" s="8">
         <f t="shared" si="10"/>
@@ -23598,10 +23601,10 @@
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B183" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>1345</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>1349</v>
       </c>
       <c r="E183" s="8">
         <f t="shared" si="10"/>
@@ -23622,10 +23625,10 @@
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B184" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>1350</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>1354</v>
       </c>
       <c r="E184" s="8">
         <f t="shared" si="10"/>
@@ -23646,10 +23649,10 @@
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B185" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>1355</v>
       </c>
       <c r="E185" s="8">
         <f t="shared" si="10"/>
@@ -23670,10 +23673,10 @@
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>1352</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>1356</v>
       </c>
       <c r="E186" s="8">
         <f t="shared" si="10"/>
@@ -23694,10 +23697,10 @@
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B187" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>1353</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>1357</v>
       </c>
       <c r="E187" s="8">
         <f t="shared" si="10"/>
@@ -26214,10 +26217,10 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B292" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>1358</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>1362</v>
       </c>
       <c r="E292" s="8">
         <f t="shared" si="23"/>
@@ -26238,10 +26241,10 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B293" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>1363</v>
       </c>
       <c r="E293" s="8">
         <f t="shared" si="23"/>
@@ -26262,10 +26265,10 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>1364</v>
       </c>
       <c r="E294" s="8">
         <f t="shared" si="23"/>
@@ -26286,10 +26289,10 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B295" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C295" s="4" t="s">
         <v>1361</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>1365</v>
       </c>
       <c r="E295" s="8">
         <f t="shared" si="23"/>
@@ -26310,10 +26313,10 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B296" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>1370</v>
       </c>
       <c r="E296" s="8">
         <f t="shared" si="23"/>
@@ -26334,10 +26337,10 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B297" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>1367</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>1371</v>
       </c>
       <c r="E297" s="8">
         <f t="shared" si="23"/>
@@ -26358,10 +26361,10 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>1372</v>
       </c>
       <c r="E298" s="8">
         <f t="shared" si="23"/>
@@ -26382,10 +26385,10 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B299" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C299" s="4" t="s">
         <v>1369</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>1373</v>
       </c>
       <c r="E299" s="8">
         <f t="shared" si="23"/>
@@ -26406,10 +26409,10 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B300" s="10" t="s">
-        <v>1302</v>
+        <v>1370</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>1303</v>
+        <v>1371</v>
       </c>
       <c r="E300" s="8">
         <f t="shared" si="23"/>
@@ -26417,23 +26420,23 @@
       </c>
       <c r="F300" s="3" t="str">
         <f t="shared" si="26"/>
-        <v>Module.Accounting.Data.Journal.Transaction</v>
+        <v>Module.Accounting.Data.JournalEntry.Transaction</v>
       </c>
       <c r="G300" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>Journal</v>
+        <v>Journal Entry</v>
       </c>
       <c r="I300" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 'Module.Accounting.Data.Journal.Transaction', 'Journal');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 'Module.Accounting.Data.JournalEntry.Transaction', 'Journal Entry');</v>
       </c>
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B301" s="4" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E301" s="8">
         <f t="shared" si="23"/>
@@ -26454,10 +26457,10 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="4" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E302" s="8">
         <f t="shared" si="23"/>
@@ -27150,10 +27153,10 @@
     </row>
     <row r="331" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B331" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E331" s="8">
         <f t="shared" si="23"/>
@@ -27174,10 +27177,10 @@
     </row>
     <row r="332" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B332" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E332" s="8">
         <f t="shared" si="23"/>
@@ -27198,10 +27201,10 @@
     </row>
     <row r="333" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B333" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E333" s="8">
         <f t="shared" si="23"/>
@@ -27222,10 +27225,10 @@
     </row>
     <row r="334" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B334" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E334" s="8">
         <f t="shared" si="23"/>
@@ -27342,10 +27345,10 @@
     </row>
     <row r="339" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B339" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E339" s="8">
         <f t="shared" ref="E339:E402" si="29">IF(ISNUMBER($E338), $E338+1, 97000000000001)</f>
@@ -27366,10 +27369,10 @@
     </row>
     <row r="340" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B340" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E340" s="8">
         <f t="shared" si="29"/>
@@ -27390,10 +27393,10 @@
     </row>
     <row r="341" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B341" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E341" s="8">
         <f t="shared" si="29"/>
@@ -27414,10 +27417,10 @@
     </row>
     <row r="342" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B342" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E342" s="8">
         <f t="shared" si="29"/>
@@ -27534,10 +27537,10 @@
     </row>
     <row r="347" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B347" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E347" s="8">
         <f t="shared" si="29"/>
@@ -27558,10 +27561,10 @@
     </row>
     <row r="348" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B348" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E348" s="8">
         <f t="shared" si="29"/>
@@ -27582,10 +27585,10 @@
     </row>
     <row r="349" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B349" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E349" s="8">
         <f t="shared" si="29"/>
@@ -27606,10 +27609,10 @@
     </row>
     <row r="350" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B350" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E350" s="8">
         <f t="shared" si="29"/>
@@ -28014,10 +28017,10 @@
     </row>
     <row r="367" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B367" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E367" s="8">
         <f t="shared" si="29"/>
@@ -28038,10 +28041,10 @@
     </row>
     <row r="368" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B368" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E368" s="8">
         <f t="shared" si="29"/>
@@ -28062,10 +28065,10 @@
     </row>
     <row r="369" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B369" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E369" s="8">
         <f t="shared" si="29"/>
@@ -28086,10 +28089,10 @@
     </row>
     <row r="370" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B370" s="4" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E370" s="8">
         <f t="shared" si="29"/>
@@ -28206,10 +28209,10 @@
     </row>
     <row r="375" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B375" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E375" s="8">
         <f t="shared" si="29"/>
@@ -28230,10 +28233,10 @@
     </row>
     <row r="376" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B376" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E376" s="8">
         <f t="shared" si="29"/>
@@ -28254,10 +28257,10 @@
     </row>
     <row r="377" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B377" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E377" s="8">
         <f t="shared" si="29"/>
@@ -28278,10 +28281,10 @@
     </row>
     <row r="378" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B378" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E378" s="8">
         <f t="shared" si="29"/>
@@ -28302,10 +28305,10 @@
     </row>
     <row r="379" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B379" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E379" s="8">
         <f t="shared" si="29"/>
@@ -28326,10 +28329,10 @@
     </row>
     <row r="380" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B380" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E380" s="8">
         <f t="shared" si="29"/>
@@ -28350,10 +28353,10 @@
     </row>
     <row r="381" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B381" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E381" s="8">
         <f t="shared" si="29"/>
@@ -28374,10 +28377,10 @@
     </row>
     <row r="382" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B382" s="4" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E382" s="8">
         <f t="shared" si="29"/>
@@ -28398,10 +28401,10 @@
     </row>
     <row r="383" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B383" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E383" s="8">
         <f t="shared" si="29"/>
@@ -28422,10 +28425,10 @@
     </row>
     <row r="384" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B384" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E384" s="8">
         <f t="shared" si="29"/>
@@ -28446,10 +28449,10 @@
     </row>
     <row r="385" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B385" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E385" s="8">
         <f t="shared" si="29"/>
@@ -28470,10 +28473,10 @@
     </row>
     <row r="386" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B386" s="4" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E386" s="8">
         <f t="shared" si="29"/>
@@ -29070,10 +29073,10 @@
     </row>
     <row r="411" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B411" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>1304</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>1308</v>
       </c>
       <c r="E411" s="8">
         <f t="shared" si="33"/>
@@ -29094,10 +29097,10 @@
     </row>
     <row r="412" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B412" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>1305</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>1309</v>
       </c>
       <c r="E412" s="8">
         <f t="shared" si="33"/>
@@ -29118,10 +29121,10 @@
     </row>
     <row r="413" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B413" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>1306</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>1310</v>
       </c>
       <c r="E413" s="8">
         <f t="shared" si="33"/>
@@ -29142,10 +29145,10 @@
     </row>
     <row r="414" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B414" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C414" s="4" t="s">
         <v>1307</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>1311</v>
       </c>
       <c r="E414" s="8">
         <f t="shared" si="33"/>
@@ -29478,10 +29481,10 @@
     </row>
     <row r="428" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B428" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>1078</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>1079</v>
       </c>
       <c r="E428" s="8">
         <f t="shared" si="33"/>
@@ -29489,7 +29492,7 @@
       </c>
       <c r="F428" s="3" t="str">
         <f t="shared" si="34"/>
-        <v>Module.HumanResource.MasterData.BusinessTripCostComponent.Report.DataValidation</v>
+        <v>Module.HumanResource.MasterData.BusinessTripCostComponent.DataValidation</v>
       </c>
       <c r="G428" s="3" t="str">
         <f t="shared" si="35"/>
@@ -29497,7 +29500,7 @@
       </c>
       <c r="I428" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 'Module.HumanResource.MasterData.BusinessTripCostComponent.Report.DataValidation', 'Business Trip Cost Component Data Validation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 'Module.HumanResource.MasterData.BusinessTripCostComponent.DataValidation', 'Business Trip Cost Component Data Validation');</v>
       </c>
     </row>
     <row r="429" spans="2:9" x14ac:dyDescent="0.2">
@@ -29574,10 +29577,10 @@
     </row>
     <row r="432" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B432" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>1080</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>1081</v>
       </c>
       <c r="E432" s="8">
         <f t="shared" si="33"/>
@@ -29670,10 +29673,10 @@
     </row>
     <row r="436" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B436" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>1082</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>1083</v>
       </c>
       <c r="E436" s="8">
         <f t="shared" si="33"/>
@@ -29766,10 +29769,10 @@
     </row>
     <row r="440" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B440" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>1085</v>
       </c>
       <c r="E440" s="8">
         <f t="shared" si="33"/>
@@ -29862,10 +29865,10 @@
     </row>
     <row r="444" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B444" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="E444" s="8">
         <f t="shared" si="33"/>
@@ -29958,10 +29961,10 @@
     </row>
     <row r="448" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B448" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>1088</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>1089</v>
       </c>
       <c r="E448" s="8">
         <f t="shared" si="33"/>
@@ -30054,10 +30057,10 @@
     </row>
     <row r="452" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B452" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>1090</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>1091</v>
       </c>
       <c r="E452" s="8">
         <f t="shared" si="33"/>
@@ -30150,10 +30153,10 @@
     </row>
     <row r="456" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B456" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>1092</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>1093</v>
       </c>
       <c r="E456" s="8">
         <f t="shared" si="33"/>
@@ -30246,10 +30249,10 @@
     </row>
     <row r="460" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B460" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="E460" s="8">
         <f t="shared" si="33"/>
@@ -30342,10 +30345,10 @@
     </row>
     <row r="464" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B464" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>1096</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>1097</v>
       </c>
       <c r="E464" s="8">
         <f t="shared" si="33"/>
@@ -30438,10 +30441,10 @@
     </row>
     <row r="468" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B468" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>1099</v>
       </c>
       <c r="E468" s="8">
         <f t="shared" si="37"/>
@@ -30534,10 +30537,10 @@
     </row>
     <row r="472" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B472" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C472" s="2" t="s">
         <v>1100</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="E472" s="8">
         <f t="shared" si="37"/>
@@ -30630,10 +30633,10 @@
     </row>
     <row r="476" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B476" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C476" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>1103</v>
       </c>
       <c r="E476" s="8">
         <f t="shared" si="37"/>
@@ -30726,10 +30729,10 @@
     </row>
     <row r="480" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B480" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>1104</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>1105</v>
       </c>
       <c r="E480" s="8">
         <f t="shared" si="37"/>
@@ -30894,10 +30897,10 @@
     </row>
     <row r="487" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B487" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E487" s="8">
         <f t="shared" si="37"/>
@@ -30918,10 +30921,10 @@
     </row>
     <row r="488" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B488" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E488" s="8">
         <f t="shared" si="37"/>
@@ -30942,10 +30945,10 @@
     </row>
     <row r="489" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B489" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E489" s="8">
         <f t="shared" si="37"/>
@@ -30966,10 +30969,10 @@
     </row>
     <row r="490" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B490" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E490" s="8">
         <f t="shared" si="37"/>
@@ -30990,10 +30993,10 @@
     </row>
     <row r="491" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B491" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E491" s="8">
         <f t="shared" si="37"/>
@@ -31014,10 +31017,10 @@
     </row>
     <row r="492" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B492" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E492" s="8">
         <f t="shared" si="37"/>
@@ -31038,10 +31041,10 @@
     </row>
     <row r="493" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B493" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E493" s="8">
         <f t="shared" si="37"/>
@@ -31062,10 +31065,10 @@
     </row>
     <row r="494" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B494" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E494" s="8">
         <f t="shared" si="37"/>
@@ -31950,10 +31953,10 @@
     </row>
     <row r="531" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B531" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E531" s="8">
         <f t="shared" ref="E531:E594" si="41">IF(ISNUMBER($E530), $E530+1, 97000000000001)</f>
@@ -31974,10 +31977,10 @@
     </row>
     <row r="532" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B532" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="E532" s="8">
         <f t="shared" si="41"/>
@@ -31998,10 +32001,10 @@
     </row>
     <row r="533" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B533" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E533" s="8">
         <f t="shared" si="41"/>
@@ -32022,10 +32025,10 @@
     </row>
     <row r="534" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B534" s="4" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E534" s="8">
         <f t="shared" si="41"/>
@@ -32046,10 +32049,10 @@
     </row>
     <row r="535" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B535" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E535" s="8">
         <f t="shared" si="41"/>
@@ -32070,10 +32073,10 @@
     </row>
     <row r="536" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B536" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E536" s="8">
         <f t="shared" si="41"/>
@@ -32094,10 +32097,10 @@
     </row>
     <row r="537" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B537" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E537" s="8">
         <f t="shared" si="41"/>
@@ -32118,10 +32121,10 @@
     </row>
     <row r="538" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B538" s="4" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E538" s="8">
         <f t="shared" si="41"/>
@@ -32550,10 +32553,10 @@
     </row>
     <row r="556" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B556" s="2" t="s">
-        <v>1106</v>
+        <v>1373</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E556" s="8">
         <f t="shared" si="41"/>
@@ -32561,7 +32564,7 @@
       </c>
       <c r="F556" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>Module.Project.MasterData.ProjectSectionType.Report.DataValidation</v>
+        <v>Module.Project.MasterData.ProjectSectionType.DataValidation</v>
       </c>
       <c r="G556" s="3" t="str">
         <f t="shared" si="43"/>
@@ -32569,7 +32572,7 @@
       </c>
       <c r="I556" s="9" t="str">
         <f t="shared" si="40"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 'Module.Project.MasterData.ProjectSectionType.Report.DataValidation', 'Project Section Type Data Validation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_Menu_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 'Module.Project.MasterData.ProjectSectionType.DataValidation', 'Project Section Type Data Validation');</v>
       </c>
     </row>
     <row r="557" spans="2:9" x14ac:dyDescent="0.2">
@@ -33102,10 +33105,10 @@
     </row>
     <row r="579" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B579" s="7" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E579" s="8">
         <f t="shared" si="41"/>
@@ -33126,10 +33129,10 @@
     </row>
     <row r="580" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B580" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E580" s="8">
         <f t="shared" si="41"/>
@@ -33150,10 +33153,10 @@
     </row>
     <row r="581" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B581" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E581" s="8">
         <f t="shared" si="41"/>
@@ -33174,10 +33177,10 @@
     </row>
     <row r="582" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B582" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E582" s="8">
         <f t="shared" si="41"/>
@@ -33198,10 +33201,10 @@
     </row>
     <row r="583" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B583" s="7" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E583" s="8">
         <f t="shared" si="41"/>
@@ -33222,10 +33225,10 @@
     </row>
     <row r="584" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B584" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E584" s="8">
         <f t="shared" si="41"/>
@@ -33246,10 +33249,10 @@
     </row>
     <row r="585" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B585" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E585" s="8">
         <f t="shared" si="41"/>
@@ -33270,10 +33273,10 @@
     </row>
     <row r="586" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B586" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E586" s="8">
         <f t="shared" si="41"/>
@@ -33294,10 +33297,10 @@
     </row>
     <row r="587" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B587" s="7" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E587" s="8">
         <f t="shared" si="41"/>
@@ -33318,10 +33321,10 @@
     </row>
     <row r="588" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B588" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E588" s="8">
         <f t="shared" si="41"/>
@@ -33342,10 +33345,10 @@
     </row>
     <row r="589" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B589" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E589" s="8">
         <f t="shared" si="41"/>
@@ -33366,10 +33369,10 @@
     </row>
     <row r="590" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B590" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E590" s="8">
         <f t="shared" si="41"/>
@@ -33390,10 +33393,10 @@
     </row>
     <row r="591" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B591" s="7" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E591" s="8">
         <f t="shared" si="41"/>
@@ -33414,10 +33417,10 @@
     </row>
     <row r="592" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B592" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E592" s="8">
         <f t="shared" si="41"/>
@@ -33438,10 +33441,10 @@
     </row>
     <row r="593" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B593" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E593" s="8">
         <f t="shared" si="41"/>
@@ -33462,10 +33465,10 @@
     </row>
     <row r="594" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B594" s="4" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E594" s="8">
         <f t="shared" si="41"/>
@@ -33486,10 +33489,10 @@
     </row>
     <row r="595" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B595" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E595" s="8">
         <f t="shared" ref="E595:E642" si="45">IF(ISNUMBER($E594), $E594+1, 97000000000001)</f>
@@ -33510,10 +33513,10 @@
     </row>
     <row r="596" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B596" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E596" s="8">
         <f t="shared" si="45"/>
@@ -33534,10 +33537,10 @@
     </row>
     <row r="597" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B597" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E597" s="8">
         <f t="shared" si="45"/>
@@ -33558,10 +33561,10 @@
     </row>
     <row r="598" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B598" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E598" s="8">
         <f t="shared" si="45"/>
@@ -33582,10 +33585,10 @@
     </row>
     <row r="599" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B599" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E599" s="8">
         <f t="shared" si="45"/>
@@ -33606,10 +33609,10 @@
     </row>
     <row r="600" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B600" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E600" s="8">
         <f t="shared" si="45"/>
@@ -33630,10 +33633,10 @@
     </row>
     <row r="601" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B601" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E601" s="8">
         <f t="shared" si="45"/>
@@ -33654,10 +33657,10 @@
     </row>
     <row r="602" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B602" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E602" s="8">
         <f t="shared" si="45"/>
@@ -33678,10 +33681,10 @@
     </row>
     <row r="603" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B603" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C603" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="C603" s="2" t="s">
-        <v>1322</v>
       </c>
       <c r="E603" s="8">
         <f t="shared" si="45"/>
@@ -33702,10 +33705,10 @@
     </row>
     <row r="604" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B604" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C604" s="2" t="s">
         <v>1319</v>
-      </c>
-      <c r="C604" s="2" t="s">
-        <v>1323</v>
       </c>
       <c r="E604" s="8">
         <f t="shared" si="45"/>
@@ -33726,10 +33729,10 @@
     </row>
     <row r="605" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B605" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C605" s="2" t="s">
         <v>1320</v>
-      </c>
-      <c r="C605" s="2" t="s">
-        <v>1324</v>
       </c>
       <c r="E605" s="8">
         <f t="shared" si="45"/>
@@ -33750,10 +33753,10 @@
     </row>
     <row r="606" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B606" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C606" s="4" t="s">
         <v>1321</v>
-      </c>
-      <c r="C606" s="4" t="s">
-        <v>1325</v>
       </c>
       <c r="E606" s="8">
         <f t="shared" si="45"/>
@@ -33774,10 +33777,10 @@
     </row>
     <row r="607" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B607" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E607" s="8">
         <f t="shared" si="45"/>
@@ -33798,10 +33801,10 @@
     </row>
     <row r="608" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B608" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E608" s="8">
         <f t="shared" si="45"/>
@@ -33822,10 +33825,10 @@
     </row>
     <row r="609" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B609" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E609" s="8">
         <f t="shared" si="45"/>
@@ -33846,10 +33849,10 @@
     </row>
     <row r="610" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B610" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E610" s="8">
         <f t="shared" si="45"/>
@@ -33870,10 +33873,10 @@
     </row>
     <row r="611" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B611" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E611" s="8">
         <f t="shared" si="45"/>
@@ -33894,10 +33897,10 @@
     </row>
     <row r="612" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B612" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E612" s="8">
         <f t="shared" si="45"/>
@@ -33918,10 +33921,10 @@
     </row>
     <row r="613" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B613" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E613" s="8">
         <f t="shared" si="45"/>
@@ -33942,10 +33945,10 @@
     </row>
     <row r="614" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B614" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E614" s="8">
         <f t="shared" si="45"/>
@@ -33966,7 +33969,7 @@
     </row>
     <row r="615" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B615" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>90</v>
@@ -33990,10 +33993,10 @@
     </row>
     <row r="616" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B616" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E616" s="8">
         <f t="shared" si="45"/>
@@ -34014,10 +34017,10 @@
     </row>
     <row r="617" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B617" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E617" s="8">
         <f t="shared" si="45"/>
@@ -34038,10 +34041,10 @@
     </row>
     <row r="618" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B618" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E618" s="8">
         <f t="shared" si="45"/>
@@ -34062,7 +34065,7 @@
     </row>
     <row r="619" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B619" s="2" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>89</v>
@@ -34086,10 +34089,10 @@
     </row>
     <row r="620" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B620" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E620" s="8">
         <f t="shared" si="45"/>
@@ -34110,10 +34113,10 @@
     </row>
     <row r="621" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B621" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E621" s="8">
         <f t="shared" si="45"/>
@@ -34134,10 +34137,10 @@
     </row>
     <row r="622" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B622" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E622" s="8">
         <f t="shared" si="45"/>
@@ -34158,10 +34161,10 @@
     </row>
     <row r="623" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B623" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E623" s="8">
         <f t="shared" si="45"/>
@@ -34182,10 +34185,10 @@
     </row>
     <row r="624" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B624" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E624" s="8">
         <f t="shared" si="45"/>
@@ -34206,10 +34209,10 @@
     </row>
     <row r="625" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B625" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E625" s="8">
         <f t="shared" si="45"/>
@@ -34230,10 +34233,10 @@
     </row>
     <row r="626" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B626" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E626" s="8">
         <f t="shared" si="45"/>
@@ -34254,10 +34257,10 @@
     </row>
     <row r="627" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B627" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E627" s="8">
         <f t="shared" si="45"/>
@@ -34278,10 +34281,10 @@
     </row>
     <row r="628" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B628" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E628" s="8">
         <f t="shared" si="45"/>
@@ -34302,10 +34305,10 @@
     </row>
     <row r="629" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B629" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E629" s="8">
         <f t="shared" si="45"/>
@@ -34326,10 +34329,10 @@
     </row>
     <row r="630" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B630" s="4" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E630" s="8">
         <f t="shared" si="45"/>
@@ -34374,10 +34377,10 @@
     </row>
     <row r="632" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B632" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E632" s="8">
         <f t="shared" si="45"/>
@@ -34470,10 +34473,10 @@
     </row>
     <row r="636" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B636" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E636" s="8">
         <f t="shared" si="45"/>
@@ -34542,7 +34545,7 @@
     </row>
     <row r="639" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B639" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>540</v>
@@ -34566,7 +34569,7 @@
     </row>
     <row r="640" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B640" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>541</v>
@@ -34590,7 +34593,7 @@
     </row>
     <row r="641" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B641" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>542</v>
@@ -34614,7 +34617,7 @@
     </row>
     <row r="642" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B642" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C642" s="4" t="s">
         <v>543</v>
